--- a/test-case-example.xlsx
+++ b/test-case-example.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QuanLyHoTroDatVeXe\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="1635" yWindow="-210" windowWidth="12120" windowHeight="9120" tabRatio="821" activeTab="1"/>
   </bookViews>
@@ -24,7 +29,7 @@
     <definedName name="Port">[1]Validation!$F$2:$F$40</definedName>
     <definedName name="VancoProducts">[1]Validation!$B$2:$B$4</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -1100,19 +1105,7 @@
     <t>1. Kiểm tra chức năng đăng nhập</t>
   </si>
   <si>
-    <t xml:space="preserve">1: Nhập tên đăng nhập: "yen"
-2: nhập pass: "123"
-3: Click Login
-</t>
-  </si>
-  <si>
     <t>xuất hiện Message Box thông báo: "Đăng nhập thành công!"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1: Nhập tên đăng nhập: "tu2909"
-2: nhập pass: "123"
-3: Click Login
-</t>
   </si>
   <si>
     <t>Kiểm tra chức năng của khách hàng</t>
@@ -1340,23 +1333,6 @@
 2:  Ngày đi: "6/12/2019"
 3: Điểm đi: "Đồng Nay"
 4: Điểm đến: "Long An"
-5: Click button Tìm chuyến
-6: Click button Chọn ghế</t>
-  </si>
-  <si>
-    <t>1: Chọn giờ: "5h00"
-2:  Ngày đi: "6/12/2019"
-3: Điểm đi: "Đồng Nay"
-4: Điểm đến: "Long An"
-5: Click button Tìm chuyến
-6: Click ghế không có màu đỏ bất kì
-7: Click button Chọn ghế</t>
-  </si>
-  <si>
-    <t>1: Chọn giờ: "5h00"
-2:  Ngày đi: "6/12/2019"
-3: Điểm đi: "Đồng Nay"
-4: Điểm đến: "Long An"
 5: Click button Tìm chuyến</t>
   </si>
   <si>
@@ -1440,16 +1416,6 @@
     </r>
   </si>
   <si>
-    <t>1: Chọn giờ: "5h00"
-2:  Ngày đi: "6/12/2019"
-3: Điểm đi: "Đồng Nay"
-4: Điểm đến: "Long An"
-5: Click button Tìm chuyến
-6: Click ghế không có màu đỏ bất kì
-7: Click button Chọn ghế
-8: Click button Xác nhận</t>
-  </si>
-  <si>
     <t>1: giờ khởi hành: "5h00"
 2:  Ngày đi: "6/12/2019"
 3: Biển số: ""
@@ -1459,11 +1425,50 @@
 7: Click button Thêm mới
 6: Click button Xác nhận</t>
   </si>
+  <si>
+    <t xml:space="preserve">1: Nhập tên đăng nhập: "tu"
+2: nhập pass: "1"
+3: Click Login
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1: Nhập tên đăng nhập: "yen"
+2: nhập pass: "1"
+3: Click Login
+</t>
+  </si>
+  <si>
+    <t>1: Chọn giờ: "5h00"
+2:  Ngày đi: "19/11/2019"
+3: Điểm đi: "Đồng Nai"
+4: Điểm đến: "Long An"
+5: Click button Tìm chuyến
+6: Click ghế không có màu đỏ bất kì
+7: Click button Chọn ghế</t>
+  </si>
+  <si>
+    <t>1: Chọn giờ: "5h00"
+2:  Ngày đi: "19/11/2019"
+3: Điểm đi: "Đồng Nay"
+4: Điểm đến: "Long An"
+5: Click button Tìm chuyến
+6: Click button Chọn ghế</t>
+  </si>
+  <si>
+    <t>1: Chọn giờ: "5h00"
+2:  Ngày đi: "19/11/2019"
+3: Điểm đi: "Đồng Nay"
+4: Điểm đến: "Long An"
+5: Click button Tìm chuyến
+6: Click ghế không có màu đỏ bất kì
+7: Click button Chọn ghế
+8: Click button Xác nhận</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -2487,29 +2492,74 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="25" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2517,6 +2567,15 @@
     <xf numFmtId="0" fontId="22" fillId="4" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2541,9 +2600,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2556,62 +2612,11 @@
     <xf numFmtId="0" fontId="15" fillId="6" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="25" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2625,6 +2630,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -4967,7 +4975,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5002,7 +5010,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5285,11 +5293,11 @@
       <c r="B6" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="136" t="s">
+      <c r="C6" s="137" t="s">
         <v>144</v>
       </c>
-      <c r="D6" s="136"/>
-      <c r="E6" s="137"/>
+      <c r="D6" s="137"/>
+      <c r="E6" s="138"/>
       <c r="F6" s="26"/>
       <c r="G6" s="26"/>
     </row>
@@ -5298,11 +5306,11 @@
       <c r="B7" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="136" t="s">
+      <c r="C7" s="137" t="s">
         <v>145</v>
       </c>
-      <c r="D7" s="136"/>
-      <c r="E7" s="137"/>
+      <c r="D7" s="137"/>
+      <c r="E7" s="138"/>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
     </row>
@@ -5515,8 +5523,8 @@
   </sheetPr>
   <dimension ref="A1:N115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" outlineLevelRow="1"/>
@@ -5535,9 +5543,9 @@
       <c r="A1" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="146"/>
-      <c r="C1" s="146"/>
-      <c r="D1" s="146"/>
+      <c r="B1" s="164"/>
+      <c r="C1" s="164"/>
+      <c r="D1" s="164"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
@@ -5548,9 +5556,9 @@
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
       <c r="A2" s="7"/>
-      <c r="B2" s="147"/>
-      <c r="C2" s="147"/>
-      <c r="D2" s="147"/>
+      <c r="B2" s="165"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
@@ -5563,49 +5571,49 @@
       <c r="A3" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="136" t="s">
+      <c r="B3" s="137" t="s">
         <v>173</v>
       </c>
-      <c r="C3" s="136"/>
-      <c r="D3" s="137"/>
+      <c r="C3" s="137"/>
+      <c r="D3" s="138"/>
       <c r="E3" s="68"/>
       <c r="F3" s="68"/>
       <c r="G3" s="68"/>
-      <c r="H3" s="153"/>
-      <c r="I3" s="153"/>
-      <c r="J3" s="153"/>
+      <c r="H3" s="171"/>
+      <c r="I3" s="171"/>
+      <c r="J3" s="171"/>
       <c r="K3" s="9"/>
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1" ht="12.75">
       <c r="A4" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="155" t="s">
+      <c r="B4" s="172" t="s">
         <v>147</v>
       </c>
-      <c r="C4" s="156"/>
-      <c r="D4" s="157"/>
+      <c r="C4" s="173"/>
+      <c r="D4" s="174"/>
       <c r="E4" s="68"/>
       <c r="F4" s="68"/>
       <c r="G4" s="68"/>
-      <c r="H4" s="153"/>
-      <c r="I4" s="153"/>
-      <c r="J4" s="153"/>
+      <c r="H4" s="171"/>
+      <c r="I4" s="171"/>
+      <c r="J4" s="171"/>
       <c r="K4" s="9"/>
     </row>
     <row r="5" spans="1:11" s="81" customFormat="1" ht="12.75">
       <c r="A5" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="149"/>
-      <c r="C5" s="150"/>
-      <c r="D5" s="151"/>
+      <c r="B5" s="167"/>
+      <c r="C5" s="168"/>
+      <c r="D5" s="169"/>
       <c r="E5" s="79"/>
       <c r="F5" s="79"/>
       <c r="G5" s="79"/>
-      <c r="H5" s="152"/>
-      <c r="I5" s="152"/>
-      <c r="J5" s="152"/>
+      <c r="H5" s="170"/>
+      <c r="I5" s="170"/>
+      <c r="J5" s="170"/>
       <c r="K5" s="80"/>
     </row>
     <row r="6" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1">
@@ -5623,9 +5631,9 @@
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="153"/>
-      <c r="I6" s="153"/>
-      <c r="J6" s="153"/>
+      <c r="H6" s="171"/>
+      <c r="I6" s="171"/>
+      <c r="J6" s="171"/>
       <c r="K6" s="9"/>
     </row>
     <row r="7" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1" thickBot="1">
@@ -5643,16 +5651,16 @@
       <c r="E7" s="69"/>
       <c r="F7" s="69"/>
       <c r="G7" s="69"/>
-      <c r="H7" s="153"/>
-      <c r="I7" s="153"/>
-      <c r="J7" s="153"/>
+      <c r="H7" s="171"/>
+      <c r="I7" s="171"/>
+      <c r="J7" s="171"/>
       <c r="K7" s="9"/>
     </row>
     <row r="8" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="148"/>
-      <c r="B8" s="148"/>
-      <c r="C8" s="148"/>
-      <c r="D8" s="148"/>
+      <c r="A8" s="166"/>
+      <c r="B8" s="166"/>
+      <c r="C8" s="166"/>
+      <c r="D8" s="166"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
@@ -5662,89 +5670,89 @@
       <c r="K8" s="9"/>
     </row>
     <row r="9" spans="1:11" s="83" customFormat="1" ht="12" customHeight="1">
-      <c r="A9" s="162" t="s">
+      <c r="A9" s="149" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="163" t="s">
+      <c r="B9" s="151" t="s">
         <v>174</v>
       </c>
-      <c r="C9" s="162" t="s">
+      <c r="C9" s="149" t="s">
         <v>175</v>
       </c>
-      <c r="D9" s="165" t="s">
+      <c r="D9" s="153" t="s">
         <v>176</v>
       </c>
-      <c r="E9" s="166"/>
-      <c r="F9" s="166"/>
-      <c r="G9" s="167"/>
-      <c r="H9" s="158" t="s">
+      <c r="E9" s="154"/>
+      <c r="F9" s="154"/>
+      <c r="G9" s="155"/>
+      <c r="H9" s="175" t="s">
         <v>177</v>
       </c>
-      <c r="I9" s="154" t="s">
+      <c r="I9" s="150" t="s">
         <v>178</v>
       </c>
-      <c r="J9" s="154" t="s">
+      <c r="J9" s="150" t="s">
         <v>179</v>
       </c>
       <c r="K9" s="82"/>
     </row>
     <row r="10" spans="1:11" s="71" customFormat="1" ht="12" customHeight="1">
-      <c r="A10" s="154"/>
-      <c r="B10" s="164"/>
-      <c r="C10" s="154"/>
-      <c r="D10" s="159"/>
-      <c r="E10" s="168"/>
-      <c r="F10" s="168"/>
-      <c r="G10" s="169"/>
-      <c r="H10" s="159"/>
-      <c r="I10" s="154"/>
-      <c r="J10" s="154"/>
+      <c r="A10" s="150"/>
+      <c r="B10" s="152"/>
+      <c r="C10" s="150"/>
+      <c r="D10" s="156"/>
+      <c r="E10" s="157"/>
+      <c r="F10" s="157"/>
+      <c r="G10" s="158"/>
+      <c r="H10" s="156"/>
+      <c r="I10" s="150"/>
+      <c r="J10" s="150"/>
       <c r="K10" s="70"/>
     </row>
     <row r="11" spans="1:11" s="84" customFormat="1" ht="15">
-      <c r="A11" s="160"/>
-      <c r="B11" s="160"/>
-      <c r="C11" s="160"/>
-      <c r="D11" s="160"/>
-      <c r="E11" s="160"/>
-      <c r="F11" s="160"/>
-      <c r="G11" s="160"/>
-      <c r="H11" s="160"/>
-      <c r="I11" s="160"/>
-      <c r="J11" s="161"/>
+      <c r="A11" s="176"/>
+      <c r="B11" s="176"/>
+      <c r="C11" s="176"/>
+      <c r="D11" s="176"/>
+      <c r="E11" s="176"/>
+      <c r="F11" s="176"/>
+      <c r="G11" s="176"/>
+      <c r="H11" s="176"/>
+      <c r="I11" s="176"/>
+      <c r="J11" s="177"/>
     </row>
     <row r="12" spans="1:11" s="4" customFormat="1" ht="12.75">
-      <c r="A12" s="141" t="s">
+      <c r="A12" s="139" t="s">
         <v>181</v>
       </c>
-      <c r="B12" s="142"/>
-      <c r="C12" s="142"/>
-      <c r="D12" s="142"/>
-      <c r="E12" s="142"/>
-      <c r="F12" s="142"/>
-      <c r="G12" s="142"/>
-      <c r="H12" s="142"/>
-      <c r="I12" s="142"/>
-      <c r="J12" s="143"/>
+      <c r="B12" s="140"/>
+      <c r="C12" s="140"/>
+      <c r="D12" s="140"/>
+      <c r="E12" s="140"/>
+      <c r="F12" s="140"/>
+      <c r="G12" s="140"/>
+      <c r="H12" s="140"/>
+      <c r="I12" s="140"/>
+      <c r="J12" s="141"/>
     </row>
     <row r="13" spans="1:11" s="4" customFormat="1" ht="51" outlineLevel="1">
       <c r="A13" s="88" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="97" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C13" s="87" t="s">
+        <v>209</v>
+      </c>
+      <c r="D13" s="161" t="s">
         <v>182</v>
       </c>
-      <c r="D13" s="170" t="s">
-        <v>183</v>
-      </c>
-      <c r="E13" s="171"/>
-      <c r="F13" s="171"/>
+      <c r="E13" s="162"/>
+      <c r="F13" s="162"/>
       <c r="G13" s="86"/>
       <c r="H13" s="113" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I13" s="87" t="s">
         <v>49</v>
@@ -5756,19 +5764,19 @@
         <v>14</v>
       </c>
       <c r="B14" s="97" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C14" s="87" t="s">
-        <v>184</v>
-      </c>
-      <c r="D14" s="140" t="s">
-        <v>183</v>
-      </c>
-      <c r="E14" s="139"/>
-      <c r="F14" s="172"/>
+        <v>208</v>
+      </c>
+      <c r="D14" s="142" t="s">
+        <v>182</v>
+      </c>
+      <c r="E14" s="143"/>
+      <c r="F14" s="163"/>
       <c r="G14" s="129"/>
       <c r="H14" s="113" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I14" s="87" t="s">
         <v>49</v>
@@ -5780,19 +5788,19 @@
         <v>15</v>
       </c>
       <c r="B15" s="97" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C15" s="87" t="s">
-        <v>192</v>
-      </c>
-      <c r="D15" s="140" t="s">
-        <v>193</v>
-      </c>
-      <c r="E15" s="139"/>
-      <c r="F15" s="172"/>
+        <v>190</v>
+      </c>
+      <c r="D15" s="142" t="s">
+        <v>191</v>
+      </c>
+      <c r="E15" s="143"/>
+      <c r="F15" s="163"/>
       <c r="G15" s="129"/>
       <c r="H15" s="113" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I15" s="87" t="s">
         <v>49</v>
@@ -5804,19 +5812,19 @@
         <v>16</v>
       </c>
       <c r="B16" s="97" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C16" s="87" t="s">
-        <v>194</v>
-      </c>
-      <c r="D16" s="140" t="s">
-        <v>193</v>
-      </c>
-      <c r="E16" s="139"/>
-      <c r="F16" s="172"/>
+        <v>192</v>
+      </c>
+      <c r="D16" s="142" t="s">
+        <v>191</v>
+      </c>
+      <c r="E16" s="143"/>
+      <c r="F16" s="163"/>
       <c r="G16" s="86"/>
       <c r="H16" s="113" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I16" s="87" t="s">
         <v>20</v>
@@ -5824,11 +5832,11 @@
       <c r="J16" s="85"/>
     </row>
     <row r="17" spans="1:10" s="4" customFormat="1" ht="12.75" outlineLevel="1">
-      <c r="A17" s="144" t="s">
-        <v>185</v>
-      </c>
-      <c r="B17" s="145"/>
-      <c r="C17" s="145"/>
+      <c r="A17" s="159" t="s">
+        <v>183</v>
+      </c>
+      <c r="B17" s="160"/>
+      <c r="C17" s="160"/>
       <c r="D17" s="123"/>
       <c r="E17" s="123"/>
       <c r="F17" s="123"/>
@@ -5842,19 +5850,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="105" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C18" s="106" t="s">
-        <v>205</v>
-      </c>
-      <c r="D18" s="138" t="s">
-        <v>187</v>
-      </c>
-      <c r="E18" s="139"/>
-      <c r="F18" s="139"/>
+        <v>201</v>
+      </c>
+      <c r="D18" s="148" t="s">
+        <v>185</v>
+      </c>
+      <c r="E18" s="143"/>
+      <c r="F18" s="143"/>
       <c r="G18" s="86"/>
       <c r="H18" s="130" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I18" s="87" t="s">
         <v>49</v>
@@ -5866,19 +5874,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="105" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C19" s="106" t="s">
-        <v>204</v>
-      </c>
-      <c r="D19" s="138" t="s">
-        <v>187</v>
-      </c>
-      <c r="E19" s="139"/>
-      <c r="F19" s="139"/>
+        <v>200</v>
+      </c>
+      <c r="D19" s="148" t="s">
+        <v>185</v>
+      </c>
+      <c r="E19" s="143"/>
+      <c r="F19" s="143"/>
       <c r="G19" s="124"/>
       <c r="H19" s="130" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I19" s="87" t="s">
         <v>49</v>
@@ -5890,19 +5898,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="105" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C20" s="106" t="s">
-        <v>203</v>
-      </c>
-      <c r="D20" s="138" t="s">
-        <v>187</v>
-      </c>
-      <c r="E20" s="139"/>
-      <c r="F20" s="139"/>
+        <v>199</v>
+      </c>
+      <c r="D20" s="148" t="s">
+        <v>185</v>
+      </c>
+      <c r="E20" s="143"/>
+      <c r="F20" s="143"/>
       <c r="G20" s="124"/>
       <c r="H20" s="130" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I20" s="87" t="s">
         <v>49</v>
@@ -5914,19 +5922,19 @@
         <v>57</v>
       </c>
       <c r="B21" s="105" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C21" s="106" t="s">
-        <v>202</v>
-      </c>
-      <c r="D21" s="138" t="s">
-        <v>189</v>
-      </c>
-      <c r="E21" s="139"/>
-      <c r="F21" s="139"/>
+        <v>198</v>
+      </c>
+      <c r="D21" s="148" t="s">
+        <v>187</v>
+      </c>
+      <c r="E21" s="143"/>
+      <c r="F21" s="143"/>
       <c r="G21" s="124"/>
       <c r="H21" s="130" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I21" s="87" t="s">
         <v>49</v>
@@ -5938,19 +5946,19 @@
         <v>66</v>
       </c>
       <c r="B22" s="105" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C22" s="106" t="s">
-        <v>201</v>
-      </c>
-      <c r="D22" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="E22" s="139"/>
-      <c r="F22" s="139"/>
+        <v>210</v>
+      </c>
+      <c r="D22" s="148" t="s">
+        <v>189</v>
+      </c>
+      <c r="E22" s="143"/>
+      <c r="F22" s="143"/>
       <c r="G22" s="124"/>
       <c r="H22" s="130" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I22" s="87" t="s">
         <v>49</v>
@@ -5962,19 +5970,19 @@
         <v>67</v>
       </c>
       <c r="B23" s="105" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C23" s="106" t="s">
-        <v>200</v>
-      </c>
-      <c r="D23" s="138" t="s">
-        <v>198</v>
-      </c>
-      <c r="E23" s="139"/>
-      <c r="F23" s="139"/>
+        <v>211</v>
+      </c>
+      <c r="D23" s="148" t="s">
+        <v>196</v>
+      </c>
+      <c r="E23" s="143"/>
+      <c r="F23" s="143"/>
       <c r="G23" s="129"/>
       <c r="H23" s="130" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I23" s="87" t="s">
         <v>49</v>
@@ -5986,19 +5994,19 @@
         <v>68</v>
       </c>
       <c r="B24" s="105" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C24" s="106" t="s">
-        <v>211</v>
-      </c>
-      <c r="D24" s="138" t="s">
-        <v>206</v>
-      </c>
-      <c r="E24" s="139"/>
-      <c r="F24" s="139"/>
+        <v>212</v>
+      </c>
+      <c r="D24" s="148" t="s">
+        <v>202</v>
+      </c>
+      <c r="E24" s="143"/>
+      <c r="F24" s="143"/>
       <c r="G24" s="129"/>
       <c r="H24" s="130" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I24" s="87" t="s">
         <v>49</v>
@@ -6006,11 +6014,11 @@
       <c r="J24" s="85"/>
     </row>
     <row r="25" spans="1:10" s="4" customFormat="1" ht="12.75" outlineLevel="1">
-      <c r="A25" s="144" t="s">
-        <v>208</v>
-      </c>
-      <c r="B25" s="145"/>
-      <c r="C25" s="145"/>
+      <c r="A25" s="159" t="s">
+        <v>204</v>
+      </c>
+      <c r="B25" s="160"/>
+      <c r="C25" s="160"/>
       <c r="D25" s="123"/>
       <c r="E25" s="123"/>
       <c r="F25" s="123"/>
@@ -6024,18 +6032,18 @@
         <v>69</v>
       </c>
       <c r="B26" s="105" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C26" s="106" t="s">
-        <v>209</v>
-      </c>
-      <c r="D26" s="138" t="s">
-        <v>210</v>
-      </c>
-      <c r="E26" s="139"/>
-      <c r="F26" s="139"/>
+        <v>205</v>
+      </c>
+      <c r="D26" s="148" t="s">
+        <v>206</v>
+      </c>
+      <c r="E26" s="143"/>
+      <c r="F26" s="143"/>
       <c r="G26" s="129"/>
-      <c r="H26" s="177">
+      <c r="H26" s="136">
         <v>43596</v>
       </c>
       <c r="I26" s="87" t="s">
@@ -6048,18 +6056,18 @@
         <v>70</v>
       </c>
       <c r="B27" s="105" t="s">
+        <v>203</v>
+      </c>
+      <c r="C27" s="106" t="s">
         <v>207</v>
       </c>
-      <c r="C27" s="106" t="s">
-        <v>212</v>
-      </c>
-      <c r="D27" s="138" t="s">
-        <v>210</v>
-      </c>
-      <c r="E27" s="139"/>
-      <c r="F27" s="139"/>
+      <c r="D27" s="148" t="s">
+        <v>206</v>
+      </c>
+      <c r="E27" s="143"/>
+      <c r="F27" s="143"/>
       <c r="G27" s="129"/>
-      <c r="H27" s="177">
+      <c r="H27" s="136">
         <v>43597</v>
       </c>
       <c r="I27" s="87" t="s">
@@ -6128,11 +6136,11 @@
       <c r="J32" s="135"/>
     </row>
     <row r="33" spans="1:14" s="4" customFormat="1" ht="12.75" outlineLevel="1">
-      <c r="A33" s="144" t="s">
+      <c r="A33" s="159" t="s">
         <v>81</v>
       </c>
-      <c r="B33" s="145"/>
-      <c r="C33" s="145"/>
+      <c r="B33" s="160"/>
+      <c r="C33" s="160"/>
       <c r="D33" s="107"/>
       <c r="E33" s="107"/>
       <c r="F33" s="107"/>
@@ -6151,11 +6159,11 @@
       <c r="C34" s="106" t="s">
         <v>148</v>
       </c>
-      <c r="D34" s="138" t="s">
+      <c r="D34" s="148" t="s">
         <v>12</v>
       </c>
-      <c r="E34" s="139"/>
-      <c r="F34" s="139"/>
+      <c r="E34" s="143"/>
+      <c r="F34" s="143"/>
       <c r="G34" s="86"/>
       <c r="H34" s="100"/>
       <c r="I34" s="87" t="s">
@@ -6173,11 +6181,11 @@
       <c r="C35" s="106" t="s">
         <v>149</v>
       </c>
-      <c r="D35" s="138" t="s">
+      <c r="D35" s="148" t="s">
         <v>12</v>
       </c>
-      <c r="E35" s="139"/>
-      <c r="F35" s="139"/>
+      <c r="E35" s="143"/>
+      <c r="F35" s="143"/>
       <c r="G35" s="86"/>
       <c r="H35" s="113"/>
       <c r="I35" s="87" t="s">
@@ -6195,11 +6203,11 @@
       <c r="C36" s="106" t="s">
         <v>150</v>
       </c>
-      <c r="D36" s="138" t="s">
+      <c r="D36" s="148" t="s">
         <v>88</v>
       </c>
-      <c r="E36" s="139"/>
-      <c r="F36" s="139"/>
+      <c r="E36" s="143"/>
+      <c r="F36" s="143"/>
       <c r="G36" s="86"/>
       <c r="H36" s="94"/>
       <c r="I36" s="87"/>
@@ -6215,29 +6223,29 @@
       <c r="C37" s="106" t="s">
         <v>151</v>
       </c>
-      <c r="D37" s="138" t="s">
+      <c r="D37" s="148" t="s">
         <v>89</v>
       </c>
-      <c r="E37" s="139"/>
-      <c r="F37" s="139"/>
+      <c r="E37" s="143"/>
+      <c r="F37" s="143"/>
       <c r="G37" s="86"/>
       <c r="H37" s="100"/>
       <c r="I37" s="87"/>
       <c r="J37" s="85"/>
     </row>
     <row r="38" spans="1:14" s="4" customFormat="1" ht="12.75">
-      <c r="A38" s="141" t="s">
+      <c r="A38" s="139" t="s">
         <v>127</v>
       </c>
-      <c r="B38" s="142"/>
-      <c r="C38" s="142"/>
-      <c r="D38" s="142"/>
-      <c r="E38" s="142"/>
-      <c r="F38" s="142"/>
-      <c r="G38" s="142"/>
-      <c r="H38" s="142"/>
-      <c r="I38" s="142"/>
-      <c r="J38" s="143"/>
+      <c r="B38" s="140"/>
+      <c r="C38" s="140"/>
+      <c r="D38" s="140"/>
+      <c r="E38" s="140"/>
+      <c r="F38" s="140"/>
+      <c r="G38" s="140"/>
+      <c r="H38" s="140"/>
+      <c r="I38" s="140"/>
+      <c r="J38" s="141"/>
     </row>
     <row r="39" spans="1:14" s="93" customFormat="1" ht="228.75" customHeight="1" outlineLevel="1">
       <c r="A39" s="88" t="s">
@@ -6249,11 +6257,11 @@
       <c r="C39" s="92" t="s">
         <v>152</v>
       </c>
-      <c r="D39" s="140" t="s">
+      <c r="D39" s="142" t="s">
         <v>80</v>
       </c>
-      <c r="E39" s="139"/>
-      <c r="F39" s="139"/>
+      <c r="E39" s="143"/>
+      <c r="F39" s="143"/>
       <c r="I39" s="114" t="s">
         <v>49</v>
       </c>
@@ -6269,11 +6277,11 @@
       <c r="C40" s="92" t="s">
         <v>153</v>
       </c>
-      <c r="D40" s="140" t="s">
+      <c r="D40" s="142" t="s">
         <v>92</v>
       </c>
-      <c r="E40" s="139"/>
-      <c r="F40" s="139"/>
+      <c r="E40" s="143"/>
+      <c r="F40" s="143"/>
       <c r="H40" s="112"/>
       <c r="I40" s="114" t="s">
         <v>49</v>
@@ -6290,11 +6298,11 @@
       <c r="C41" s="92" t="s">
         <v>154</v>
       </c>
-      <c r="D41" s="140" t="s">
+      <c r="D41" s="142" t="s">
         <v>91</v>
       </c>
-      <c r="E41" s="139"/>
-      <c r="F41" s="139"/>
+      <c r="E41" s="143"/>
+      <c r="F41" s="143"/>
       <c r="H41" s="112"/>
       <c r="I41" s="110"/>
       <c r="J41" s="111"/>
@@ -6313,42 +6321,42 @@
       <c r="C42" s="92" t="s">
         <v>155</v>
       </c>
-      <c r="D42" s="140" t="s">
+      <c r="D42" s="142" t="s">
         <v>9</v>
       </c>
-      <c r="E42" s="139"/>
-      <c r="F42" s="139"/>
+      <c r="E42" s="143"/>
+      <c r="F42" s="143"/>
       <c r="H42" s="101"/>
       <c r="I42" s="103"/>
       <c r="J42" s="94"/>
     </row>
     <row r="43" spans="1:14" s="4" customFormat="1" ht="12.75">
-      <c r="A43" s="141" t="s">
+      <c r="A43" s="139" t="s">
         <v>58</v>
       </c>
-      <c r="B43" s="142"/>
-      <c r="C43" s="142"/>
-      <c r="D43" s="142"/>
-      <c r="E43" s="142"/>
-      <c r="F43" s="142"/>
-      <c r="G43" s="142"/>
-      <c r="H43" s="142"/>
-      <c r="I43" s="142"/>
-      <c r="J43" s="143"/>
+      <c r="B43" s="140"/>
+      <c r="C43" s="140"/>
+      <c r="D43" s="140"/>
+      <c r="E43" s="140"/>
+      <c r="F43" s="140"/>
+      <c r="G43" s="140"/>
+      <c r="H43" s="140"/>
+      <c r="I43" s="140"/>
+      <c r="J43" s="141"/>
     </row>
     <row r="44" spans="1:14" s="4" customFormat="1" ht="12.75" outlineLevel="1">
-      <c r="A44" s="141" t="s">
+      <c r="A44" s="139" t="s">
         <v>128</v>
       </c>
-      <c r="B44" s="142"/>
-      <c r="C44" s="142"/>
-      <c r="D44" s="142"/>
-      <c r="E44" s="142"/>
-      <c r="F44" s="142"/>
-      <c r="G44" s="142"/>
-      <c r="H44" s="142"/>
-      <c r="I44" s="142"/>
-      <c r="J44" s="143"/>
+      <c r="B44" s="140"/>
+      <c r="C44" s="140"/>
+      <c r="D44" s="140"/>
+      <c r="E44" s="140"/>
+      <c r="F44" s="140"/>
+      <c r="G44" s="140"/>
+      <c r="H44" s="140"/>
+      <c r="I44" s="140"/>
+      <c r="J44" s="141"/>
     </row>
     <row r="45" spans="1:14" s="93" customFormat="1" ht="70.5" customHeight="1" outlineLevel="1">
       <c r="A45" s="88" t="s">
@@ -6360,11 +6368,11 @@
       <c r="C45" s="92" t="s">
         <v>156</v>
       </c>
-      <c r="D45" s="140" t="s">
+      <c r="D45" s="142" t="s">
         <v>59</v>
       </c>
-      <c r="E45" s="139"/>
-      <c r="F45" s="139"/>
+      <c r="E45" s="143"/>
+      <c r="F45" s="143"/>
       <c r="H45" s="101"/>
       <c r="I45" s="103" t="s">
         <v>49</v>
@@ -6381,11 +6389,11 @@
       <c r="C46" s="92" t="s">
         <v>156</v>
       </c>
-      <c r="D46" s="140" t="s">
+      <c r="D46" s="142" t="s">
         <v>60</v>
       </c>
-      <c r="E46" s="139"/>
-      <c r="F46" s="139"/>
+      <c r="E46" s="143"/>
+      <c r="F46" s="143"/>
       <c r="H46" s="101"/>
       <c r="I46" s="103" t="s">
         <v>49</v>
@@ -6402,11 +6410,11 @@
       <c r="C47" s="92" t="s">
         <v>156</v>
       </c>
-      <c r="D47" s="140" t="s">
+      <c r="D47" s="142" t="s">
         <v>61</v>
       </c>
-      <c r="E47" s="139"/>
-      <c r="F47" s="139"/>
+      <c r="E47" s="143"/>
+      <c r="F47" s="143"/>
       <c r="H47" s="101"/>
       <c r="I47" s="103" t="s">
         <v>49</v>
@@ -6423,11 +6431,11 @@
       <c r="C48" s="92" t="s">
         <v>156</v>
       </c>
-      <c r="D48" s="140" t="s">
+      <c r="D48" s="142" t="s">
         <v>62</v>
       </c>
-      <c r="E48" s="139"/>
-      <c r="F48" s="139"/>
+      <c r="E48" s="143"/>
+      <c r="F48" s="143"/>
       <c r="H48" s="101"/>
       <c r="I48" s="103" t="s">
         <v>49</v>
@@ -6444,11 +6452,11 @@
       <c r="C49" s="92" t="s">
         <v>156</v>
       </c>
-      <c r="D49" s="140" t="s">
+      <c r="D49" s="142" t="s">
         <v>63</v>
       </c>
-      <c r="E49" s="139"/>
-      <c r="F49" s="139"/>
+      <c r="E49" s="143"/>
+      <c r="F49" s="143"/>
       <c r="H49" s="101"/>
       <c r="I49" s="103" t="s">
         <v>49</v>
@@ -6465,11 +6473,11 @@
       <c r="C50" s="92" t="s">
         <v>156</v>
       </c>
-      <c r="D50" s="140" t="s">
+      <c r="D50" s="142" t="s">
         <v>65</v>
       </c>
-      <c r="E50" s="139"/>
-      <c r="F50" s="139"/>
+      <c r="E50" s="143"/>
+      <c r="F50" s="143"/>
       <c r="H50" s="101"/>
       <c r="I50" s="103" t="s">
         <v>49</v>
@@ -6486,11 +6494,11 @@
       <c r="C51" s="92" t="s">
         <v>156</v>
       </c>
-      <c r="D51" s="140" t="s">
+      <c r="D51" s="142" t="s">
         <v>64</v>
       </c>
-      <c r="E51" s="139"/>
-      <c r="F51" s="139"/>
+      <c r="E51" s="143"/>
+      <c r="F51" s="143"/>
       <c r="H51" s="101"/>
       <c r="I51" s="103" t="s">
         <v>49</v>
@@ -6498,18 +6506,18 @@
       <c r="J51" s="94"/>
     </row>
     <row r="52" spans="1:10" s="4" customFormat="1" ht="12.75" outlineLevel="1">
-      <c r="A52" s="141" t="s">
+      <c r="A52" s="139" t="s">
         <v>119</v>
       </c>
-      <c r="B52" s="142"/>
-      <c r="C52" s="142"/>
-      <c r="D52" s="142"/>
-      <c r="E52" s="142"/>
-      <c r="F52" s="142"/>
-      <c r="G52" s="142"/>
-      <c r="H52" s="142"/>
-      <c r="I52" s="142"/>
-      <c r="J52" s="143"/>
+      <c r="B52" s="140"/>
+      <c r="C52" s="140"/>
+      <c r="D52" s="140"/>
+      <c r="E52" s="140"/>
+      <c r="F52" s="140"/>
+      <c r="G52" s="140"/>
+      <c r="H52" s="140"/>
+      <c r="I52" s="140"/>
+      <c r="J52" s="141"/>
     </row>
     <row r="53" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
       <c r="A53" s="88" t="s">
@@ -6521,11 +6529,11 @@
       <c r="C53" s="92" t="s">
         <v>157</v>
       </c>
-      <c r="D53" s="140" t="s">
+      <c r="D53" s="142" t="s">
         <v>95</v>
       </c>
-      <c r="E53" s="139"/>
-      <c r="F53" s="139"/>
+      <c r="E53" s="143"/>
+      <c r="F53" s="143"/>
       <c r="H53" s="101"/>
       <c r="I53" s="103" t="s">
         <v>49</v>
@@ -6533,18 +6541,18 @@
       <c r="J53" s="94"/>
     </row>
     <row r="54" spans="1:10" s="4" customFormat="1" ht="12.75">
-      <c r="A54" s="141" t="s">
+      <c r="A54" s="139" t="s">
         <v>120</v>
       </c>
-      <c r="B54" s="142"/>
-      <c r="C54" s="142"/>
-      <c r="D54" s="142"/>
-      <c r="E54" s="142"/>
-      <c r="F54" s="142"/>
-      <c r="G54" s="142"/>
-      <c r="H54" s="142"/>
-      <c r="I54" s="142"/>
-      <c r="J54" s="143"/>
+      <c r="B54" s="140"/>
+      <c r="C54" s="140"/>
+      <c r="D54" s="140"/>
+      <c r="E54" s="140"/>
+      <c r="F54" s="140"/>
+      <c r="G54" s="140"/>
+      <c r="H54" s="140"/>
+      <c r="I54" s="140"/>
+      <c r="J54" s="141"/>
     </row>
     <row r="55" spans="1:10" s="93" customFormat="1" ht="101.25" customHeight="1" outlineLevel="1">
       <c r="A55" s="88" t="s">
@@ -6556,11 +6564,11 @@
       <c r="C55" s="92" t="s">
         <v>158</v>
       </c>
-      <c r="D55" s="140" t="s">
+      <c r="D55" s="142" t="s">
         <v>99</v>
       </c>
-      <c r="E55" s="139"/>
-      <c r="F55" s="139"/>
+      <c r="E55" s="143"/>
+      <c r="F55" s="143"/>
       <c r="H55" s="101" t="s">
         <v>129</v>
       </c>
@@ -6581,11 +6589,11 @@
       <c r="C56" s="92" t="s">
         <v>159</v>
       </c>
-      <c r="D56" s="140" t="s">
+      <c r="D56" s="142" t="s">
         <v>100</v>
       </c>
-      <c r="E56" s="139"/>
-      <c r="F56" s="139"/>
+      <c r="E56" s="143"/>
+      <c r="F56" s="143"/>
       <c r="H56" s="101" t="s">
         <v>129</v>
       </c>
@@ -6606,11 +6614,11 @@
       <c r="C57" s="92" t="s">
         <v>160</v>
       </c>
-      <c r="D57" s="140" t="s">
+      <c r="D57" s="142" t="s">
         <v>140</v>
       </c>
-      <c r="E57" s="139"/>
-      <c r="F57" s="139"/>
+      <c r="E57" s="143"/>
+      <c r="F57" s="143"/>
       <c r="H57" s="101" t="s">
         <v>129</v>
       </c>
@@ -6622,28 +6630,28 @@
       </c>
     </row>
     <row r="58" spans="1:10" s="4" customFormat="1" ht="12.75">
-      <c r="A58" s="141" t="s">
+      <c r="A58" s="139" t="s">
         <v>121</v>
       </c>
-      <c r="B58" s="142"/>
-      <c r="C58" s="142"/>
-      <c r="D58" s="142"/>
-      <c r="E58" s="142"/>
-      <c r="F58" s="142"/>
-      <c r="G58" s="142"/>
-      <c r="H58" s="142"/>
-      <c r="I58" s="142"/>
-      <c r="J58" s="143"/>
+      <c r="B58" s="140"/>
+      <c r="C58" s="140"/>
+      <c r="D58" s="140"/>
+      <c r="E58" s="140"/>
+      <c r="F58" s="140"/>
+      <c r="G58" s="140"/>
+      <c r="H58" s="140"/>
+      <c r="I58" s="140"/>
+      <c r="J58" s="141"/>
     </row>
     <row r="59" spans="1:10" s="93" customFormat="1" ht="27.75" customHeight="1" outlineLevel="1">
-      <c r="A59" s="174" t="s">
+      <c r="A59" s="145" t="s">
         <v>1</v>
       </c>
-      <c r="B59" s="175"/>
-      <c r="C59" s="176"/>
-      <c r="D59" s="140"/>
-      <c r="E59" s="139"/>
-      <c r="F59" s="139"/>
+      <c r="B59" s="146"/>
+      <c r="C59" s="147"/>
+      <c r="D59" s="142"/>
+      <c r="E59" s="143"/>
+      <c r="F59" s="143"/>
       <c r="H59" s="101"/>
       <c r="I59" s="103"/>
       <c r="J59" s="94"/>
@@ -6658,11 +6666,11 @@
       <c r="C60" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="D60" s="140" t="s">
+      <c r="D60" s="142" t="s">
         <v>6</v>
       </c>
-      <c r="E60" s="139"/>
-      <c r="F60" s="139"/>
+      <c r="E60" s="143"/>
+      <c r="F60" s="143"/>
       <c r="H60" s="101"/>
       <c r="I60" s="103" t="s">
         <v>49</v>
@@ -6679,11 +6687,11 @@
       <c r="C61" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="D61" s="173" t="s">
+      <c r="D61" s="144" t="s">
         <v>10</v>
       </c>
-      <c r="E61" s="139"/>
-      <c r="F61" s="139"/>
+      <c r="E61" s="143"/>
+      <c r="F61" s="143"/>
       <c r="H61" s="101"/>
       <c r="I61" s="103" t="s">
         <v>49</v>
@@ -6691,32 +6699,32 @@
       <c r="J61" s="94"/>
     </row>
     <row r="62" spans="1:10" s="4" customFormat="1" ht="12.75">
-      <c r="A62" s="141" t="s">
+      <c r="A62" s="139" t="s">
         <v>122</v>
       </c>
-      <c r="B62" s="142"/>
-      <c r="C62" s="142"/>
-      <c r="D62" s="142"/>
-      <c r="E62" s="142"/>
-      <c r="F62" s="142"/>
-      <c r="G62" s="142"/>
-      <c r="H62" s="142"/>
-      <c r="I62" s="142"/>
-      <c r="J62" s="143"/>
+      <c r="B62" s="140"/>
+      <c r="C62" s="140"/>
+      <c r="D62" s="140"/>
+      <c r="E62" s="140"/>
+      <c r="F62" s="140"/>
+      <c r="G62" s="140"/>
+      <c r="H62" s="140"/>
+      <c r="I62" s="140"/>
+      <c r="J62" s="141"/>
     </row>
     <row r="63" spans="1:10" s="4" customFormat="1" ht="12.75" outlineLevel="1">
-      <c r="A63" s="141" t="s">
+      <c r="A63" s="139" t="s">
         <v>123</v>
       </c>
-      <c r="B63" s="142"/>
-      <c r="C63" s="142"/>
-      <c r="D63" s="142"/>
-      <c r="E63" s="142"/>
-      <c r="F63" s="142"/>
-      <c r="G63" s="142"/>
-      <c r="H63" s="142"/>
-      <c r="I63" s="142"/>
-      <c r="J63" s="143"/>
+      <c r="B63" s="140"/>
+      <c r="C63" s="140"/>
+      <c r="D63" s="140"/>
+      <c r="E63" s="140"/>
+      <c r="F63" s="140"/>
+      <c r="G63" s="140"/>
+      <c r="H63" s="140"/>
+      <c r="I63" s="140"/>
+      <c r="J63" s="141"/>
     </row>
     <row r="64" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
       <c r="A64" s="88" t="s">
@@ -6728,11 +6736,11 @@
       <c r="C64" s="92" t="s">
         <v>161</v>
       </c>
-      <c r="D64" s="140" t="s">
+      <c r="D64" s="142" t="s">
         <v>97</v>
       </c>
-      <c r="E64" s="139"/>
-      <c r="F64" s="139"/>
+      <c r="E64" s="143"/>
+      <c r="F64" s="143"/>
       <c r="H64" s="101"/>
       <c r="I64" s="103" t="s">
         <v>49</v>
@@ -6749,11 +6757,11 @@
       <c r="C65" s="92" t="s">
         <v>162</v>
       </c>
-      <c r="D65" s="140" t="s">
+      <c r="D65" s="142" t="s">
         <v>103</v>
       </c>
-      <c r="E65" s="139"/>
-      <c r="F65" s="139"/>
+      <c r="E65" s="143"/>
+      <c r="F65" s="143"/>
       <c r="H65" s="101"/>
       <c r="I65" s="103" t="s">
         <v>49</v>
@@ -6761,18 +6769,18 @@
       <c r="J65" s="94"/>
     </row>
     <row r="66" spans="1:10" s="4" customFormat="1" ht="12.75" outlineLevel="1">
-      <c r="A66" s="141" t="s">
+      <c r="A66" s="139" t="s">
         <v>124</v>
       </c>
-      <c r="B66" s="142"/>
-      <c r="C66" s="142"/>
-      <c r="D66" s="142"/>
-      <c r="E66" s="142"/>
-      <c r="F66" s="142"/>
-      <c r="G66" s="142"/>
-      <c r="H66" s="142"/>
-      <c r="I66" s="142"/>
-      <c r="J66" s="143"/>
+      <c r="B66" s="140"/>
+      <c r="C66" s="140"/>
+      <c r="D66" s="140"/>
+      <c r="E66" s="140"/>
+      <c r="F66" s="140"/>
+      <c r="G66" s="140"/>
+      <c r="H66" s="140"/>
+      <c r="I66" s="140"/>
+      <c r="J66" s="141"/>
     </row>
     <row r="67" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
       <c r="A67" s="88" t="s">
@@ -6784,11 +6792,11 @@
       <c r="C67" s="92" t="s">
         <v>163</v>
       </c>
-      <c r="D67" s="140" t="s">
+      <c r="D67" s="142" t="s">
         <v>104</v>
       </c>
-      <c r="E67" s="139"/>
-      <c r="F67" s="139"/>
+      <c r="E67" s="143"/>
+      <c r="F67" s="143"/>
       <c r="H67" s="101"/>
       <c r="I67" s="103"/>
       <c r="J67" s="94"/>
@@ -6803,28 +6811,28 @@
       <c r="C68" s="92" t="s">
         <v>164</v>
       </c>
-      <c r="D68" s="140" t="s">
+      <c r="D68" s="142" t="s">
         <v>105</v>
       </c>
-      <c r="E68" s="139"/>
-      <c r="F68" s="139"/>
+      <c r="E68" s="143"/>
+      <c r="F68" s="143"/>
       <c r="H68" s="101"/>
       <c r="I68" s="103"/>
       <c r="J68" s="94"/>
     </row>
     <row r="69" spans="1:10" s="4" customFormat="1" ht="12.75" outlineLevel="1">
-      <c r="A69" s="141" t="s">
+      <c r="A69" s="139" t="s">
         <v>125</v>
       </c>
-      <c r="B69" s="142"/>
-      <c r="C69" s="142"/>
-      <c r="D69" s="142"/>
-      <c r="E69" s="142"/>
-      <c r="F69" s="142"/>
-      <c r="G69" s="142"/>
-      <c r="H69" s="142"/>
-      <c r="I69" s="142"/>
-      <c r="J69" s="143"/>
+      <c r="B69" s="140"/>
+      <c r="C69" s="140"/>
+      <c r="D69" s="140"/>
+      <c r="E69" s="140"/>
+      <c r="F69" s="140"/>
+      <c r="G69" s="140"/>
+      <c r="H69" s="140"/>
+      <c r="I69" s="140"/>
+      <c r="J69" s="141"/>
     </row>
     <row r="70" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
       <c r="A70" s="88" t="s">
@@ -6836,11 +6844,11 @@
       <c r="C70" s="92" t="s">
         <v>165</v>
       </c>
-      <c r="D70" s="140" t="s">
+      <c r="D70" s="142" t="s">
         <v>130</v>
       </c>
-      <c r="E70" s="139"/>
-      <c r="F70" s="139"/>
+      <c r="E70" s="143"/>
+      <c r="F70" s="143"/>
       <c r="H70" s="101"/>
       <c r="I70" s="103" t="s">
         <v>49</v>
@@ -6857,11 +6865,11 @@
       <c r="C71" s="92" t="s">
         <v>166</v>
       </c>
-      <c r="D71" s="140" t="s">
+      <c r="D71" s="142" t="s">
         <v>103</v>
       </c>
-      <c r="E71" s="139"/>
-      <c r="F71" s="139"/>
+      <c r="E71" s="143"/>
+      <c r="F71" s="143"/>
       <c r="H71" s="101"/>
       <c r="I71" s="103" t="s">
         <v>49</v>
@@ -6869,18 +6877,18 @@
       <c r="J71" s="94"/>
     </row>
     <row r="72" spans="1:10" s="4" customFormat="1" ht="12.75" outlineLevel="1">
-      <c r="A72" s="141" t="s">
+      <c r="A72" s="139" t="s">
         <v>126</v>
       </c>
-      <c r="B72" s="142"/>
-      <c r="C72" s="142"/>
-      <c r="D72" s="142"/>
-      <c r="E72" s="142"/>
-      <c r="F72" s="142"/>
-      <c r="G72" s="142"/>
-      <c r="H72" s="142"/>
-      <c r="I72" s="142"/>
-      <c r="J72" s="143"/>
+      <c r="B72" s="140"/>
+      <c r="C72" s="140"/>
+      <c r="D72" s="140"/>
+      <c r="E72" s="140"/>
+      <c r="F72" s="140"/>
+      <c r="G72" s="140"/>
+      <c r="H72" s="140"/>
+      <c r="I72" s="140"/>
+      <c r="J72" s="141"/>
     </row>
     <row r="73" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
       <c r="A73" s="88" t="s">
@@ -6892,11 +6900,11 @@
       <c r="C73" s="92" t="s">
         <v>167</v>
       </c>
-      <c r="D73" s="140" t="s">
+      <c r="D73" s="142" t="s">
         <v>106</v>
       </c>
-      <c r="E73" s="139"/>
-      <c r="F73" s="139"/>
+      <c r="E73" s="143"/>
+      <c r="F73" s="143"/>
       <c r="H73" s="101"/>
       <c r="I73" s="103" t="s">
         <v>49</v>
@@ -6913,11 +6921,11 @@
       <c r="C74" s="92" t="s">
         <v>168</v>
       </c>
-      <c r="D74" s="140" t="s">
+      <c r="D74" s="142" t="s">
         <v>107</v>
       </c>
-      <c r="E74" s="139"/>
-      <c r="F74" s="139"/>
+      <c r="E74" s="143"/>
+      <c r="F74" s="143"/>
       <c r="H74" s="101"/>
       <c r="I74" s="103" t="s">
         <v>49</v>
@@ -6925,18 +6933,18 @@
       <c r="J74" s="94"/>
     </row>
     <row r="75" spans="1:10" s="4" customFormat="1" ht="12.75">
-      <c r="A75" s="141" t="s">
+      <c r="A75" s="139" t="s">
         <v>143</v>
       </c>
-      <c r="B75" s="142"/>
-      <c r="C75" s="142"/>
-      <c r="D75" s="142"/>
-      <c r="E75" s="142"/>
-      <c r="F75" s="142"/>
-      <c r="G75" s="142"/>
-      <c r="H75" s="142"/>
-      <c r="I75" s="142"/>
-      <c r="J75" s="143"/>
+      <c r="B75" s="140"/>
+      <c r="C75" s="140"/>
+      <c r="D75" s="140"/>
+      <c r="E75" s="140"/>
+      <c r="F75" s="140"/>
+      <c r="G75" s="140"/>
+      <c r="H75" s="140"/>
+      <c r="I75" s="140"/>
+      <c r="J75" s="141"/>
     </row>
     <row r="76" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
       <c r="A76" s="88" t="s">
@@ -6948,11 +6956,11 @@
       <c r="C76" s="92" t="s">
         <v>169</v>
       </c>
-      <c r="D76" s="140" t="s">
+      <c r="D76" s="142" t="s">
         <v>135</v>
       </c>
-      <c r="E76" s="139"/>
-      <c r="F76" s="139"/>
+      <c r="E76" s="143"/>
+      <c r="F76" s="143"/>
       <c r="H76" s="101"/>
       <c r="I76" s="103" t="s">
         <v>49</v>
@@ -6969,11 +6977,11 @@
       <c r="C77" s="92" t="s">
         <v>170</v>
       </c>
-      <c r="D77" s="140" t="s">
+      <c r="D77" s="142" t="s">
         <v>136</v>
       </c>
-      <c r="E77" s="139"/>
-      <c r="F77" s="139"/>
+      <c r="E77" s="143"/>
+      <c r="F77" s="143"/>
       <c r="H77" s="101"/>
       <c r="I77" s="103" t="s">
         <v>49</v>
@@ -7020,70 +7028,6 @@
     <row r="115" ht="12" customHeight="1"/>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="A75:J75"/>
-    <mergeCell ref="D76:F76"/>
-    <mergeCell ref="D77:F77"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="D71:F71"/>
-    <mergeCell ref="A72:J72"/>
-    <mergeCell ref="D73:F73"/>
-    <mergeCell ref="D74:F74"/>
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="D68:F68"/>
-    <mergeCell ref="D70:F70"/>
-    <mergeCell ref="D64:F64"/>
-    <mergeCell ref="D65:F65"/>
-    <mergeCell ref="A63:J63"/>
-    <mergeCell ref="A66:J66"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="A58:J58"/>
-    <mergeCell ref="D53:F53"/>
-    <mergeCell ref="A69:J69"/>
-    <mergeCell ref="A62:J62"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="A52:J52"/>
-    <mergeCell ref="A54:J54"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:G10"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="B1:D2"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="A43:J43"/>
     <mergeCell ref="D22:F22"/>
     <mergeCell ref="D45:F45"/>
     <mergeCell ref="D46:F46"/>
@@ -7100,6 +7044,70 @@
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="A43:J43"/>
+    <mergeCell ref="B1:D2"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:G10"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="A58:J58"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="A69:J69"/>
+    <mergeCell ref="A62:J62"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="A52:J52"/>
+    <mergeCell ref="A54:J54"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="A75:J75"/>
+    <mergeCell ref="D76:F76"/>
+    <mergeCell ref="D77:F77"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="D71:F71"/>
+    <mergeCell ref="A72:J72"/>
+    <mergeCell ref="D73:F73"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="D68:F68"/>
+    <mergeCell ref="D70:F70"/>
+    <mergeCell ref="D64:F64"/>
+    <mergeCell ref="D65:F65"/>
+    <mergeCell ref="A63:J63"/>
+    <mergeCell ref="A66:J66"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/test-case-example.xlsx
+++ b/test-case-example.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QuanLyHoTroDatVeXe\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1635" yWindow="-210" windowWidth="12120" windowHeight="9120" tabRatio="821" activeTab="1"/>
+    <workbookView xWindow="1635" yWindow="-210" windowWidth="12120" windowHeight="9120" tabRatio="821" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="97" r:id="rId1"/>
@@ -29,178 +24,20 @@
     <definedName name="Port">[1]Validation!$F$2:$F$40</definedName>
     <definedName name="VancoProducts">[1]Validation!$B$2:$B$4</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="226">
   <si>
     <t>TC16</t>
   </si>
   <si>
-    <t>You can see details for part of in Sheet Provider supports</t>
-  </si>
-  <si>
-    <t>See the part of requested</t>
-  </si>
-  <si>
-    <t>Check value the part of Requested</t>
-  </si>
-  <si>
-    <t>Check value the part of Provided</t>
-  </si>
-  <si>
-    <t>See the part of Provided</t>
-  </si>
-  <si>
-    <t>All values the same as Edit site details popup displays (User requests)</t>
-  </si>
-  <si>
     <t>TC17</t>
   </si>
   <si>
     <t>TC18</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1: Will be the same content as CanSeeFullCostAndPriceBreakdown Role = False at the Current system
-2: The export will not just contain one row for each circuit, but will contain one row for each carrier that can provide those circuits. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>The entire row details will be duplicated except the carrier name, price and carrier COS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-3: A carrier will only be shown once for each circuit with its its aggregate IRD
-4: Instead of only showing the total NRC and MRC, we will break out the price elements and show total NRC and MRC CLIENT PRICE for Access, Port, 6 CoS all separately, then Total – so 18 columns for figures in total
-5: After the access, port, 6 CoS “requirement speeds”, should have 8 columns of speeds that have been priced 
-6: For Expert, this will contain the VSIP tables (selected VSIPs, selected VSIP capacities) which many be a table with no entries in it </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>(All infomation in it are Blank)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>See sheet Template B</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>- If provider supports as user to input then value the part of Provided same as alongside part of requested
-- If provider</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> doesn't </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">support as user to input that it is </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>upgrade</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> to other values, part of Provided will be displayed value to be </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>upgrade</t>
-    </r>
-  </si>
-  <si>
-    <t>31/07/2007</t>
-  </si>
-  <si>
-    <r>
-      <t>Don't see</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> a new selector: "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>Export all Carriers"</t>
-    </r>
   </si>
   <si>
     <t>TC1</t>
@@ -345,97 +182,9 @@
     <t>1.0</t>
   </si>
   <si>
-    <t>CR236 "Export all carrier choices"</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Checking new function is added in </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>Classic or Current Mode</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Checking new function is added in</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Expert Mode</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Check performent of function in Current or Classic Mode </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>has multi carrier support for a circuit</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Check performent of function in Expert Mode
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>Have multi carriers support for a circuit</t>
-    </r>
-  </si>
-  <si>
     <t>TC8</t>
   </si>
   <si>
-    <t>3. Check value of IRD column</t>
-  </si>
-  <si>
-    <t>See IRD column in Template excel to show "IR"</t>
-  </si>
-  <si>
-    <t>See IRD column in Template excel to show "IRD"</t>
-  </si>
-  <si>
-    <t>See IRD column in Template excel to show "ID"</t>
-  </si>
-  <si>
-    <t>See IRD column in Template excel to show "RD"</t>
-  </si>
-  <si>
-    <t>See IRD column in Template excel to show "I"</t>
-  </si>
-  <si>
-    <t>See IRD column in Template excel to show "R"</t>
-  </si>
-  <si>
-    <t>See IRD column in Template excel to show "D"</t>
-  </si>
-  <si>
     <t>TC9</t>
   </si>
   <si>
@@ -457,86 +206,6 @@
     <t>TC15</t>
   </si>
   <si>
-    <t>Check value of IRD column with Carrier for each circuit with its aggregate I, R</t>
-  </si>
-  <si>
-    <t>Check value of IRD column with Carrier for each circuit with its aggregate I, R, D</t>
-  </si>
-  <si>
-    <t>Check value of IRD column with Carrier for each circuit with its aggregate I, D</t>
-  </si>
-  <si>
-    <t>Check value of IRD column with Carrier for each circuit with its aggregate R, D</t>
-  </si>
-  <si>
-    <t>Check value of IRD column with Carrier for each circuit with its aggregate I</t>
-  </si>
-  <si>
-    <t>Check value of IRD column with Carrier for each circuit with its aggregate  R</t>
-  </si>
-  <si>
-    <t>Check value of IRD column with Carrier for each circuit with its aggregate  D</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1: Will be the same content as </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">CanSeeFullCostAndPriceBreakdown Role = False at the Current system </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-2: The export will not just contain one row for each circuit, but will contain one row for each carrier that can provide those circuits. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>The entire row details will  be duplicated except the carrier name, price and carrier COS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-3: A carrier will only be shown once for each circuit with its its aggregate IRD
-4: Instead of only showing the total NRC and MRC, we will break out the price elements and show total NRC and MRC CLIENT PRICE for Access, Port, 6 CoS all separately, then Total – so 18 columns for figures in total
-5: After the access, port, 6 CoS “requirement speeds”, should have 8 columns of speeds that have been priced 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>See sheet Template A</t>
-    </r>
-  </si>
-  <si>
-    <t>Check set Role CanExportAllCarrierChoices = False</t>
-  </si>
-  <si>
     <t>TC19</t>
   </si>
   <si>
@@ -555,256 +224,6 @@
     <t>Update testcase</t>
   </si>
   <si>
-    <r>
-      <t>Don’t see</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> a new menu item: "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>Export all Carriers" in Current Quote Menu</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Don’t see</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> a new menu item: "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>Export all Carriers"  in Current Quote Menu</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Check performent of function in Expert Mode
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">each circuit has only one carrier support
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1: Will be the same content as CanSeeFullCostAndPriceBreakdown Role = False at the Current system
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>2: The export show one row for each circuit has only one carrier support</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-3: A carrier will only be shown once for each circuit with its its aggregate IRD
-4: Instead of only showing the total NRC and MRC, we will break out the price elements and show total NRC and MRC CLIENT PRICE for Access, Port, 6 CoS all separately, then Total – so 18 columns for figures in total
-5: After the access, port, 6 CoS “requirement speeds”, should have 8 columns of speeds that have been priced 
-6: For Expert, this will contain the VSIP tables (selected VSIPs, selected VSIP capacities) which many be a table with no entries in it </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>(All infomation in it are Blank)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>See sheet Template B1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1: Will be the same content as CanSeeFullCostAndPriceBreakdown Role = False at the Current system
-2: The export show one row for each circuit has only one carrier support
-3: A carrier will only be shown once for each circuit with its its aggregate IRD
-4: Instead of only showing the total NRC and MRC, we will break out the price elements and show total NRC and MRC CLIENT PRICE for Access, Port, 6 CoS all separately, then Total – so 18 columns for figures in total
-5: After the access, port, 6 CoS “requirement speeds”, should have 8 columns of speeds that have been priced 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>See sheet Template A1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Check performent of function in Current or Classic Mode
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>each circuit has only one carrier support</t>
-    </r>
-  </si>
-  <si>
-    <t>Check value of IRD column with Carrier for each circuit with its aggregate  IRD</t>
-  </si>
-  <si>
-    <t>See IRD column is tempalate to show "-"</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Check value of Carrier column if Set role </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>CanSeeCarrierName = True</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">See Carrier column: value of it is Carriername (carriercode1, carriercode2…..) </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Check value of Carrier column if Set role </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>CanSeeCarrierNamer = False</t>
-    </r>
-  </si>
-  <si>
-    <t>See Notes, COS selected column: value of them are Client notes/COS selected as on Pricing option popup</t>
-  </si>
-  <si>
-    <t>See Notes, COS selected column: value of them are Blank</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Check value of Note column if Set role </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>CanSeeNotesAndCoSIndicator = True</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Check value of Note column if Set role </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>CanSeeNotesAndCoSIndicator = False</t>
-    </r>
-  </si>
-  <si>
-    <t>See Carrier column: value of it is Carriercode1,Carriercode2……</t>
-  </si>
-  <si>
-    <t xml:space="preserve">See Carrier column: value of it is Carriername (Expertcode1, expertcode2…..) </t>
-  </si>
-  <si>
-    <t>See Carrier column: value of it is Expertcode1,Expertcode2……</t>
-  </si>
-  <si>
-    <t>See Carrier column: value of it is Carriername Carriercode1, Carriercode2…..) with site is MPLS
-With site is DIA: carrier column show value CarrierName</t>
-  </si>
-  <si>
-    <t>See Carrier column: value of it is Carriercode1,carriercode2…… with site is MPLS
-With site is DIA then show at the Carrier column to be "-"</t>
-  </si>
-  <si>
     <t>TC23</t>
   </si>
   <si>
@@ -838,246 +257,21 @@
     <t>TC33</t>
   </si>
   <si>
-    <t xml:space="preserve">                                                                            Set at the Classic Mode, ClassicDIA Mode when site is DIA +Role CanSeeCarrierName = False</t>
-  </si>
-  <si>
-    <t>4. Check value of Notes/COS Selected column</t>
-  </si>
-  <si>
-    <t>5. Check value of  columns that provider supports</t>
-  </si>
-  <si>
-    <t>6. Check value of Carrier column</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                              Check value of Carrier column at the Current Mode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                             Check value of Carrier column at the Expert Mode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                              Check value of Carrier column at the Classic Mode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                             Check value of Carrier column at the ClassicDIA Mode</t>
-  </si>
-  <si>
-    <t>2. Check Template of Excel when Export all Carriers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                          Set at the Current mode, Expert Mode, ClassicDIA Mode when site is MPLS + Role CanSeeCarrierName =True</t>
-  </si>
-  <si>
-    <t>Expert doesn't test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">See Carrier column: value of it is Carriername (Carriercode1,Carriercode2…..) </t>
-  </si>
-  <si>
-    <t>With Mode classic is fail
-ClassicDIA : Ok</t>
-  </si>
-  <si>
-    <t>With Mode classic ,
-ClassicDIA : Ok</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check value of TOTAL (A+P+CoS) Client Price NRC column </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check value of TOTAL (A+P+CoS) Client Price MRC column </t>
-  </si>
-  <si>
-    <t>TOTAL (A+P+CoS) Client Price NRC =Access Client Price NRC +Port Client Price NRC +CoS Voice Client Price NRC +CoS Voice Client Price NRC+CoS Premium (H) Client Price NRC+ CoS Premium (M) Client Price NRC+ CoS Premium (N) Client Price NRC+COS Best Effort Client Price NRC</t>
-  </si>
-  <si>
-    <t>TOTAL (A+P+CoS) Client Price MRC =Access Client Price MRC +Port Client Price MRC +CoS Voice Client Price MRC +CoS Voice Client Price MRC+CoS Premium (H) Client Price MRC+ CoS Premium (M) Client Price MRC+ CoS Premium (N) Client Price MRC+COS Best Effort Client Price MRC</t>
-  </si>
-  <si>
     <t>TC34</t>
   </si>
   <si>
     <t>TC35</t>
   </si>
   <si>
-    <t>Check value of Note column if Access, Port, CoS Rule are mapping</t>
-  </si>
-  <si>
-    <t>See value of  Notes: show full information Access, Port, CoS rule to be mapping</t>
-  </si>
-  <si>
     <t>TC36</t>
   </si>
   <si>
     <t>1.2</t>
   </si>
   <si>
-    <t>7. Check value of TOTAL (A+P+CoS) Client Price NRC/MRC column at the Current, Classic, Expert Mode</t>
-  </si>
-  <si>
-    <t>Sameple project</t>
-  </si>
-  <si>
-    <t>UTEHY-SE01</t>
-  </si>
-  <si>
-    <t>Test Leader 01</t>
-  </si>
-  <si>
     <t>CR100 - Export to excel</t>
   </si>
   <si>
-    <t>1: Go to the system TestProEngine with Classic or Current  Mode that has not to set role "CanExportAllCarrierChoices"
-2: Submit for the quote 
-3: Open the quote at the home
-4: Go to Quick Links</t>
-  </si>
-  <si>
-    <t>1: Go to the system TestProEngine with Classic or Current  Mode that has not to set role "CanExportAllCarrierChoices"
-2: Unsubmit for the quote 
-3: Open the quote at the home
-4: Go to Quick Links</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1: Go to the system TestProEngine with Expert  Mode that has not to set role "CanExportAllCarrierChoices"
-2: Submit for the quote
-3: Open the quote at the home
-4: See on left Panel </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1: Go to the system TestProEngine with Expert  Mode that has not to set role "CanExportAllCarrierChoices"
-2:Unsubmit for the quote 
-3: Open the quote at the home
-4: See on Left Panel </t>
-  </si>
-  <si>
-    <t>1: Go to the system TestProEngine with Current or Classic  Mode
-2: Create quote and submit
-3: Click [Export all Carriers] on Quick Links</t>
-  </si>
-  <si>
-    <t>1: Go to the system TestProEngine with Current or Classic  Mode
-2: Creat quote and Submit
-3: Click [Export all Carriers] on Quick Links</t>
-  </si>
-  <si>
-    <t>1: Go to the system TestProEngine with  Expert  Mode
-2: Creat quote and submit
-2: Click [Export all Carriers] button</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1: Go to the system TestProEngine with  Expert  Mode
-2: Creat quote and submit
-3: Click [Export all Carriers] button
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1: Go to the system TestProEngine with Current or Classic or Expert  Mode
-2: Creat quote and submit
-3: Click [Export all Carriers] </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1: Go to the system TestProEngine with ClassicDIA or Classic  Mode
-2: Creat quote(with ClassicDIA create site that is DIA) and submit
-3: Click [Export all Carriers] at Quick Links </t>
-  </si>
-  <si>
-    <t>1: Go to the system TestProEngine Current or Classic or Expert Mode
-2: Create quote and submit for it
-3: Go to Maintenance User set role CanSeeNotesAndCoSIndicator = True
-4: Open the quote
-5: Click [Export all Carriers] at Quick Links/Left Panel</t>
-  </si>
-  <si>
-    <t>1: Go to the system TestProEngine Current or Classic or Expert Mode
-2: Create quote and submit for it
-3: Go to Maintenance User set role CanSeeNotesAndCoSIndicator = False
-4: Open the quote
-5: Click [Export all Carriers] at Quick Links /Left panel</t>
-  </si>
-  <si>
-    <t>1: Go to the system TestProEngine Current or Classic or Expert Mode
-2: Create quote and submit for it
-3: Open the quote
-4: Click [Export all Carriers] at Quick Links /Left panel</t>
-  </si>
-  <si>
-    <t>1: Go to the system TestProEngine Current Mode
-2: Create quote and submit for it
-3: Go to Maintenance User set role CanSeeCarrierName = True
-4: Open the quote
-5: Click [Export all Carriers] at Quick Links</t>
-  </si>
-  <si>
-    <t>1: Go to the system TestProEngine Current Mode
-2: Create quote and submit for it
-3: Go to Maintenance User set role CanSeeCarrierName = False
-4: Open the quote
-5: Click [Export all Carriers] at Quick links</t>
-  </si>
-  <si>
-    <t>1: Go to the system TestProEngine Expert Mode
-2: Create quote and submit for it
-3: Go to Maintenance User set role CanSeeCarrierName = True
-4: Open the quote
-5: Click [Export all Carriers] at left panel</t>
-  </si>
-  <si>
-    <t>1: Go to the system TestProEngine Expert Mode
-2: Create quote and submit for it
-3: Go to Maintenance User set role CanSeeCarrierName = False
-4: Open the quote
-5: Click [Export all Carriers] at left panel</t>
-  </si>
-  <si>
-    <t>1: Go to the system TestProEngine Classic Mode
-2: Create quote and submit for it
-3: Go to Maintenance User set role CanSeeCarrierName = True
-4: Open the quote
-5: Click [Export all Carriers] at Quick Links</t>
-  </si>
-  <si>
-    <t>1: Go to the system TestProEngine Classic Mode
-2: Create quote and submit for it
-3: Go to Maintenance User set role CanSeeCarrierName = False
-4: Open the quote
-5: Click [Export all Carriers] at Quick Links</t>
-  </si>
-  <si>
-    <t>1: Go to the system TestProEngine Classic Mode
-2: Create quote MPLS, DIA and submit for them
-3: Go to Maintenance User set role CanSeeCarrierName = True
-4: Open the quote
-5: Click [Export all Carriers] at Quick Links</t>
-  </si>
-  <si>
-    <t>1: Go to the system TestProEngine Classic Mode
-2: Create quote MPLS, DIA and submit for them
-3: Go to Maintenance User set role CanSeeCarrierName = False
-4: Open the quote
-5: Click [Export all Carriers] at Quick Links</t>
-  </si>
-  <si>
-    <t>1: Go to the system TestProEngine Classic Mode
-2: Create quote MPLS, DIA and submit for them
-3: Open the quote
-4: Click [Export all Carriers] at Quick Links
-5: See value of TOTAL (A+P+CoS) Client Price NRC</t>
-  </si>
-  <si>
-    <t>1: Go to the system TestProEngine Classic Mode
-2: Create quote MPLS, DIA and submit for them
-3: Open the quote
-4: Click [Export all Carriers] at Quick Links
-5: See value of TOTAL (A+P+CoS) Client Price MRC</t>
-  </si>
-  <si>
-    <t>John Doe</t>
-  </si>
-  <si>
-    <t>Jane Doe</t>
-  </si>
-  <si>
     <t>Quản lý hỗ trợ đặt vé xe</t>
   </si>
   <si>
@@ -1106,9 +300,6 @@
   </si>
   <si>
     <t>xuất hiện Message Box thông báo: "Đăng nhập thành công!"</t>
-  </si>
-  <si>
-    <t>Kiểm tra chức năng của khách hàng</t>
   </si>
   <si>
     <r>
@@ -1395,9 +586,6 @@
     </r>
   </si>
   <si>
-    <t>Kiểm tra chức năng của nhân viên - Quản lý chuyến đi</t>
-  </si>
-  <si>
     <t>1: không nhập bất cứ giá trị nào
 2: Click button Thêm mới</t>
   </si>
@@ -1414,16 +602,6 @@
       </rPr>
       <t>cảnh báo "lỗi nhập".</t>
     </r>
-  </si>
-  <si>
-    <t>1: giờ khởi hành: "5h00"
-2:  Ngày đi: "6/12/2019"
-3: Biển số: ""
-4: Nơi xuất phát: "Long An"
-5: Diểm đến: ""
-6: Giá vé: ""
-7: Click button Thêm mới
-6: Click button Xác nhận</t>
   </si>
   <si>
     <t xml:space="preserve">1: Nhập tên đăng nhập: "tu"
@@ -1464,16 +642,874 @@
 7: Click button Chọn ghế
 8: Click button Xác nhận</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Thấy </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>thông báo "thêm thành công!".</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kiểm tra chức năng </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Cập nhật</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>1: giờ khởi hành: "5h00"
+2:  Ngày đi: "6/12/2019"
+3: Biển số: "74L-98754"
+4: Nơi xuất phát: "Bảo Lộc"
+5: Diểm đến: "Đồng Tháp"
+6: Giá vé: "200000"
+7: Click button Thêm mới</t>
+  </si>
+  <si>
+    <t>1: giờ khởi hành: "25h00"
+2:  Ngày đi: "6/12/2019"
+3: Biển số: "74L-98754"
+4: Nơi xuất phát: "Bảo Lộc"
+5: Diểm đến: "Đồng Tháp"
+6: Giá vé: "200000"
+7: Click button Thêm mới</t>
+  </si>
+  <si>
+    <t>1: giờ khởi hành: "0h00"
+2:  Ngày đi: "6/12/2019"
+3: Biển số: "74L-98754"
+4: Nơi xuất phát: "Bảo Lộc"
+5: Diểm đến: "Đồng Tháp"
+6: Giá vé: "200000"
+7: Click button Thêm mới</t>
+  </si>
+  <si>
+    <t>1: giờ khởi hành: "5h00"
+2:  Ngày đi: "6/12/2018"
+3: Biển số: "74L-98754"
+4: Nơi xuất phát: "Bảo Lộc"
+5: Diểm đến: "Đồng Tháp"
+6: Giá vé: "200000"
+7: Click button Thêm mới</t>
+  </si>
+  <si>
+    <t>1: giờ khởi hành: "5h00"
+2:  Ngày đi: "6/12/2019"
+3: Biển số: "74L-98754"
+4: Nơi xuất phát: "Bảo Lộc"
+5: Diểm đến: "Bảo Lộc"
+6: Giá vé: "200000"
+7: Click button Thêm mới</t>
+  </si>
+  <si>
+    <t>1: giờ khởi hành: "5h00"
+2:  Ngày đi: "6/12/2019"
+3: Biển số: "74L-98754"
+4: Nơi xuất phát: "Bảo Lộc"
+5: Diểm đến: "Đồng Tháp"
+6: Giá vé: "-200000"
+7: Click button Thêm mới</t>
+  </si>
+  <si>
+    <t>1: chọn thông tin chuyến đi
+2: giờ khởi hành: "25h00"
+3: Click button Cập nhật</t>
+  </si>
+  <si>
+    <t>1: chọn thông tin chuyến đi
+2:  Ngày đi: "6/12/2018"
+3: Click button Cập nhật</t>
+  </si>
+  <si>
+    <t>1: chọn thông tin chuyến đi
+2: Giá vé: "-200000"
+3: Click button Cập nhật</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Thấy </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>thông báo "Sửa thành công!".</t>
+    </r>
+  </si>
+  <si>
+    <t>1: giờ khởi hành: "10h00"
+2:  Ngày đi: "6/12/2019"
+3: Biển số: "74L-98754"
+4: Nơi xuất phát: "Bảo Lộc"
+5: Diểm đến: "Đồng Tháp"
+6: Giá vé: "150000"
+7: Click button Cập nhật</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kiểm tra chức năng </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Xóa chuyến đi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>1: chọn thông tin chuyến đi
+2: Click button Xóa chuyến đi</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Thấy </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>chuyến được chọn được xóa khỏi danh sách.</t>
+    </r>
+  </si>
+  <si>
+    <t>1: chọn dòng thông tin chuyến đi trống
+2: Click button Xóa chuyến đi</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Thấy </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>thông báo lỗi.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kiểm tra chức năng </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Thêm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Thấy </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>thông báo "Thêm thành công!".</t>
+    </r>
+  </si>
+  <si>
+    <t>1: Biển số: "59F-61700"
+2: Tên xe: "KIA"
+3: Tài xế: "Lê Quốc Hoàng"
+4: SĐT: "0123456789"
+5: Click button Thêm.</t>
+  </si>
+  <si>
+    <t>1: Biển số: ""
+2: Tên xe: "KIA"
+3: Tài xế: "Lê Quốc Hoàng"
+4: SĐT: "0123456789"
+5: Click button Thêm.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Thấy </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>thông báo "Bạn phải nhập đầy đủ!".</t>
+    </r>
+  </si>
+  <si>
+    <t>1: Biển số: "59F-61700"
+2: Tên xe: "KAI"
+3: Tài xế: "Lê Quốc Hoàng"
+4: SĐT: "aaaaaaaaaa"
+5: Click button Thêm.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Thấy </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>thông báo "lỗi nhập".</t>
+    </r>
+  </si>
+  <si>
+    <t>1: chọn thông tin xe bất kì.
+2: Click button Thêm.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Thấy </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>thông báo lỗi trùng.</t>
+    </r>
+  </si>
+  <si>
+    <t>1: Biển số: "59F-61701"
+2: Tên xe: ""
+3: Tài xế: "Lê Quốc Hoàng"
+4: SĐT: "0123456789"
+5: Click button Thêm.</t>
+  </si>
+  <si>
+    <t>1: Biển số: "59F-61701"
+2: Tên xe: "KAI"
+3: Tài xế: ""
+4: SĐT: "0123456789"
+5: Click button Thêm.</t>
+  </si>
+  <si>
+    <t>1: Biển số: "59F-61701"
+2: Tên xe: "KAI"
+3: Tài xế: "Lê Quốc Hoàng"
+4: SĐT: ""
+5: Click button Thêm.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kiểm tra chức năng </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Sửa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>1: chọn thông tin xe bất kì. 
+2: Biển số: ""
+3: Click button Sửa.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Thấy </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>thông báo "Sửa không thành côngl".</t>
+    </r>
+  </si>
+  <si>
+    <t>1: chọn thông tin xe bất kì. 
+2: Tên xe: ""
+3: Click button Sửa.</t>
+  </si>
+  <si>
+    <t>1: chọn thông tin xe bất kì. 
+2: Tài xế: ""
+3: Click button Sửa.</t>
+  </si>
+  <si>
+    <t>1: chọn thông tin xe bất kì. 
+2: SĐT: ""
+3: Click button Sửa.</t>
+  </si>
+  <si>
+    <t>1: chọn thông tin xe bất kì. 
+2: Biển số: "59F-00001"
+3: Click button Thêm.</t>
+  </si>
+  <si>
+    <t>1: chọn thông tin xe bất kì. 
+2: Tên xe: "KAI"
+3: Tài xế: "Nguyễn Văn a"
+4: SĐT: "985762311"
+5: Click button Thêm.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Thấy </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>thông báo "Sửa thành côngl".</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kiểm tra chức năng </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Xóa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>1: chọn thông tin xe bất kì. 
+2: Click button Xóa.</t>
+  </si>
+  <si>
+    <t>TC37</t>
+  </si>
+  <si>
+    <t>TC38</t>
+  </si>
+  <si>
+    <t>TC39</t>
+  </si>
+  <si>
+    <t>TC40</t>
+  </si>
+  <si>
+    <t>1: Biển số: ""
+2: Tên xe: ""
+3: Tài xế: ""
+4: SĐT: ""
+5: Click button Thêm.</t>
+  </si>
+  <si>
+    <t>1: SĐT: ""
+2: Họ Tên: ""
+3: CMND: ""
+5: Giới tính: ""
+6: Email: ""
+7: Địa chỉ: ""
+8: Click button Thêm.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Thấy </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>thông báo "Lỗi nhập!".</t>
+    </r>
+  </si>
+  <si>
+    <t>1: SĐT: "012938476"
+2: Họ Tên: "Nguyễn Văn A"
+3: CMND: "496136461"
+5: Giới tính: "Nam"
+6: Email: "a.nv@gmail.com"
+7: Địa chỉ: "tp.HCM"
+8: Click button Thêm.</t>
+  </si>
+  <si>
+    <t>1: SĐT: ""
+2: Họ Tên: "Nguyễn Văn A"
+3: CMND: "496136461"
+5: Giới tính: "Nam"
+6: Email: "a.nv@gmail.com"
+7: Địa chỉ: "tp.HCM"
+8: Click button Thêm.</t>
+  </si>
+  <si>
+    <t>1: SĐT: "012938476"
+2: Họ Tên: ""
+3: CMND: "496136461"
+5: Giới tính: "Nam"
+6: Email: "a.nv@gmail.com"
+7: Địa chỉ: "tp.HCM"
+8: Click button Thêm.</t>
+  </si>
+  <si>
+    <t>1: SĐT: "012938476"
+2: Họ Tên: "Nguyễn Văn A"
+3: CMND: ""
+5: Giới tính: "Nam"
+6: Email: "a.nv@gmail.com"
+7: Địa chỉ: "tp.HCM"
+8: Click button Thêm.</t>
+  </si>
+  <si>
+    <t>1: SĐT: "012938476"
+2: Họ Tên: "Nguyễn Văn A"
+3: CMND: "496136461"
+5: Giới tính: ""
+6: Email: "a.nv@gmail.com"
+7: Địa chỉ: "tp.HCM"
+8: Click button Thêm.</t>
+  </si>
+  <si>
+    <t>1: SĐT: "012938476"
+2: Họ Tên: "Nguyễn Văn A"
+3: CMND: "496136461"
+5: Giới tính: "Nam"
+6: Email: ""
+7: Địa chỉ: "tp.HCM"
+8: Click button Thêm.</t>
+  </si>
+  <si>
+    <t>1: SĐT: "012938476"
+2: Họ Tên: "Nguyễn Văn A"
+3: CMND: "496136461"
+5: Giới tính: "Nam"
+6: Email: "a.nv@gmail.com"
+7: Địa chỉ: ""
+8: Click button Thêm.</t>
+  </si>
+  <si>
+    <t>1: SĐT: "012938476"
+2: Họ Tên: "Nguyễn Văn A"
+3: CMND: "aaaaaaaaa"
+5: Giới tính: "Nam"
+6: Email: "a.nv@gmail.com"
+7: Địa chỉ: "tp.HCM"
+8: Click button Thêm.</t>
+  </si>
+  <si>
+    <t>1: SĐT: "aaaaaaaaaa"
+2: Họ Tên: "Nguyễn Văn A"
+3: CMND: "496136461"
+5: Giới tính: "Nam"
+6: Email: "a.nv@gmail.com"
+7: Địa chỉ: "tp.HCM"
+8: Click button Thêm.</t>
+  </si>
+  <si>
+    <t>1: chọn thông tin Khách hàng bất kì.
+2: Click button Thêm.</t>
+  </si>
+  <si>
+    <t>1: chọn thông tin Khách hàng bất kì.
+2: SĐT: ""
+3: Click button Thêm.</t>
+  </si>
+  <si>
+    <t>1: chọn thông tin Khách hàng bất kì.
+2: Họ tên:  ""
+3: Click button Thêm.</t>
+  </si>
+  <si>
+    <t>1: chọn thông tin Khách hàng bất kì.
+2: CMND: ""
+3: Click button Sửa.</t>
+  </si>
+  <si>
+    <t>1: chọn thông tin Khách hàng bất kì.
+2: Giới tinh: ""
+3: Click button Sửa.</t>
+  </si>
+  <si>
+    <t>1: chọn thông tin Khách hàng bất kì.
+2: Email: ""
+3: Click button Sửa.</t>
+  </si>
+  <si>
+    <t>1: chọn thông tin Khách hàng bất kì.
+2: Địa chỉ: ""
+3: Click button Sửa.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Thấy </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>thông báo "Sửa không thành côngl" (khóa).</t>
+    </r>
+  </si>
+  <si>
+    <t>1: chọn thông tin Khách hàng bất kì.
+2: SĐT: "012938476"
+3: Click button Thêm.</t>
+  </si>
+  <si>
+    <t>1: chọn thông tin Khách hàng bất kì.
+2: Họ tên:  "Nguyễn Văn B"
+3: Click button Thêm.</t>
+  </si>
+  <si>
+    <t>1: chọn thông tin Khách hàng bất kì.
+2: CMND: "1745183671"
+3: Click button Sửa.</t>
+  </si>
+  <si>
+    <t>1: chọn thông tin Khách hàng bất kì.
+2: Giới tinh: "Nữ"
+3: Click button Sửa.</t>
+  </si>
+  <si>
+    <t>1: chọn thông tin Khách hàng bất kì.
+2: Email: "b.nv@gmail.com"
+3: Click button Sửa.</t>
+  </si>
+  <si>
+    <t>1: chọn thông tin Khách hàng bất kì.
+2: Địa chỉ: "Hà Nội"
+3: Click button Sửa.</t>
+  </si>
+  <si>
+    <t>1: chọn thông tin Khách hàng bất kì.
+3: Click button Xóa.</t>
+  </si>
+  <si>
+    <t>TC41</t>
+  </si>
+  <si>
+    <t>TC42</t>
+  </si>
+  <si>
+    <t>TC43</t>
+  </si>
+  <si>
+    <t>TC44</t>
+  </si>
+  <si>
+    <t>TC45</t>
+  </si>
+  <si>
+    <t>TC46</t>
+  </si>
+  <si>
+    <t>TC47</t>
+  </si>
+  <si>
+    <t>TC48</t>
+  </si>
+  <si>
+    <t>TC49</t>
+  </si>
+  <si>
+    <t>TC50</t>
+  </si>
+  <si>
+    <t>TC51</t>
+  </si>
+  <si>
+    <t>TC52</t>
+  </si>
+  <si>
+    <t>TC53</t>
+  </si>
+  <si>
+    <t>TC54</t>
+  </si>
+  <si>
+    <t>TC55</t>
+  </si>
+  <si>
+    <t>TC56</t>
+  </si>
+  <si>
+    <t>TC57</t>
+  </si>
+  <si>
+    <t>TC58</t>
+  </si>
+  <si>
+    <t>TC59</t>
+  </si>
+  <si>
+    <t>TC60</t>
+  </si>
+  <si>
+    <t>TC61</t>
+  </si>
+  <si>
+    <t>TC62</t>
+  </si>
+  <si>
+    <t>TC63</t>
+  </si>
+  <si>
+    <t>TC64</t>
+  </si>
+  <si>
+    <t>TC65</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kiểm tra chức năng </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tìm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kiểm tra chức năng </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Sửa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Thấy </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>thông báo "Sửa không thành côngl".</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Thấy </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>thông báo "Chưa nhập SĐT".</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Thấy </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>không xuất hiện bất kì báo cáo nào.</t>
+    </r>
+  </si>
+  <si>
+    <t>1: SĐT: ""
+2: Click button Tìm.</t>
+  </si>
+  <si>
+    <t>1: SĐT: "aaaaaaa"
+2: Click button Tìm.</t>
+  </si>
+  <si>
+    <t>1: SĐT: "1231"
+2: Click button Tìm.</t>
+  </si>
+  <si>
+    <t>1: SĐT: "123456789"
+2: Click button Tìm.</t>
+  </si>
+  <si>
+    <r>
+      <t>Thấy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> xuất hiện đối tượng có SĐT đó.</t>
+    </r>
+  </si>
+  <si>
+    <t>2. Kiểm tra chức năng của khách hàng</t>
+  </si>
+  <si>
+    <t>3. Kiểm tra chức năng của nhân viên - Quản lý chuyến đi</t>
+  </si>
+  <si>
+    <t>4. Kiểm tra chức năng của nhân viên - Quản lý xe</t>
+  </si>
+  <si>
+    <t>5. Kiểm tra chức năng của nhân viên - Quản lý khách hàng</t>
+  </si>
+  <si>
+    <t>6. Kiểm tra chức năng của nhân viên - Báo cáo thống kê</t>
+  </si>
+  <si>
+    <t>TC66</t>
+  </si>
+  <si>
+    <t>TC67</t>
+  </si>
+  <si>
+    <t>TC68</t>
+  </si>
+  <si>
+    <t>Demo</t>
+  </si>
+  <si>
+    <t>Hoang Minh</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1617,19 +1653,32 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1656,12 +1705,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="56"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1669,6 +1712,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="61"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2149,7 +2204,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="178">
+  <cellXfs count="182">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -2374,13 +2429,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2390,16 +2438,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2413,28 +2453,12 @@
     <xf numFmtId="0" fontId="22" fillId="4" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="24" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="15" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2447,176 +2471,227 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="25" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="24" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="25" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="22" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="24" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4975,7 +5050,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5010,7 +5085,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5222,7 +5297,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5245,7 +5320,7 @@
     <row r="2" spans="1:8" ht="22.5">
       <c r="A2" s="26"/>
       <c r="B2" s="27" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C2" s="26"/>
       <c r="D2" s="26"/>
@@ -5256,10 +5331,10 @@
     <row r="3" spans="1:8">
       <c r="A3" s="26"/>
       <c r="B3" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="63">
-        <v>1.2</v>
+        <v>34</v>
+      </c>
+      <c r="C3" s="63" t="s">
+        <v>224</v>
       </c>
       <c r="D3" s="29"/>
       <c r="E3" s="26"/>
@@ -5269,10 +5344,10 @@
     <row r="4" spans="1:8">
       <c r="A4" s="26"/>
       <c r="B4" s="28" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="26"/>
@@ -5291,26 +5366,26 @@
     <row r="6" spans="1:8" ht="14.25" customHeight="1" thickBot="1">
       <c r="A6" s="26"/>
       <c r="B6" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="137" t="s">
-        <v>144</v>
-      </c>
-      <c r="D6" s="137"/>
-      <c r="E6" s="138"/>
+        <v>35</v>
+      </c>
+      <c r="C6" s="118" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="118"/>
+      <c r="E6" s="119"/>
       <c r="F6" s="26"/>
       <c r="G6" s="26"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="26"/>
       <c r="B7" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="137" t="s">
-        <v>145</v>
-      </c>
-      <c r="D7" s="137"/>
-      <c r="E7" s="138"/>
+        <v>36</v>
+      </c>
+      <c r="C7" s="118">
+        <v>0</v>
+      </c>
+      <c r="D7" s="118"/>
+      <c r="E7" s="119"/>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
     </row>
@@ -5334,92 +5409,82 @@
     </row>
     <row r="10" spans="1:8">
       <c r="B10" s="5" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="36" customFormat="1" ht="25.5">
       <c r="B11" s="52" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C11" s="53" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D11" s="53" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E11" s="53" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F11" s="53" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G11" s="54" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H11" s="90" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="36" customFormat="1">
       <c r="B12" s="38">
-        <v>39293</v>
+        <v>43765</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D12" s="40"/>
       <c r="E12" s="41" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F12" s="77" t="s">
-        <v>171</v>
+        <v>225</v>
       </c>
       <c r="G12" s="89"/>
-      <c r="H12" s="91" t="s">
-        <v>52</v>
-      </c>
+      <c r="H12" s="91"/>
     </row>
     <row r="13" spans="1:8" s="36" customFormat="1">
-      <c r="B13" s="117">
-        <v>39295</v>
+      <c r="B13" s="104">
+        <v>43774</v>
       </c>
       <c r="C13" s="39" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="D13" s="40"/>
       <c r="E13" s="41" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="F13" s="77" t="s">
-        <v>171</v>
-      </c>
-      <c r="G13" s="115" t="s">
-        <v>172</v>
-      </c>
-      <c r="H13" s="91" t="s">
-        <v>52</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="G13" s="103"/>
+      <c r="H13" s="91"/>
     </row>
     <row r="14" spans="1:8" s="37" customFormat="1" ht="12.75">
       <c r="B14" s="38">
-        <v>39311</v>
+        <v>43779</v>
       </c>
       <c r="C14" s="39" t="s">
-        <v>142</v>
+        <v>70</v>
       </c>
       <c r="D14" s="40"/>
       <c r="E14" s="41" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="F14" s="77" t="s">
-        <v>171</v>
-      </c>
-      <c r="G14" s="115" t="s">
-        <v>146</v>
-      </c>
-      <c r="H14" s="91" t="s">
-        <v>52</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="G14" s="103"/>
+      <c r="H14" s="91"/>
     </row>
     <row r="15" spans="1:8" s="37" customFormat="1" ht="12.75">
       <c r="B15" s="45"/>
@@ -5521,1492 +5586,1939 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N115"/>
+  <dimension ref="A1:K120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="15.75" customWidth="1"/>
-    <col min="2" max="2" width="18.125" style="99" customWidth="1"/>
+    <col min="2" max="2" width="18.125" style="95" customWidth="1"/>
     <col min="3" max="3" width="42.125" customWidth="1"/>
     <col min="6" max="6" width="23.625" customWidth="1"/>
     <col min="7" max="7" width="18.5" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="17.25" customWidth="1"/>
-    <col min="9" max="9" width="9" style="104"/>
-    <col min="10" max="10" width="18" style="102" customWidth="1"/>
+    <col min="9" max="9" width="9" style="97"/>
+    <col min="10" max="10" width="18" style="96" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1" ht="12.75" customHeight="1">
       <c r="A1" s="64" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="164"/>
-      <c r="C1" s="164"/>
-      <c r="D1" s="164"/>
+        <v>12</v>
+      </c>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="119"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="106"/>
       <c r="K1" s="7"/>
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
       <c r="A2" s="7"/>
-      <c r="B2" s="165"/>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
+      <c r="B2" s="127"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
-      <c r="I2" s="118"/>
-      <c r="J2" s="119"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="106"/>
       <c r="K2" s="7"/>
     </row>
     <row r="3" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A3" s="65" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="137" t="s">
-        <v>173</v>
-      </c>
-      <c r="C3" s="137"/>
-      <c r="D3" s="138"/>
+        <v>37</v>
+      </c>
+      <c r="B3" s="118" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="118"/>
+      <c r="D3" s="119"/>
       <c r="E3" s="68"/>
       <c r="F3" s="68"/>
       <c r="G3" s="68"/>
-      <c r="H3" s="171"/>
-      <c r="I3" s="171"/>
-      <c r="J3" s="171"/>
+      <c r="H3" s="133"/>
+      <c r="I3" s="133"/>
+      <c r="J3" s="133"/>
       <c r="K3" s="9"/>
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1" ht="12.75">
       <c r="A4" s="72" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="172" t="s">
-        <v>147</v>
-      </c>
-      <c r="C4" s="173"/>
-      <c r="D4" s="174"/>
+        <v>38</v>
+      </c>
+      <c r="B4" s="135" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="136"/>
+      <c r="D4" s="137"/>
       <c r="E4" s="68"/>
       <c r="F4" s="68"/>
       <c r="G4" s="68"/>
-      <c r="H4" s="171"/>
-      <c r="I4" s="171"/>
-      <c r="J4" s="171"/>
+      <c r="H4" s="133"/>
+      <c r="I4" s="133"/>
+      <c r="J4" s="133"/>
       <c r="K4" s="9"/>
     </row>
     <row r="5" spans="1:11" s="81" customFormat="1" ht="12.75">
       <c r="A5" s="72" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="167"/>
-      <c r="C5" s="168"/>
-      <c r="D5" s="169"/>
+        <v>32</v>
+      </c>
+      <c r="B5" s="129"/>
+      <c r="C5" s="130"/>
+      <c r="D5" s="131"/>
       <c r="E5" s="79"/>
       <c r="F5" s="79"/>
       <c r="G5" s="79"/>
-      <c r="H5" s="170"/>
-      <c r="I5" s="170"/>
-      <c r="J5" s="170"/>
+      <c r="H5" s="132"/>
+      <c r="I5" s="132"/>
+      <c r="J5" s="132"/>
       <c r="K5" s="80"/>
     </row>
     <row r="6" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="A6" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="95"/>
+        <v>39</v>
+      </c>
+      <c r="B6" s="92">
+        <f>COUNTIF(I12:I85,"Pass")</f>
+        <v>46</v>
+      </c>
       <c r="C6" s="10" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D6" s="13">
-        <f>COUNTIF(I10:I796,"Pending")</f>
+        <f>COUNTIF(I10:I801,"Pending")</f>
         <v>0</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="171"/>
-      <c r="I6" s="171"/>
-      <c r="J6" s="171"/>
+      <c r="H6" s="133"/>
+      <c r="I6" s="133"/>
+      <c r="J6" s="133"/>
       <c r="K6" s="9"/>
     </row>
     <row r="7" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A7" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="96"/>
+        <v>10</v>
+      </c>
+      <c r="B7" s="93">
+        <f>COUNTIF(I12:I85,"Fail")</f>
+        <v>22</v>
+      </c>
       <c r="C7" s="30" t="s">
-        <v>180</v>
+        <v>79</v>
       </c>
       <c r="D7" s="66">
-        <f>COUNTA(A12:A77) -15</f>
-        <v>46</v>
+        <f>COUNTA(A12:A85) -6</f>
+        <v>68</v>
       </c>
       <c r="E7" s="69"/>
       <c r="F7" s="69"/>
       <c r="G7" s="69"/>
-      <c r="H7" s="171"/>
-      <c r="I7" s="171"/>
-      <c r="J7" s="171"/>
+      <c r="H7" s="133"/>
+      <c r="I7" s="133"/>
+      <c r="J7" s="133"/>
       <c r="K7" s="9"/>
     </row>
     <row r="8" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="166"/>
-      <c r="B8" s="166"/>
-      <c r="C8" s="166"/>
-      <c r="D8" s="166"/>
+      <c r="A8" s="128"/>
+      <c r="B8" s="128"/>
+      <c r="C8" s="128"/>
+      <c r="D8" s="128"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
-      <c r="I8" s="120"/>
-      <c r="J8" s="120"/>
+      <c r="I8" s="107"/>
+      <c r="J8" s="107"/>
       <c r="K8" s="9"/>
     </row>
     <row r="9" spans="1:11" s="83" customFormat="1" ht="12" customHeight="1">
-      <c r="A9" s="149" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="151" t="s">
-        <v>174</v>
-      </c>
-      <c r="C9" s="149" t="s">
-        <v>175</v>
-      </c>
-      <c r="D9" s="153" t="s">
-        <v>176</v>
-      </c>
-      <c r="E9" s="154"/>
-      <c r="F9" s="154"/>
-      <c r="G9" s="155"/>
-      <c r="H9" s="175" t="s">
-        <v>177</v>
-      </c>
-      <c r="I9" s="150" t="s">
-        <v>178</v>
-      </c>
-      <c r="J9" s="150" t="s">
-        <v>179</v>
+      <c r="A9" s="142" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="143" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="142" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="145" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="146"/>
+      <c r="F9" s="146"/>
+      <c r="G9" s="147"/>
+      <c r="H9" s="138" t="s">
+        <v>76</v>
+      </c>
+      <c r="I9" s="134" t="s">
+        <v>77</v>
+      </c>
+      <c r="J9" s="134" t="s">
+        <v>78</v>
       </c>
       <c r="K9" s="82"/>
     </row>
     <row r="10" spans="1:11" s="71" customFormat="1" ht="12" customHeight="1">
-      <c r="A10" s="150"/>
-      <c r="B10" s="152"/>
-      <c r="C10" s="150"/>
-      <c r="D10" s="156"/>
-      <c r="E10" s="157"/>
-      <c r="F10" s="157"/>
-      <c r="G10" s="158"/>
-      <c r="H10" s="156"/>
-      <c r="I10" s="150"/>
-      <c r="J10" s="150"/>
+      <c r="A10" s="134"/>
+      <c r="B10" s="144"/>
+      <c r="C10" s="134"/>
+      <c r="D10" s="139"/>
+      <c r="E10" s="148"/>
+      <c r="F10" s="148"/>
+      <c r="G10" s="149"/>
+      <c r="H10" s="139"/>
+      <c r="I10" s="134"/>
+      <c r="J10" s="134"/>
       <c r="K10" s="70"/>
     </row>
     <row r="11" spans="1:11" s="84" customFormat="1" ht="15">
-      <c r="A11" s="176"/>
-      <c r="B11" s="176"/>
-      <c r="C11" s="176"/>
-      <c r="D11" s="176"/>
-      <c r="E11" s="176"/>
-      <c r="F11" s="176"/>
-      <c r="G11" s="176"/>
-      <c r="H11" s="176"/>
-      <c r="I11" s="176"/>
-      <c r="J11" s="177"/>
+      <c r="A11" s="140"/>
+      <c r="B11" s="140"/>
+      <c r="C11" s="140"/>
+      <c r="D11" s="140"/>
+      <c r="E11" s="140"/>
+      <c r="F11" s="140"/>
+      <c r="G11" s="140"/>
+      <c r="H11" s="140"/>
+      <c r="I11" s="140"/>
+      <c r="J11" s="141"/>
     </row>
     <row r="12" spans="1:11" s="4" customFormat="1" ht="12.75">
-      <c r="A12" s="139" t="s">
-        <v>181</v>
-      </c>
-      <c r="B12" s="140"/>
-      <c r="C12" s="140"/>
-      <c r="D12" s="140"/>
-      <c r="E12" s="140"/>
-      <c r="F12" s="140"/>
-      <c r="G12" s="140"/>
-      <c r="H12" s="140"/>
-      <c r="I12" s="140"/>
-      <c r="J12" s="141"/>
+      <c r="A12" s="123" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" s="124"/>
+      <c r="C12" s="124"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="124"/>
+      <c r="F12" s="124"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="124"/>
+      <c r="I12" s="124"/>
+      <c r="J12" s="125"/>
     </row>
     <row r="13" spans="1:11" s="4" customFormat="1" ht="51" outlineLevel="1">
       <c r="A13" s="88" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="97" t="s">
-        <v>193</v>
+        <v>3</v>
+      </c>
+      <c r="B13" s="94" t="s">
+        <v>91</v>
       </c>
       <c r="C13" s="87" t="s">
-        <v>209</v>
-      </c>
-      <c r="D13" s="161" t="s">
-        <v>182</v>
-      </c>
-      <c r="E13" s="162"/>
-      <c r="F13" s="162"/>
+        <v>105</v>
+      </c>
+      <c r="D13" s="150" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="151"/>
+      <c r="F13" s="151"/>
       <c r="G13" s="86"/>
-      <c r="H13" s="113" t="s">
-        <v>186</v>
+      <c r="H13" s="102" t="s">
+        <v>84</v>
       </c>
       <c r="I13" s="87" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J13" s="85"/>
     </row>
     <row r="14" spans="1:11" s="4" customFormat="1" ht="53.25" customHeight="1" outlineLevel="1">
       <c r="A14" s="88" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="97" t="s">
-        <v>194</v>
+        <v>4</v>
+      </c>
+      <c r="B14" s="94" t="s">
+        <v>92</v>
       </c>
       <c r="C14" s="87" t="s">
-        <v>208</v>
-      </c>
-      <c r="D14" s="142" t="s">
-        <v>182</v>
-      </c>
-      <c r="E14" s="143"/>
-      <c r="F14" s="163"/>
-      <c r="G14" s="129"/>
-      <c r="H14" s="113" t="s">
-        <v>186</v>
+        <v>104</v>
+      </c>
+      <c r="D14" s="122" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" s="121"/>
+      <c r="F14" s="152"/>
+      <c r="G14" s="112"/>
+      <c r="H14" s="102" t="s">
+        <v>84</v>
       </c>
       <c r="I14" s="87" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J14" s="85"/>
     </row>
     <row r="15" spans="1:11" s="4" customFormat="1" ht="51" outlineLevel="1">
       <c r="A15" s="88" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="97" t="s">
-        <v>193</v>
+        <v>5</v>
+      </c>
+      <c r="B15" s="94" t="s">
+        <v>91</v>
       </c>
       <c r="C15" s="87" t="s">
-        <v>190</v>
-      </c>
-      <c r="D15" s="142" t="s">
-        <v>191</v>
-      </c>
-      <c r="E15" s="143"/>
-      <c r="F15" s="163"/>
-      <c r="G15" s="129"/>
-      <c r="H15" s="113" t="s">
-        <v>186</v>
+        <v>88</v>
+      </c>
+      <c r="D15" s="122" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" s="121"/>
+      <c r="F15" s="152"/>
+      <c r="G15" s="112"/>
+      <c r="H15" s="102" t="s">
+        <v>84</v>
       </c>
       <c r="I15" s="87" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J15" s="85"/>
     </row>
     <row r="16" spans="1:11" s="4" customFormat="1" ht="51" outlineLevel="1">
       <c r="A16" s="88" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="97" t="s">
-        <v>195</v>
+        <v>6</v>
+      </c>
+      <c r="B16" s="94" t="s">
+        <v>93</v>
       </c>
       <c r="C16" s="87" t="s">
-        <v>192</v>
-      </c>
-      <c r="D16" s="142" t="s">
-        <v>191</v>
-      </c>
-      <c r="E16" s="143"/>
-      <c r="F16" s="163"/>
+        <v>90</v>
+      </c>
+      <c r="D16" s="122" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" s="121"/>
+      <c r="F16" s="152"/>
       <c r="G16" s="86"/>
-      <c r="H16" s="113" t="s">
-        <v>186</v>
+      <c r="H16" s="102" t="s">
+        <v>84</v>
       </c>
       <c r="I16" s="87" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J16" s="85"/>
     </row>
     <row r="17" spans="1:10" s="4" customFormat="1" ht="12.75" outlineLevel="1">
-      <c r="A17" s="159" t="s">
-        <v>183</v>
-      </c>
-      <c r="B17" s="160"/>
-      <c r="C17" s="160"/>
-      <c r="D17" s="123"/>
-      <c r="E17" s="123"/>
-      <c r="F17" s="123"/>
-      <c r="G17" s="107"/>
-      <c r="H17" s="107"/>
-      <c r="I17" s="107"/>
-      <c r="J17" s="108"/>
+      <c r="A17" s="123" t="s">
+        <v>216</v>
+      </c>
+      <c r="B17" s="124"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="108"/>
+      <c r="E17" s="108"/>
+      <c r="F17" s="108"/>
+      <c r="G17" s="100"/>
+      <c r="H17" s="100"/>
+      <c r="I17" s="100"/>
+      <c r="J17" s="101"/>
     </row>
     <row r="18" spans="1:10" s="4" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
       <c r="A18" s="88" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="105" t="s">
-        <v>184</v>
-      </c>
-      <c r="C18" s="106" t="s">
-        <v>201</v>
-      </c>
-      <c r="D18" s="148" t="s">
-        <v>185</v>
-      </c>
-      <c r="E18" s="143"/>
-      <c r="F18" s="143"/>
+        <v>7</v>
+      </c>
+      <c r="B18" s="98" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="99" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" s="120" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18" s="121"/>
+      <c r="F18" s="121"/>
       <c r="G18" s="86"/>
-      <c r="H18" s="130" t="s">
-        <v>186</v>
+      <c r="H18" s="113" t="s">
+        <v>84</v>
       </c>
       <c r="I18" s="87" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J18" s="85"/>
     </row>
     <row r="19" spans="1:10" s="4" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
       <c r="A19" s="88" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="105" t="s">
-        <v>184</v>
-      </c>
-      <c r="C19" s="106" t="s">
-        <v>200</v>
-      </c>
-      <c r="D19" s="148" t="s">
-        <v>185</v>
-      </c>
-      <c r="E19" s="143"/>
-      <c r="F19" s="143"/>
-      <c r="G19" s="124"/>
-      <c r="H19" s="130" t="s">
-        <v>186</v>
+        <v>8</v>
+      </c>
+      <c r="B19" s="98" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="99" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" s="120" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19" s="121"/>
+      <c r="F19" s="121"/>
+      <c r="G19" s="109"/>
+      <c r="H19" s="113" t="s">
+        <v>84</v>
       </c>
       <c r="I19" s="87" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J19" s="85"/>
     </row>
     <row r="20" spans="1:10" s="4" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
       <c r="A20" s="88" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="105" t="s">
-        <v>184</v>
-      </c>
-      <c r="C20" s="106" t="s">
-        <v>199</v>
-      </c>
-      <c r="D20" s="148" t="s">
-        <v>185</v>
-      </c>
-      <c r="E20" s="143"/>
-      <c r="F20" s="143"/>
-      <c r="G20" s="124"/>
-      <c r="H20" s="130" t="s">
-        <v>186</v>
+        <v>9</v>
+      </c>
+      <c r="B20" s="98" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="99" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="120" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" s="121"/>
+      <c r="F20" s="121"/>
+      <c r="G20" s="109"/>
+      <c r="H20" s="113" t="s">
+        <v>84</v>
       </c>
       <c r="I20" s="87" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J20" s="85"/>
     </row>
     <row r="21" spans="1:10" s="4" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
       <c r="A21" s="88" t="s">
-        <v>57</v>
-      </c>
-      <c r="B21" s="105" t="s">
-        <v>184</v>
-      </c>
-      <c r="C21" s="106" t="s">
-        <v>198</v>
-      </c>
-      <c r="D21" s="148" t="s">
-        <v>187</v>
-      </c>
-      <c r="E21" s="143"/>
-      <c r="F21" s="143"/>
-      <c r="G21" s="124"/>
-      <c r="H21" s="130" t="s">
-        <v>186</v>
+        <v>42</v>
+      </c>
+      <c r="B21" s="98" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="99" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" s="120" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21" s="121"/>
+      <c r="F21" s="121"/>
+      <c r="G21" s="109"/>
+      <c r="H21" s="113" t="s">
+        <v>84</v>
       </c>
       <c r="I21" s="87" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J21" s="85"/>
     </row>
     <row r="22" spans="1:10" s="4" customFormat="1" ht="92.25" customHeight="1" outlineLevel="1">
       <c r="A22" s="88" t="s">
-        <v>66</v>
-      </c>
-      <c r="B22" s="105" t="s">
-        <v>188</v>
-      </c>
-      <c r="C22" s="106" t="s">
-        <v>210</v>
-      </c>
-      <c r="D22" s="148" t="s">
-        <v>189</v>
-      </c>
-      <c r="E22" s="143"/>
-      <c r="F22" s="143"/>
-      <c r="G22" s="124"/>
-      <c r="H22" s="130" t="s">
-        <v>186</v>
+        <v>43</v>
+      </c>
+      <c r="B22" s="98" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="99" t="s">
+        <v>106</v>
+      </c>
+      <c r="D22" s="120" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22" s="121"/>
+      <c r="F22" s="121"/>
+      <c r="G22" s="109"/>
+      <c r="H22" s="113" t="s">
+        <v>84</v>
       </c>
       <c r="I22" s="87" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J22" s="85"/>
     </row>
     <row r="23" spans="1:10" s="4" customFormat="1" ht="88.5" customHeight="1" outlineLevel="1">
       <c r="A23" s="88" t="s">
-        <v>67</v>
-      </c>
-      <c r="B23" s="105" t="s">
-        <v>188</v>
-      </c>
-      <c r="C23" s="106" t="s">
-        <v>211</v>
-      </c>
-      <c r="D23" s="148" t="s">
-        <v>196</v>
-      </c>
-      <c r="E23" s="143"/>
-      <c r="F23" s="143"/>
-      <c r="G23" s="129"/>
-      <c r="H23" s="130" t="s">
-        <v>186</v>
+        <v>44</v>
+      </c>
+      <c r="B23" s="98" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="99" t="s">
+        <v>107</v>
+      </c>
+      <c r="D23" s="120" t="s">
+        <v>94</v>
+      </c>
+      <c r="E23" s="121"/>
+      <c r="F23" s="121"/>
+      <c r="G23" s="112"/>
+      <c r="H23" s="113" t="s">
+        <v>84</v>
       </c>
       <c r="I23" s="87" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J23" s="85"/>
     </row>
     <row r="24" spans="1:10" s="4" customFormat="1" ht="111.75" customHeight="1" outlineLevel="1">
       <c r="A24" s="88" t="s">
-        <v>68</v>
-      </c>
-      <c r="B24" s="105" t="s">
-        <v>197</v>
-      </c>
-      <c r="C24" s="106" t="s">
-        <v>212</v>
-      </c>
-      <c r="D24" s="148" t="s">
-        <v>202</v>
-      </c>
-      <c r="E24" s="143"/>
-      <c r="F24" s="143"/>
-      <c r="G24" s="129"/>
-      <c r="H24" s="130" t="s">
-        <v>186</v>
+        <v>45</v>
+      </c>
+      <c r="B24" s="98" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" s="99" t="s">
+        <v>108</v>
+      </c>
+      <c r="D24" s="120" t="s">
+        <v>100</v>
+      </c>
+      <c r="E24" s="121"/>
+      <c r="F24" s="121"/>
+      <c r="G24" s="112"/>
+      <c r="H24" s="113" t="s">
+        <v>84</v>
       </c>
       <c r="I24" s="87" t="s">
+        <v>39</v>
+      </c>
+      <c r="J24" s="85"/>
+    </row>
+    <row r="25" spans="1:10" s="4" customFormat="1" ht="12.75" outlineLevel="1">
+      <c r="A25" s="123" t="s">
+        <v>217</v>
+      </c>
+      <c r="B25" s="124"/>
+      <c r="C25" s="124"/>
+      <c r="D25" s="108"/>
+      <c r="E25" s="108"/>
+      <c r="F25" s="108"/>
+      <c r="G25" s="110"/>
+      <c r="H25" s="110"/>
+      <c r="I25" s="110"/>
+      <c r="J25" s="111"/>
+    </row>
+    <row r="26" spans="1:10" s="4" customFormat="1" ht="27" customHeight="1" outlineLevel="1">
+      <c r="A26" s="88" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="98" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="99" t="s">
+        <v>102</v>
+      </c>
+      <c r="D26" s="120" t="s">
+        <v>103</v>
+      </c>
+      <c r="E26" s="121"/>
+      <c r="F26" s="121"/>
+      <c r="G26" s="112"/>
+      <c r="H26" s="114">
+        <v>43596</v>
+      </c>
+      <c r="I26" s="87" t="s">
+        <v>39</v>
+      </c>
+      <c r="J26" s="85"/>
+    </row>
+    <row r="27" spans="1:10" s="4" customFormat="1" ht="93" customHeight="1" outlineLevel="1">
+      <c r="A27" s="88" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" s="98" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27" s="99" t="s">
+        <v>111</v>
+      </c>
+      <c r="D27" s="120" t="s">
+        <v>109</v>
+      </c>
+      <c r="E27" s="121"/>
+      <c r="F27" s="121"/>
+      <c r="G27" s="112"/>
+      <c r="H27" s="114">
+        <v>43749</v>
+      </c>
+      <c r="I27" s="87" t="s">
+        <v>39</v>
+      </c>
+      <c r="J27" s="85"/>
+    </row>
+    <row r="28" spans="1:10" s="4" customFormat="1" ht="88.5" customHeight="1" outlineLevel="1">
+      <c r="A28" s="88" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="98" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28" s="99" t="s">
+        <v>112</v>
+      </c>
+      <c r="D28" s="120" t="s">
+        <v>103</v>
+      </c>
+      <c r="E28" s="121"/>
+      <c r="F28" s="121"/>
+      <c r="G28" s="117"/>
+      <c r="H28" s="114">
+        <v>43749</v>
+      </c>
+      <c r="I28" s="87" t="s">
+        <v>10</v>
+      </c>
+      <c r="J28" s="85"/>
+    </row>
+    <row r="29" spans="1:10" s="4" customFormat="1" ht="92.25" customHeight="1" outlineLevel="1">
+      <c r="A29" s="88" t="s">
         <v>49</v>
       </c>
-      <c r="J24" s="85"/>
-    </row>
-    <row r="25" spans="1:10" s="4" customFormat="1" ht="12.75" outlineLevel="1">
-      <c r="A25" s="159" t="s">
-        <v>204</v>
-      </c>
-      <c r="B25" s="160"/>
-      <c r="C25" s="160"/>
-      <c r="D25" s="123"/>
-      <c r="E25" s="123"/>
-      <c r="F25" s="123"/>
-      <c r="G25" s="125"/>
-      <c r="H25" s="125"/>
-      <c r="I25" s="125"/>
-      <c r="J25" s="126"/>
-    </row>
-    <row r="26" spans="1:10" s="4" customFormat="1" ht="32.25" customHeight="1" outlineLevel="1">
-      <c r="A26" s="88" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26" s="105" t="s">
-        <v>203</v>
-      </c>
-      <c r="C26" s="106" t="s">
-        <v>205</v>
-      </c>
-      <c r="D26" s="148" t="s">
-        <v>206</v>
-      </c>
-      <c r="E26" s="143"/>
-      <c r="F26" s="143"/>
-      <c r="G26" s="129"/>
-      <c r="H26" s="136">
-        <v>43596</v>
-      </c>
-      <c r="I26" s="87" t="s">
-        <v>49</v>
-      </c>
-      <c r="J26" s="85"/>
-    </row>
-    <row r="27" spans="1:10" s="4" customFormat="1" ht="115.5" customHeight="1" outlineLevel="1">
-      <c r="A27" s="88" t="s">
-        <v>70</v>
-      </c>
-      <c r="B27" s="105" t="s">
-        <v>203</v>
-      </c>
-      <c r="C27" s="106" t="s">
-        <v>207</v>
-      </c>
-      <c r="D27" s="148" t="s">
-        <v>206</v>
-      </c>
-      <c r="E27" s="143"/>
-      <c r="F27" s="143"/>
-      <c r="G27" s="129"/>
-      <c r="H27" s="136">
-        <v>43597</v>
-      </c>
-      <c r="I27" s="87" t="s">
-        <v>49</v>
-      </c>
-      <c r="J27" s="85"/>
-    </row>
-    <row r="28" spans="1:10" s="4" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
-      <c r="A28" s="131"/>
-      <c r="B28" s="132"/>
-      <c r="C28" s="128"/>
-      <c r="D28" s="133"/>
-      <c r="E28" s="127"/>
-      <c r="F28" s="127"/>
-      <c r="G28" s="127"/>
-      <c r="H28" s="134"/>
-      <c r="I28" s="127"/>
-      <c r="J28" s="135"/>
-    </row>
-    <row r="29" spans="1:10" s="4" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
-      <c r="A29" s="131"/>
-      <c r="B29" s="132"/>
-      <c r="C29" s="128"/>
-      <c r="D29" s="133"/>
-      <c r="E29" s="127"/>
-      <c r="F29" s="127"/>
-      <c r="G29" s="127"/>
-      <c r="H29" s="134"/>
-      <c r="I29" s="127"/>
-      <c r="J29" s="135"/>
-    </row>
-    <row r="30" spans="1:10" s="4" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
-      <c r="A30" s="131"/>
-      <c r="B30" s="132"/>
-      <c r="C30" s="128"/>
-      <c r="D30" s="133"/>
-      <c r="E30" s="127"/>
-      <c r="F30" s="127"/>
-      <c r="G30" s="127"/>
-      <c r="H30" s="134"/>
-      <c r="I30" s="127"/>
-      <c r="J30" s="135"/>
-    </row>
-    <row r="31" spans="1:10" s="4" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
-      <c r="A31" s="131"/>
-      <c r="B31" s="132"/>
-      <c r="C31" s="128"/>
-      <c r="D31" s="133"/>
-      <c r="E31" s="127"/>
-      <c r="F31" s="127"/>
-      <c r="G31" s="127"/>
-      <c r="H31" s="134"/>
-      <c r="I31" s="127"/>
-      <c r="J31" s="135"/>
-    </row>
-    <row r="32" spans="1:10" s="4" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
-      <c r="A32" s="131"/>
-      <c r="B32" s="132"/>
-      <c r="C32" s="122"/>
-      <c r="D32" s="133"/>
+      <c r="B29" s="98" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" s="99" t="s">
+        <v>113</v>
+      </c>
+      <c r="D29" s="120" t="s">
+        <v>109</v>
+      </c>
+      <c r="E29" s="121"/>
+      <c r="F29" s="121"/>
+      <c r="G29" s="117"/>
+      <c r="H29" s="114">
+        <v>43749</v>
+      </c>
+      <c r="I29" s="87" t="s">
+        <v>39</v>
+      </c>
+      <c r="J29" s="85"/>
+    </row>
+    <row r="30" spans="1:10" s="4" customFormat="1" ht="88.5" customHeight="1" outlineLevel="1">
+      <c r="A30" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="98" t="s">
+        <v>101</v>
+      </c>
+      <c r="C30" s="99" t="s">
+        <v>111</v>
+      </c>
+      <c r="D30" s="120" t="s">
+        <v>103</v>
+      </c>
+      <c r="E30" s="121"/>
+      <c r="F30" s="121"/>
+      <c r="G30" s="117"/>
+      <c r="H30" s="114">
+        <v>43749</v>
+      </c>
+      <c r="I30" s="87" t="s">
+        <v>10</v>
+      </c>
+      <c r="J30" s="85"/>
+    </row>
+    <row r="31" spans="1:10" s="4" customFormat="1" ht="92.25" customHeight="1" outlineLevel="1">
+      <c r="A31" s="88" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="98" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" s="99" t="s">
+        <v>114</v>
+      </c>
+      <c r="D31" s="120" t="s">
+        <v>103</v>
+      </c>
+      <c r="E31" s="121"/>
+      <c r="F31" s="121"/>
+      <c r="G31" s="117"/>
+      <c r="H31" s="114">
+        <v>43749</v>
+      </c>
+      <c r="I31" s="87" t="s">
+        <v>10</v>
+      </c>
+      <c r="J31" s="85"/>
+    </row>
+    <row r="32" spans="1:10" s="4" customFormat="1" ht="88.5" customHeight="1" outlineLevel="1">
+      <c r="A32" s="88" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" s="98" t="s">
+        <v>101</v>
+      </c>
+      <c r="C32" s="99" t="s">
+        <v>115</v>
+      </c>
+      <c r="D32" s="120" t="s">
+        <v>103</v>
+      </c>
       <c r="E32" s="121"/>
       <c r="F32" s="121"/>
-      <c r="G32" s="121"/>
-      <c r="H32" s="134"/>
-      <c r="I32" s="121"/>
-      <c r="J32" s="135"/>
-    </row>
-    <row r="33" spans="1:14" s="4" customFormat="1" ht="12.75" outlineLevel="1">
-      <c r="A33" s="159" t="s">
-        <v>81</v>
-      </c>
-      <c r="B33" s="160"/>
-      <c r="C33" s="160"/>
-      <c r="D33" s="107"/>
-      <c r="E33" s="107"/>
-      <c r="F33" s="107"/>
-      <c r="G33" s="107"/>
-      <c r="H33" s="107"/>
-      <c r="I33" s="107"/>
-      <c r="J33" s="108"/>
-    </row>
-    <row r="34" spans="1:14" s="4" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
+      <c r="G32" s="117"/>
+      <c r="H32" s="114">
+        <v>43749</v>
+      </c>
+      <c r="I32" s="87" t="s">
+        <v>10</v>
+      </c>
+      <c r="J32" s="85"/>
+    </row>
+    <row r="33" spans="1:10" s="4" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
+      <c r="A33" s="88" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="98" t="s">
+        <v>101</v>
+      </c>
+      <c r="C33" s="99" t="s">
+        <v>116</v>
+      </c>
+      <c r="D33" s="120" t="s">
+        <v>103</v>
+      </c>
+      <c r="E33" s="121"/>
+      <c r="F33" s="121"/>
+      <c r="G33" s="117"/>
+      <c r="H33" s="114">
+        <v>43749</v>
+      </c>
+      <c r="I33" s="87" t="s">
+        <v>10</v>
+      </c>
+      <c r="J33" s="85"/>
+    </row>
+    <row r="34" spans="1:10" s="4" customFormat="1" ht="39.75" customHeight="1" outlineLevel="1">
       <c r="A34" s="88" t="s">
-        <v>18</v>
-      </c>
-      <c r="B34" s="105" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="98" t="s">
+        <v>110</v>
+      </c>
+      <c r="C34" s="99" t="s">
+        <v>117</v>
+      </c>
+      <c r="D34" s="120" t="s">
+        <v>103</v>
+      </c>
+      <c r="E34" s="121"/>
+      <c r="F34" s="121"/>
+      <c r="G34" s="117"/>
+      <c r="H34" s="114">
+        <v>43749</v>
+      </c>
+      <c r="I34" s="87" t="s">
+        <v>10</v>
+      </c>
+      <c r="J34" s="85"/>
+    </row>
+    <row r="35" spans="1:10" s="4" customFormat="1" ht="39.75" customHeight="1" outlineLevel="1">
+      <c r="A35" s="88" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" s="98" t="s">
+        <v>110</v>
+      </c>
+      <c r="C35" s="99" t="s">
+        <v>118</v>
+      </c>
+      <c r="D35" s="120" t="s">
+        <v>103</v>
+      </c>
+      <c r="E35" s="121"/>
+      <c r="F35" s="121"/>
+      <c r="G35" s="117"/>
+      <c r="H35" s="114">
+        <v>43749</v>
+      </c>
+      <c r="I35" s="87" t="s">
+        <v>10</v>
+      </c>
+      <c r="J35" s="85"/>
+    </row>
+    <row r="36" spans="1:10" s="4" customFormat="1" ht="39.75" customHeight="1" outlineLevel="1">
+      <c r="A36" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="106" t="s">
+      <c r="B36" s="98" t="s">
+        <v>110</v>
+      </c>
+      <c r="C36" s="99" t="s">
+        <v>119</v>
+      </c>
+      <c r="D36" s="120" t="s">
+        <v>103</v>
+      </c>
+      <c r="E36" s="121"/>
+      <c r="F36" s="121"/>
+      <c r="G36" s="117"/>
+      <c r="H36" s="114">
+        <v>43749</v>
+      </c>
+      <c r="I36" s="87" t="s">
+        <v>10</v>
+      </c>
+      <c r="J36" s="85"/>
+    </row>
+    <row r="37" spans="1:10" s="4" customFormat="1" ht="90.75" customHeight="1" outlineLevel="1">
+      <c r="A37" s="88" t="s">
+        <v>56</v>
+      </c>
+      <c r="B37" s="98" t="s">
+        <v>110</v>
+      </c>
+      <c r="C37" s="99" t="s">
+        <v>121</v>
+      </c>
+      <c r="D37" s="120" t="s">
+        <v>120</v>
+      </c>
+      <c r="E37" s="121"/>
+      <c r="F37" s="121"/>
+      <c r="G37" s="117"/>
+      <c r="H37" s="114">
+        <v>43749</v>
+      </c>
+      <c r="I37" s="87" t="s">
+        <v>39</v>
+      </c>
+      <c r="J37" s="85"/>
+    </row>
+    <row r="38" spans="1:10" s="4" customFormat="1" ht="39.75" customHeight="1" outlineLevel="1">
+      <c r="A38" s="88" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38" s="98" t="s">
+        <v>122</v>
+      </c>
+      <c r="C38" s="99" t="s">
+        <v>123</v>
+      </c>
+      <c r="D38" s="120" t="s">
+        <v>124</v>
+      </c>
+      <c r="E38" s="121"/>
+      <c r="F38" s="121"/>
+      <c r="G38" s="117"/>
+      <c r="H38" s="114">
+        <v>43749</v>
+      </c>
+      <c r="I38" s="87" t="s">
+        <v>39</v>
+      </c>
+      <c r="J38" s="85"/>
+    </row>
+    <row r="39" spans="1:10" s="4" customFormat="1" ht="39.75" customHeight="1" outlineLevel="1">
+      <c r="A39" s="88" t="s">
+        <v>58</v>
+      </c>
+      <c r="B39" s="98" t="s">
+        <v>122</v>
+      </c>
+      <c r="C39" s="99" t="s">
+        <v>125</v>
+      </c>
+      <c r="D39" s="120" t="s">
+        <v>126</v>
+      </c>
+      <c r="E39" s="121"/>
+      <c r="F39" s="121"/>
+      <c r="G39" s="117"/>
+      <c r="H39" s="114">
+        <v>43749</v>
+      </c>
+      <c r="I39" s="87" t="s">
+        <v>10</v>
+      </c>
+      <c r="J39" s="85"/>
+    </row>
+    <row r="40" spans="1:10" s="4" customFormat="1" ht="12.75" outlineLevel="1">
+      <c r="A40" s="123" t="s">
+        <v>218</v>
+      </c>
+      <c r="B40" s="124"/>
+      <c r="C40" s="124"/>
+      <c r="D40" s="108"/>
+      <c r="E40" s="108"/>
+      <c r="F40" s="108"/>
+      <c r="G40" s="115"/>
+      <c r="H40" s="115"/>
+      <c r="I40" s="115"/>
+      <c r="J40" s="116"/>
+    </row>
+    <row r="41" spans="1:10" s="4" customFormat="1" ht="90.75" customHeight="1" outlineLevel="1">
+      <c r="A41" s="88" t="s">
+        <v>59</v>
+      </c>
+      <c r="B41" s="98" t="s">
+        <v>127</v>
+      </c>
+      <c r="C41" s="99" t="s">
+        <v>154</v>
+      </c>
+      <c r="D41" s="120" t="s">
+        <v>131</v>
+      </c>
+      <c r="E41" s="121"/>
+      <c r="F41" s="121"/>
+      <c r="G41" s="117"/>
+      <c r="H41" s="114">
+        <v>43749</v>
+      </c>
+      <c r="I41" s="87" t="s">
+        <v>39</v>
+      </c>
+      <c r="J41" s="85"/>
+    </row>
+    <row r="42" spans="1:10" s="4" customFormat="1" ht="63" customHeight="1" outlineLevel="1">
+      <c r="A42" s="88" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" s="98" t="s">
+        <v>127</v>
+      </c>
+      <c r="C42" s="99" t="s">
+        <v>129</v>
+      </c>
+      <c r="D42" s="120" t="s">
+        <v>128</v>
+      </c>
+      <c r="E42" s="121"/>
+      <c r="F42" s="121"/>
+      <c r="G42" s="117"/>
+      <c r="H42" s="114">
+        <v>43749</v>
+      </c>
+      <c r="I42" s="87" t="s">
+        <v>39</v>
+      </c>
+      <c r="J42" s="85"/>
+    </row>
+    <row r="43" spans="1:10" s="4" customFormat="1" ht="63" customHeight="1" outlineLevel="1">
+      <c r="A43" s="88" t="s">
+        <v>61</v>
+      </c>
+      <c r="B43" s="98" t="s">
+        <v>127</v>
+      </c>
+      <c r="C43" s="99" t="s">
+        <v>130</v>
+      </c>
+      <c r="D43" s="120" t="s">
+        <v>131</v>
+      </c>
+      <c r="E43" s="121"/>
+      <c r="F43" s="121"/>
+      <c r="G43" s="117"/>
+      <c r="H43" s="114">
+        <v>43749</v>
+      </c>
+      <c r="I43" s="87" t="s">
+        <v>39</v>
+      </c>
+      <c r="J43" s="85"/>
+    </row>
+    <row r="44" spans="1:10" s="4" customFormat="1" ht="63" customHeight="1" outlineLevel="1">
+      <c r="A44" s="88" t="s">
+        <v>62</v>
+      </c>
+      <c r="B44" s="98" t="s">
+        <v>127</v>
+      </c>
+      <c r="C44" s="99" t="s">
+        <v>136</v>
+      </c>
+      <c r="D44" s="120" t="s">
+        <v>131</v>
+      </c>
+      <c r="E44" s="121"/>
+      <c r="F44" s="121"/>
+      <c r="G44" s="117"/>
+      <c r="H44" s="114">
+        <v>43749</v>
+      </c>
+      <c r="I44" s="87" t="s">
+        <v>39</v>
+      </c>
+      <c r="J44" s="85"/>
+    </row>
+    <row r="45" spans="1:10" s="4" customFormat="1" ht="63" customHeight="1" outlineLevel="1">
+      <c r="A45" s="88" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" s="98" t="s">
+        <v>127</v>
+      </c>
+      <c r="C45" s="99" t="s">
+        <v>137</v>
+      </c>
+      <c r="D45" s="120" t="s">
+        <v>131</v>
+      </c>
+      <c r="E45" s="121"/>
+      <c r="F45" s="121"/>
+      <c r="G45" s="117"/>
+      <c r="H45" s="114">
+        <v>43749</v>
+      </c>
+      <c r="I45" s="87" t="s">
+        <v>39</v>
+      </c>
+      <c r="J45" s="85"/>
+    </row>
+    <row r="46" spans="1:10" s="4" customFormat="1" ht="63" customHeight="1" outlineLevel="1">
+      <c r="A46" s="88" t="s">
+        <v>64</v>
+      </c>
+      <c r="B46" s="98" t="s">
+        <v>127</v>
+      </c>
+      <c r="C46" s="99" t="s">
+        <v>138</v>
+      </c>
+      <c r="D46" s="120" t="s">
+        <v>131</v>
+      </c>
+      <c r="E46" s="121"/>
+      <c r="F46" s="121"/>
+      <c r="G46" s="117"/>
+      <c r="H46" s="114">
+        <v>43749</v>
+      </c>
+      <c r="I46" s="87" t="s">
+        <v>39</v>
+      </c>
+      <c r="J46" s="85"/>
+    </row>
+    <row r="47" spans="1:10" s="4" customFormat="1" ht="63" customHeight="1" outlineLevel="1">
+      <c r="A47" s="88" t="s">
+        <v>65</v>
+      </c>
+      <c r="B47" s="98" t="s">
+        <v>127</v>
+      </c>
+      <c r="C47" s="99" t="s">
+        <v>132</v>
+      </c>
+      <c r="D47" s="120" t="s">
+        <v>133</v>
+      </c>
+      <c r="E47" s="121"/>
+      <c r="F47" s="121"/>
+      <c r="G47" s="117"/>
+      <c r="H47" s="114">
+        <v>43749</v>
+      </c>
+      <c r="I47" s="87" t="s">
+        <v>10</v>
+      </c>
+      <c r="J47" s="85"/>
+    </row>
+    <row r="48" spans="1:10" s="4" customFormat="1" ht="27" customHeight="1" outlineLevel="1">
+      <c r="A48" s="88" t="s">
+        <v>66</v>
+      </c>
+      <c r="B48" s="98" t="s">
+        <v>127</v>
+      </c>
+      <c r="C48" s="99" t="s">
+        <v>134</v>
+      </c>
+      <c r="D48" s="120" t="s">
+        <v>135</v>
+      </c>
+      <c r="E48" s="121"/>
+      <c r="F48" s="121"/>
+      <c r="G48" s="117"/>
+      <c r="H48" s="114">
+        <v>43749</v>
+      </c>
+      <c r="I48" s="87" t="s">
+        <v>39</v>
+      </c>
+      <c r="J48" s="85"/>
+    </row>
+    <row r="49" spans="1:10" s="4" customFormat="1" ht="41.25" customHeight="1" outlineLevel="1">
+      <c r="A49" s="88" t="s">
+        <v>67</v>
+      </c>
+      <c r="B49" s="98" t="s">
+        <v>139</v>
+      </c>
+      <c r="C49" s="99" t="s">
+        <v>140</v>
+      </c>
+      <c r="D49" s="120" t="s">
+        <v>141</v>
+      </c>
+      <c r="E49" s="121"/>
+      <c r="F49" s="121"/>
+      <c r="G49" s="117"/>
+      <c r="H49" s="114">
+        <v>43749</v>
+      </c>
+      <c r="I49" s="87" t="s">
+        <v>39</v>
+      </c>
+      <c r="J49" s="85"/>
+    </row>
+    <row r="50" spans="1:10" s="4" customFormat="1" ht="39" customHeight="1" outlineLevel="1">
+      <c r="A50" s="88" t="s">
+        <v>68</v>
+      </c>
+      <c r="B50" s="98" t="s">
+        <v>139</v>
+      </c>
+      <c r="C50" s="99" t="s">
+        <v>142</v>
+      </c>
+      <c r="D50" s="120" t="s">
+        <v>141</v>
+      </c>
+      <c r="E50" s="121"/>
+      <c r="F50" s="121"/>
+      <c r="G50" s="117"/>
+      <c r="H50" s="114">
+        <v>43749</v>
+      </c>
+      <c r="I50" s="87" t="s">
+        <v>10</v>
+      </c>
+      <c r="J50" s="85"/>
+    </row>
+    <row r="51" spans="1:10" s="4" customFormat="1" ht="42.75" customHeight="1" outlineLevel="1">
+      <c r="A51" s="88" t="s">
+        <v>69</v>
+      </c>
+      <c r="B51" s="98" t="s">
+        <v>139</v>
+      </c>
+      <c r="C51" s="99" t="s">
+        <v>143</v>
+      </c>
+      <c r="D51" s="120" t="s">
+        <v>141</v>
+      </c>
+      <c r="E51" s="121"/>
+      <c r="F51" s="121"/>
+      <c r="G51" s="117"/>
+      <c r="H51" s="114">
+        <v>43749</v>
+      </c>
+      <c r="I51" s="87" t="s">
+        <v>10</v>
+      </c>
+      <c r="J51" s="85"/>
+    </row>
+    <row r="52" spans="1:10" s="171" customFormat="1" ht="42.75" customHeight="1" outlineLevel="1">
+      <c r="A52" s="163" t="s">
+        <v>150</v>
+      </c>
+      <c r="B52" s="164" t="s">
+        <v>139</v>
+      </c>
+      <c r="C52" s="165" t="s">
+        <v>144</v>
+      </c>
+      <c r="D52" s="166" t="s">
+        <v>141</v>
+      </c>
+      <c r="E52" s="167"/>
+      <c r="F52" s="167"/>
+      <c r="G52" s="168"/>
+      <c r="H52" s="159">
+        <v>43749</v>
+      </c>
+      <c r="I52" s="169" t="s">
+        <v>10</v>
+      </c>
+      <c r="J52" s="170"/>
+    </row>
+    <row r="53" spans="1:10" s="4" customFormat="1" ht="40.5" customHeight="1" outlineLevel="1">
+      <c r="A53" s="88" t="s">
+        <v>151</v>
+      </c>
+      <c r="B53" s="98" t="s">
+        <v>139</v>
+      </c>
+      <c r="C53" s="99" t="s">
+        <v>145</v>
+      </c>
+      <c r="D53" s="120" t="s">
+        <v>173</v>
+      </c>
+      <c r="E53" s="121"/>
+      <c r="F53" s="121"/>
+      <c r="G53" s="117"/>
+      <c r="H53" s="114">
+        <v>43749</v>
+      </c>
+      <c r="I53" s="87" t="s">
+        <v>39</v>
+      </c>
+      <c r="J53" s="85"/>
+    </row>
+    <row r="54" spans="1:10" s="4" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
+      <c r="A54" s="88" t="s">
+        <v>152</v>
+      </c>
+      <c r="B54" s="98" t="s">
+        <v>139</v>
+      </c>
+      <c r="C54" s="99" t="s">
+        <v>146</v>
+      </c>
+      <c r="D54" s="120" t="s">
+        <v>147</v>
+      </c>
+      <c r="E54" s="121"/>
+      <c r="F54" s="121"/>
+      <c r="G54" s="117"/>
+      <c r="H54" s="114">
+        <v>43749</v>
+      </c>
+      <c r="I54" s="87" t="s">
+        <v>39</v>
+      </c>
+      <c r="J54" s="85"/>
+    </row>
+    <row r="55" spans="1:10" s="4" customFormat="1" ht="42.75" customHeight="1" outlineLevel="1">
+      <c r="A55" s="88" t="s">
+        <v>153</v>
+      </c>
+      <c r="B55" s="98" t="s">
         <v>148</v>
       </c>
-      <c r="D34" s="148" t="s">
-        <v>12</v>
-      </c>
-      <c r="E34" s="143"/>
-      <c r="F34" s="143"/>
-      <c r="G34" s="86"/>
-      <c r="H34" s="100"/>
-      <c r="I34" s="87" t="s">
-        <v>49</v>
-      </c>
-      <c r="J34" s="85"/>
-    </row>
-    <row r="35" spans="1:14" s="4" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
-      <c r="A35" s="88" t="s">
-        <v>19</v>
-      </c>
-      <c r="B35" s="105" t="s">
-        <v>53</v>
-      </c>
-      <c r="C35" s="106" t="s">
+      <c r="C55" s="99" t="s">
         <v>149</v>
       </c>
-      <c r="D35" s="148" t="s">
-        <v>12</v>
-      </c>
-      <c r="E35" s="143"/>
-      <c r="F35" s="143"/>
-      <c r="G35" s="86"/>
-      <c r="H35" s="113"/>
-      <c r="I35" s="87" t="s">
-        <v>49</v>
-      </c>
-      <c r="J35" s="85"/>
-    </row>
-    <row r="36" spans="1:14" s="4" customFormat="1" ht="63.75" outlineLevel="1">
-      <c r="A36" s="88" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36" s="105" t="s">
-        <v>54</v>
-      </c>
-      <c r="C36" s="106" t="s">
-        <v>150</v>
-      </c>
-      <c r="D36" s="148" t="s">
-        <v>88</v>
-      </c>
-      <c r="E36" s="143"/>
-      <c r="F36" s="143"/>
-      <c r="G36" s="86"/>
-      <c r="H36" s="94"/>
-      <c r="I36" s="87"/>
-      <c r="J36" s="85"/>
-    </row>
-    <row r="37" spans="1:14" s="4" customFormat="1" ht="63.75" outlineLevel="1">
-      <c r="A37" s="88" t="s">
-        <v>66</v>
-      </c>
-      <c r="B37" s="105" t="s">
-        <v>54</v>
-      </c>
-      <c r="C37" s="106" t="s">
-        <v>151</v>
-      </c>
-      <c r="D37" s="148" t="s">
-        <v>89</v>
-      </c>
-      <c r="E37" s="143"/>
-      <c r="F37" s="143"/>
-      <c r="G37" s="86"/>
-      <c r="H37" s="100"/>
-      <c r="I37" s="87"/>
-      <c r="J37" s="85"/>
-    </row>
-    <row r="38" spans="1:14" s="4" customFormat="1" ht="12.75">
-      <c r="A38" s="139" t="s">
+      <c r="D55" s="120" t="s">
+        <v>124</v>
+      </c>
+      <c r="E55" s="121"/>
+      <c r="F55" s="121"/>
+      <c r="G55" s="117"/>
+      <c r="H55" s="114">
+        <v>43749</v>
+      </c>
+      <c r="I55" s="87" t="s">
+        <v>39</v>
+      </c>
+      <c r="J55" s="85"/>
+    </row>
+    <row r="56" spans="1:10" s="4" customFormat="1" ht="12.75" outlineLevel="1">
+      <c r="A56" s="123" t="s">
+        <v>219</v>
+      </c>
+      <c r="B56" s="124"/>
+      <c r="C56" s="124"/>
+      <c r="D56" s="108"/>
+      <c r="E56" s="108"/>
+      <c r="F56" s="108"/>
+      <c r="G56" s="115"/>
+      <c r="H56" s="115"/>
+      <c r="I56" s="115"/>
+      <c r="J56" s="116"/>
+    </row>
+    <row r="57" spans="1:10" s="4" customFormat="1" ht="93" customHeight="1" outlineLevel="1">
+      <c r="A57" s="88" t="s">
+        <v>181</v>
+      </c>
+      <c r="B57" s="98" t="s">
         <v>127</v>
       </c>
-      <c r="B38" s="140"/>
-      <c r="C38" s="140"/>
-      <c r="D38" s="140"/>
-      <c r="E38" s="140"/>
-      <c r="F38" s="140"/>
-      <c r="G38" s="140"/>
-      <c r="H38" s="140"/>
-      <c r="I38" s="140"/>
-      <c r="J38" s="141"/>
-    </row>
-    <row r="39" spans="1:14" s="93" customFormat="1" ht="228.75" customHeight="1" outlineLevel="1">
-      <c r="A39" s="88" t="s">
-        <v>67</v>
-      </c>
-      <c r="B39" s="98" t="s">
-        <v>55</v>
-      </c>
-      <c r="C39" s="92" t="s">
-        <v>152</v>
-      </c>
-      <c r="D39" s="142" t="s">
-        <v>80</v>
-      </c>
-      <c r="E39" s="143"/>
-      <c r="F39" s="143"/>
-      <c r="I39" s="114" t="s">
-        <v>49</v>
-      </c>
-      <c r="J39" s="94"/>
-    </row>
-    <row r="40" spans="1:14" s="93" customFormat="1" ht="207.75" customHeight="1" outlineLevel="1">
-      <c r="A40" s="88" t="s">
-        <v>68</v>
-      </c>
-      <c r="B40" s="98" t="s">
-        <v>93</v>
-      </c>
-      <c r="C40" s="92" t="s">
-        <v>153</v>
-      </c>
-      <c r="D40" s="142" t="s">
-        <v>92</v>
-      </c>
-      <c r="E40" s="143"/>
-      <c r="F40" s="143"/>
-      <c r="H40" s="112"/>
-      <c r="I40" s="114" t="s">
-        <v>49</v>
-      </c>
-      <c r="J40" s="94"/>
-    </row>
-    <row r="41" spans="1:14" s="93" customFormat="1" ht="255" customHeight="1" outlineLevel="1">
-      <c r="A41" s="88" t="s">
-        <v>69</v>
-      </c>
-      <c r="B41" s="98" t="s">
-        <v>90</v>
-      </c>
-      <c r="C41" s="92" t="s">
-        <v>154</v>
-      </c>
-      <c r="D41" s="142" t="s">
-        <v>91</v>
-      </c>
-      <c r="E41" s="143"/>
-      <c r="F41" s="143"/>
-      <c r="H41" s="112"/>
-      <c r="I41" s="110"/>
-      <c r="J41" s="111"/>
-      <c r="K41" s="109"/>
-      <c r="L41" s="109"/>
-      <c r="M41" s="109"/>
-      <c r="N41" s="109"/>
-    </row>
-    <row r="42" spans="1:14" s="93" customFormat="1" ht="276.75" customHeight="1" outlineLevel="1">
-      <c r="A42" s="88" t="s">
-        <v>70</v>
-      </c>
-      <c r="B42" s="98" t="s">
-        <v>56</v>
-      </c>
-      <c r="C42" s="92" t="s">
+      <c r="C57" s="99" t="s">
         <v>155</v>
       </c>
-      <c r="D42" s="142" t="s">
-        <v>9</v>
-      </c>
-      <c r="E42" s="143"/>
-      <c r="F42" s="143"/>
-      <c r="H42" s="101"/>
-      <c r="I42" s="103"/>
-      <c r="J42" s="94"/>
-    </row>
-    <row r="43" spans="1:14" s="4" customFormat="1" ht="12.75">
-      <c r="A43" s="139" t="s">
-        <v>58</v>
-      </c>
-      <c r="B43" s="140"/>
-      <c r="C43" s="140"/>
-      <c r="D43" s="140"/>
-      <c r="E43" s="140"/>
-      <c r="F43" s="140"/>
-      <c r="G43" s="140"/>
-      <c r="H43" s="140"/>
-      <c r="I43" s="140"/>
-      <c r="J43" s="141"/>
-    </row>
-    <row r="44" spans="1:14" s="4" customFormat="1" ht="12.75" outlineLevel="1">
-      <c r="A44" s="139" t="s">
+      <c r="D57" s="120" t="s">
+        <v>156</v>
+      </c>
+      <c r="E57" s="121"/>
+      <c r="F57" s="121"/>
+      <c r="G57" s="117"/>
+      <c r="H57" s="114">
+        <v>43749</v>
+      </c>
+      <c r="I57" s="87" t="s">
+        <v>39</v>
+      </c>
+      <c r="J57" s="85"/>
+    </row>
+    <row r="58" spans="1:10" s="4" customFormat="1" ht="93.75" customHeight="1" outlineLevel="1">
+      <c r="A58" s="88" t="s">
+        <v>182</v>
+      </c>
+      <c r="B58" s="98" t="s">
+        <v>127</v>
+      </c>
+      <c r="C58" s="99" t="s">
+        <v>157</v>
+      </c>
+      <c r="D58" s="120" t="s">
         <v>128</v>
       </c>
-      <c r="B44" s="140"/>
-      <c r="C44" s="140"/>
-      <c r="D44" s="140"/>
-      <c r="E44" s="140"/>
-      <c r="F44" s="140"/>
-      <c r="G44" s="140"/>
-      <c r="H44" s="140"/>
-      <c r="I44" s="140"/>
-      <c r="J44" s="141"/>
-    </row>
-    <row r="45" spans="1:14" s="93" customFormat="1" ht="70.5" customHeight="1" outlineLevel="1">
-      <c r="A45" s="88" t="s">
-        <v>71</v>
-      </c>
-      <c r="B45" s="98" t="s">
-        <v>73</v>
-      </c>
-      <c r="C45" s="92" t="s">
+      <c r="E58" s="121"/>
+      <c r="F58" s="121"/>
+      <c r="G58" s="117"/>
+      <c r="H58" s="114">
+        <v>43749</v>
+      </c>
+      <c r="I58" s="87" t="s">
+        <v>39</v>
+      </c>
+      <c r="J58" s="85"/>
+    </row>
+    <row r="59" spans="1:10" s="4" customFormat="1" ht="93" customHeight="1" outlineLevel="1">
+      <c r="A59" s="88" t="s">
+        <v>183</v>
+      </c>
+      <c r="B59" s="98" t="s">
+        <v>127</v>
+      </c>
+      <c r="C59" s="99" t="s">
+        <v>158</v>
+      </c>
+      <c r="D59" s="120" t="s">
         <v>156</v>
       </c>
-      <c r="D45" s="142" t="s">
-        <v>59</v>
-      </c>
-      <c r="E45" s="143"/>
-      <c r="F45" s="143"/>
-      <c r="H45" s="101"/>
-      <c r="I45" s="103" t="s">
-        <v>49</v>
-      </c>
-      <c r="J45" s="94"/>
-    </row>
-    <row r="46" spans="1:14" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
-      <c r="A46" s="88" t="s">
-        <v>72</v>
-      </c>
-      <c r="B46" s="98" t="s">
-        <v>74</v>
-      </c>
-      <c r="C46" s="92" t="s">
+      <c r="E59" s="121"/>
+      <c r="F59" s="121"/>
+      <c r="G59" s="117"/>
+      <c r="H59" s="114">
+        <v>43749</v>
+      </c>
+      <c r="I59" s="87" t="s">
+        <v>39</v>
+      </c>
+      <c r="J59" s="85"/>
+    </row>
+    <row r="60" spans="1:10" s="4" customFormat="1" ht="91.5" customHeight="1" outlineLevel="1">
+      <c r="A60" s="88" t="s">
+        <v>184</v>
+      </c>
+      <c r="B60" s="98" t="s">
+        <v>127</v>
+      </c>
+      <c r="C60" s="99" t="s">
+        <v>159</v>
+      </c>
+      <c r="D60" s="120" t="s">
         <v>156</v>
       </c>
-      <c r="D46" s="142" t="s">
-        <v>60</v>
-      </c>
-      <c r="E46" s="143"/>
-      <c r="F46" s="143"/>
-      <c r="H46" s="101"/>
-      <c r="I46" s="103" t="s">
-        <v>49</v>
-      </c>
-      <c r="J46" s="94"/>
-    </row>
-    <row r="47" spans="1:14" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
-      <c r="A47" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" s="98" t="s">
-        <v>75</v>
-      </c>
-      <c r="C47" s="92" t="s">
+      <c r="E60" s="121"/>
+      <c r="F60" s="121"/>
+      <c r="G60" s="117"/>
+      <c r="H60" s="114">
+        <v>43749</v>
+      </c>
+      <c r="I60" s="87" t="s">
+        <v>39</v>
+      </c>
+      <c r="J60" s="85"/>
+    </row>
+    <row r="61" spans="1:10" s="4" customFormat="1" ht="93.75" customHeight="1" outlineLevel="1">
+      <c r="A61" s="88" t="s">
+        <v>185</v>
+      </c>
+      <c r="B61" s="98" t="s">
+        <v>127</v>
+      </c>
+      <c r="C61" s="99" t="s">
+        <v>160</v>
+      </c>
+      <c r="D61" s="120" t="s">
         <v>156</v>
       </c>
-      <c r="D47" s="142" t="s">
-        <v>61</v>
-      </c>
-      <c r="E47" s="143"/>
-      <c r="F47" s="143"/>
-      <c r="H47" s="101"/>
-      <c r="I47" s="103" t="s">
-        <v>49</v>
-      </c>
-      <c r="J47" s="94"/>
-    </row>
-    <row r="48" spans="1:14" s="93" customFormat="1" ht="59.25" customHeight="1" outlineLevel="1">
-      <c r="A48" s="88" t="s">
-        <v>7</v>
-      </c>
-      <c r="B48" s="98" t="s">
-        <v>76</v>
-      </c>
-      <c r="C48" s="92" t="s">
+      <c r="E61" s="121"/>
+      <c r="F61" s="121"/>
+      <c r="G61" s="117"/>
+      <c r="H61" s="114">
+        <v>43749</v>
+      </c>
+      <c r="I61" s="87" t="s">
+        <v>39</v>
+      </c>
+      <c r="J61" s="85"/>
+    </row>
+    <row r="62" spans="1:10" s="4" customFormat="1" ht="93.75" customHeight="1" outlineLevel="1">
+      <c r="A62" s="88" t="s">
+        <v>186</v>
+      </c>
+      <c r="B62" s="98" t="s">
+        <v>127</v>
+      </c>
+      <c r="C62" s="99" t="s">
+        <v>161</v>
+      </c>
+      <c r="D62" s="120" t="s">
         <v>156</v>
       </c>
-      <c r="D48" s="142" t="s">
-        <v>62</v>
-      </c>
-      <c r="E48" s="143"/>
-      <c r="F48" s="143"/>
-      <c r="H48" s="101"/>
-      <c r="I48" s="103" t="s">
-        <v>49</v>
-      </c>
-      <c r="J48" s="94"/>
-    </row>
-    <row r="49" spans="1:10" s="93" customFormat="1" ht="56.25" customHeight="1" outlineLevel="1">
-      <c r="A49" s="88" t="s">
-        <v>8</v>
-      </c>
-      <c r="B49" s="98" t="s">
-        <v>77</v>
-      </c>
-      <c r="C49" s="92" t="s">
+      <c r="E62" s="121"/>
+      <c r="F62" s="121"/>
+      <c r="G62" s="117"/>
+      <c r="H62" s="114">
+        <v>43749</v>
+      </c>
+      <c r="I62" s="87" t="s">
+        <v>39</v>
+      </c>
+      <c r="J62" s="85"/>
+    </row>
+    <row r="63" spans="1:10" s="4" customFormat="1" ht="93.75" customHeight="1" outlineLevel="1">
+      <c r="A63" s="88" t="s">
+        <v>187</v>
+      </c>
+      <c r="B63" s="98" t="s">
+        <v>127</v>
+      </c>
+      <c r="C63" s="99" t="s">
+        <v>162</v>
+      </c>
+      <c r="D63" s="120" t="s">
         <v>156</v>
       </c>
-      <c r="D49" s="142" t="s">
-        <v>63</v>
-      </c>
-      <c r="E49" s="143"/>
-      <c r="F49" s="143"/>
-      <c r="H49" s="101"/>
-      <c r="I49" s="103" t="s">
-        <v>49</v>
-      </c>
-      <c r="J49" s="94"/>
-    </row>
-    <row r="50" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
-      <c r="A50" s="88" t="s">
-        <v>82</v>
-      </c>
-      <c r="B50" s="98" t="s">
-        <v>79</v>
-      </c>
-      <c r="C50" s="92" t="s">
+      <c r="E63" s="121"/>
+      <c r="F63" s="121"/>
+      <c r="G63" s="117"/>
+      <c r="H63" s="114">
+        <v>43749</v>
+      </c>
+      <c r="I63" s="87" t="s">
+        <v>39</v>
+      </c>
+      <c r="J63" s="85"/>
+    </row>
+    <row r="64" spans="1:10" s="4" customFormat="1" ht="93.75" customHeight="1" outlineLevel="1">
+      <c r="A64" s="88" t="s">
+        <v>188</v>
+      </c>
+      <c r="B64" s="98" t="s">
+        <v>127</v>
+      </c>
+      <c r="C64" s="99" t="s">
+        <v>163</v>
+      </c>
+      <c r="D64" s="120" t="s">
         <v>156</v>
       </c>
-      <c r="D50" s="142" t="s">
-        <v>65</v>
-      </c>
-      <c r="E50" s="143"/>
-      <c r="F50" s="143"/>
-      <c r="H50" s="101"/>
-      <c r="I50" s="103" t="s">
-        <v>49</v>
-      </c>
-      <c r="J50" s="94"/>
-    </row>
-    <row r="51" spans="1:10" s="93" customFormat="1" ht="62.25" customHeight="1" outlineLevel="1">
-      <c r="A51" s="88" t="s">
-        <v>83</v>
-      </c>
-      <c r="B51" s="98" t="s">
-        <v>78</v>
-      </c>
-      <c r="C51" s="92" t="s">
+      <c r="E64" s="121"/>
+      <c r="F64" s="121"/>
+      <c r="G64" s="117"/>
+      <c r="H64" s="114">
+        <v>43749</v>
+      </c>
+      <c r="I64" s="87" t="s">
+        <v>39</v>
+      </c>
+      <c r="J64" s="85"/>
+    </row>
+    <row r="65" spans="1:10" s="4" customFormat="1" ht="93.75" customHeight="1" outlineLevel="1">
+      <c r="A65" s="88" t="s">
+        <v>189</v>
+      </c>
+      <c r="B65" s="98" t="s">
+        <v>127</v>
+      </c>
+      <c r="C65" s="99" t="s">
+        <v>164</v>
+      </c>
+      <c r="D65" s="120" t="s">
         <v>156</v>
       </c>
-      <c r="D51" s="142" t="s">
-        <v>64</v>
-      </c>
-      <c r="E51" s="143"/>
-      <c r="F51" s="143"/>
-      <c r="H51" s="101"/>
-      <c r="I51" s="103" t="s">
-        <v>49</v>
-      </c>
-      <c r="J51" s="94"/>
-    </row>
-    <row r="52" spans="1:10" s="4" customFormat="1" ht="12.75" outlineLevel="1">
-      <c r="A52" s="139" t="s">
-        <v>119</v>
-      </c>
-      <c r="B52" s="140"/>
-      <c r="C52" s="140"/>
-      <c r="D52" s="140"/>
-      <c r="E52" s="140"/>
-      <c r="F52" s="140"/>
-      <c r="G52" s="140"/>
-      <c r="H52" s="140"/>
-      <c r="I52" s="140"/>
-      <c r="J52" s="141"/>
-    </row>
-    <row r="53" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
-      <c r="A53" s="88" t="s">
-        <v>84</v>
-      </c>
-      <c r="B53" s="98" t="s">
-        <v>94</v>
-      </c>
-      <c r="C53" s="92" t="s">
-        <v>157</v>
-      </c>
-      <c r="D53" s="142" t="s">
-        <v>95</v>
-      </c>
-      <c r="E53" s="143"/>
-      <c r="F53" s="143"/>
-      <c r="H53" s="101"/>
-      <c r="I53" s="103" t="s">
-        <v>49</v>
-      </c>
-      <c r="J53" s="94"/>
-    </row>
-    <row r="54" spans="1:10" s="4" customFormat="1" ht="12.75">
-      <c r="A54" s="139" t="s">
-        <v>120</v>
-      </c>
-      <c r="B54" s="140"/>
-      <c r="C54" s="140"/>
-      <c r="D54" s="140"/>
-      <c r="E54" s="140"/>
-      <c r="F54" s="140"/>
-      <c r="G54" s="140"/>
-      <c r="H54" s="140"/>
-      <c r="I54" s="140"/>
-      <c r="J54" s="141"/>
-    </row>
-    <row r="55" spans="1:10" s="93" customFormat="1" ht="101.25" customHeight="1" outlineLevel="1">
-      <c r="A55" s="88" t="s">
-        <v>85</v>
-      </c>
-      <c r="B55" s="98" t="s">
-        <v>101</v>
-      </c>
-      <c r="C55" s="92" t="s">
-        <v>158</v>
-      </c>
-      <c r="D55" s="142" t="s">
-        <v>99</v>
-      </c>
-      <c r="E55" s="143"/>
-      <c r="F55" s="143"/>
-      <c r="H55" s="101" t="s">
-        <v>129</v>
-      </c>
-      <c r="I55" s="116" t="s">
-        <v>20</v>
-      </c>
-      <c r="J55" s="94" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" s="93" customFormat="1" ht="96" customHeight="1" outlineLevel="1">
-      <c r="A56" s="88" t="s">
-        <v>108</v>
-      </c>
-      <c r="B56" s="98" t="s">
-        <v>102</v>
-      </c>
-      <c r="C56" s="92" t="s">
-        <v>159</v>
-      </c>
-      <c r="D56" s="142" t="s">
-        <v>100</v>
-      </c>
-      <c r="E56" s="143"/>
-      <c r="F56" s="143"/>
-      <c r="H56" s="101" t="s">
-        <v>129</v>
-      </c>
-      <c r="I56" s="103" t="s">
-        <v>49</v>
-      </c>
-      <c r="J56" s="94" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" s="93" customFormat="1" ht="96" customHeight="1" outlineLevel="1">
-      <c r="A57" s="88" t="s">
-        <v>109</v>
-      </c>
-      <c r="B57" s="98" t="s">
+      <c r="E65" s="121"/>
+      <c r="F65" s="121"/>
+      <c r="G65" s="117"/>
+      <c r="H65" s="114">
+        <v>43749</v>
+      </c>
+      <c r="I65" s="87" t="s">
+        <v>39</v>
+      </c>
+      <c r="J65" s="85"/>
+    </row>
+    <row r="66" spans="1:10" s="4" customFormat="1" ht="93.75" customHeight="1" outlineLevel="1">
+      <c r="A66" s="88" t="s">
+        <v>190</v>
+      </c>
+      <c r="B66" s="98" t="s">
+        <v>127</v>
+      </c>
+      <c r="C66" s="99" t="s">
+        <v>165</v>
+      </c>
+      <c r="D66" s="120" t="s">
+        <v>156</v>
+      </c>
+      <c r="E66" s="121"/>
+      <c r="F66" s="121"/>
+      <c r="G66" s="117"/>
+      <c r="H66" s="114">
+        <v>43749</v>
+      </c>
+      <c r="I66" s="87" t="s">
+        <v>39</v>
+      </c>
+      <c r="J66" s="85"/>
+    </row>
+    <row r="67" spans="1:10" s="4" customFormat="1" ht="27" customHeight="1" outlineLevel="1">
+      <c r="A67" s="88" t="s">
+        <v>191</v>
+      </c>
+      <c r="B67" s="98" t="s">
+        <v>127</v>
+      </c>
+      <c r="C67" s="99" t="s">
+        <v>166</v>
+      </c>
+      <c r="D67" s="120" t="s">
+        <v>135</v>
+      </c>
+      <c r="E67" s="121"/>
+      <c r="F67" s="121"/>
+      <c r="G67" s="117"/>
+      <c r="H67" s="114">
+        <v>43749</v>
+      </c>
+      <c r="I67" s="87" t="s">
+        <v>39</v>
+      </c>
+      <c r="J67" s="85"/>
+    </row>
+    <row r="68" spans="1:10" s="162" customFormat="1" ht="39" customHeight="1" outlineLevel="1">
+      <c r="A68" s="153" t="s">
+        <v>192</v>
+      </c>
+      <c r="B68" s="154" t="s">
+        <v>207</v>
+      </c>
+      <c r="C68" s="155" t="s">
+        <v>167</v>
+      </c>
+      <c r="D68" s="156" t="s">
+        <v>208</v>
+      </c>
+      <c r="E68" s="157"/>
+      <c r="F68" s="157"/>
+      <c r="G68" s="158"/>
+      <c r="H68" s="159">
+        <v>43749</v>
+      </c>
+      <c r="I68" s="160" t="s">
+        <v>10</v>
+      </c>
+      <c r="J68" s="161"/>
+    </row>
+    <row r="69" spans="1:10" s="4" customFormat="1" ht="39" customHeight="1" outlineLevel="1">
+      <c r="A69" s="88" t="s">
+        <v>193</v>
+      </c>
+      <c r="B69" s="98" t="s">
         <v>139</v>
       </c>
-      <c r="C57" s="92" t="s">
-        <v>160</v>
-      </c>
-      <c r="D57" s="142" t="s">
-        <v>140</v>
-      </c>
-      <c r="E57" s="143"/>
-      <c r="F57" s="143"/>
-      <c r="H57" s="101" t="s">
-        <v>129</v>
-      </c>
-      <c r="I57" s="103" t="s">
-        <v>49</v>
-      </c>
-      <c r="J57" s="94" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" s="4" customFormat="1" ht="12.75">
-      <c r="A58" s="139" t="s">
-        <v>121</v>
-      </c>
-      <c r="B58" s="140"/>
-      <c r="C58" s="140"/>
-      <c r="D58" s="140"/>
-      <c r="E58" s="140"/>
-      <c r="F58" s="140"/>
-      <c r="G58" s="140"/>
-      <c r="H58" s="140"/>
-      <c r="I58" s="140"/>
-      <c r="J58" s="141"/>
-    </row>
-    <row r="59" spans="1:10" s="93" customFormat="1" ht="27.75" customHeight="1" outlineLevel="1">
-      <c r="A59" s="145" t="s">
-        <v>1</v>
-      </c>
-      <c r="B59" s="146"/>
-      <c r="C59" s="147"/>
-      <c r="D59" s="142"/>
-      <c r="E59" s="143"/>
-      <c r="F59" s="143"/>
-      <c r="H59" s="101"/>
-      <c r="I59" s="103"/>
-      <c r="J59" s="94"/>
-    </row>
-    <row r="60" spans="1:10" s="93" customFormat="1" ht="27.75" customHeight="1" outlineLevel="1">
-      <c r="A60" s="88" t="s">
-        <v>110</v>
-      </c>
-      <c r="B60" s="98" t="s">
-        <v>3</v>
-      </c>
-      <c r="C60" s="92" t="s">
-        <v>2</v>
-      </c>
-      <c r="D60" s="142" t="s">
-        <v>6</v>
-      </c>
-      <c r="E60" s="143"/>
-      <c r="F60" s="143"/>
-      <c r="H60" s="101"/>
-      <c r="I60" s="103" t="s">
-        <v>49</v>
-      </c>
-      <c r="J60" s="94"/>
-    </row>
-    <row r="61" spans="1:10" s="93" customFormat="1" ht="81" customHeight="1" outlineLevel="1">
-      <c r="A61" s="88" t="s">
-        <v>111</v>
-      </c>
-      <c r="B61" s="98" t="s">
-        <v>4</v>
-      </c>
-      <c r="C61" s="92" t="s">
-        <v>5</v>
-      </c>
-      <c r="D61" s="144" t="s">
+      <c r="C69" s="99" t="s">
+        <v>168</v>
+      </c>
+      <c r="D69" s="120" t="s">
+        <v>141</v>
+      </c>
+      <c r="E69" s="121"/>
+      <c r="F69" s="121"/>
+      <c r="G69" s="117"/>
+      <c r="H69" s="114">
+        <v>43749</v>
+      </c>
+      <c r="I69" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="E61" s="143"/>
-      <c r="F61" s="143"/>
-      <c r="H61" s="101"/>
-      <c r="I61" s="103" t="s">
-        <v>49</v>
-      </c>
-      <c r="J61" s="94"/>
-    </row>
-    <row r="62" spans="1:10" s="4" customFormat="1" ht="12.75">
-      <c r="A62" s="139" t="s">
-        <v>122</v>
-      </c>
-      <c r="B62" s="140"/>
-      <c r="C62" s="140"/>
-      <c r="D62" s="140"/>
-      <c r="E62" s="140"/>
-      <c r="F62" s="140"/>
-      <c r="G62" s="140"/>
-      <c r="H62" s="140"/>
-      <c r="I62" s="140"/>
-      <c r="J62" s="141"/>
-    </row>
-    <row r="63" spans="1:10" s="4" customFormat="1" ht="12.75" outlineLevel="1">
-      <c r="A63" s="139" t="s">
-        <v>123</v>
-      </c>
-      <c r="B63" s="140"/>
-      <c r="C63" s="140"/>
-      <c r="D63" s="140"/>
-      <c r="E63" s="140"/>
-      <c r="F63" s="140"/>
-      <c r="G63" s="140"/>
-      <c r="H63" s="140"/>
-      <c r="I63" s="140"/>
-      <c r="J63" s="141"/>
-    </row>
-    <row r="64" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
-      <c r="A64" s="88" t="s">
-        <v>112</v>
-      </c>
-      <c r="B64" s="98" t="s">
-        <v>96</v>
-      </c>
-      <c r="C64" s="92" t="s">
-        <v>161</v>
-      </c>
-      <c r="D64" s="142" t="s">
-        <v>97</v>
-      </c>
-      <c r="E64" s="143"/>
-      <c r="F64" s="143"/>
-      <c r="H64" s="101"/>
-      <c r="I64" s="103" t="s">
-        <v>49</v>
-      </c>
-      <c r="J64" s="94"/>
-    </row>
-    <row r="65" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
-      <c r="A65" s="88" t="s">
-        <v>113</v>
-      </c>
-      <c r="B65" s="98" t="s">
-        <v>98</v>
-      </c>
-      <c r="C65" s="92" t="s">
-        <v>162</v>
-      </c>
-      <c r="D65" s="142" t="s">
-        <v>103</v>
-      </c>
-      <c r="E65" s="143"/>
-      <c r="F65" s="143"/>
-      <c r="H65" s="101"/>
-      <c r="I65" s="103" t="s">
-        <v>49</v>
-      </c>
-      <c r="J65" s="94"/>
-    </row>
-    <row r="66" spans="1:10" s="4" customFormat="1" ht="12.75" outlineLevel="1">
-      <c r="A66" s="139" t="s">
+      <c r="J69" s="85"/>
+    </row>
+    <row r="70" spans="1:10" s="4" customFormat="1" ht="42.75" customHeight="1" outlineLevel="1">
+      <c r="A70" s="88" t="s">
+        <v>194</v>
+      </c>
+      <c r="B70" s="98" t="s">
+        <v>139</v>
+      </c>
+      <c r="C70" s="99" t="s">
+        <v>169</v>
+      </c>
+      <c r="D70" s="120" t="s">
+        <v>141</v>
+      </c>
+      <c r="E70" s="121"/>
+      <c r="F70" s="121"/>
+      <c r="G70" s="117"/>
+      <c r="H70" s="114">
+        <v>43749</v>
+      </c>
+      <c r="I70" s="87" t="s">
+        <v>10</v>
+      </c>
+      <c r="J70" s="85"/>
+    </row>
+    <row r="71" spans="1:10" s="4" customFormat="1" ht="42.75" customHeight="1" outlineLevel="1">
+      <c r="A71" s="88" t="s">
+        <v>195</v>
+      </c>
+      <c r="B71" s="98" t="s">
+        <v>139</v>
+      </c>
+      <c r="C71" s="99" t="s">
+        <v>170</v>
+      </c>
+      <c r="D71" s="120" t="s">
+        <v>141</v>
+      </c>
+      <c r="E71" s="121"/>
+      <c r="F71" s="121"/>
+      <c r="G71" s="117"/>
+      <c r="H71" s="114">
+        <v>43749</v>
+      </c>
+      <c r="I71" s="87" t="s">
+        <v>10</v>
+      </c>
+      <c r="J71" s="85"/>
+    </row>
+    <row r="72" spans="1:10" s="4" customFormat="1" ht="42.75" customHeight="1" outlineLevel="1">
+      <c r="A72" s="88" t="s">
+        <v>196</v>
+      </c>
+      <c r="B72" s="98" t="s">
+        <v>139</v>
+      </c>
+      <c r="C72" s="99" t="s">
+        <v>171</v>
+      </c>
+      <c r="D72" s="120" t="s">
+        <v>141</v>
+      </c>
+      <c r="E72" s="121"/>
+      <c r="F72" s="121"/>
+      <c r="G72" s="117"/>
+      <c r="H72" s="114">
+        <v>43749</v>
+      </c>
+      <c r="I72" s="87" t="s">
+        <v>10</v>
+      </c>
+      <c r="J72" s="85"/>
+    </row>
+    <row r="73" spans="1:10" s="4" customFormat="1" ht="42.75" customHeight="1" outlineLevel="1">
+      <c r="A73" s="88" t="s">
+        <v>197</v>
+      </c>
+      <c r="B73" s="98" t="s">
+        <v>139</v>
+      </c>
+      <c r="C73" s="99" t="s">
+        <v>172</v>
+      </c>
+      <c r="D73" s="120" t="s">
+        <v>141</v>
+      </c>
+      <c r="E73" s="121"/>
+      <c r="F73" s="121"/>
+      <c r="G73" s="117"/>
+      <c r="H73" s="114">
+        <v>43749</v>
+      </c>
+      <c r="I73" s="87" t="s">
+        <v>10</v>
+      </c>
+      <c r="J73" s="85"/>
+    </row>
+    <row r="74" spans="1:10" s="4" customFormat="1" ht="39" customHeight="1" outlineLevel="1">
+      <c r="A74" s="88" t="s">
+        <v>198</v>
+      </c>
+      <c r="B74" s="98" t="s">
+        <v>139</v>
+      </c>
+      <c r="C74" s="99" t="s">
+        <v>174</v>
+      </c>
+      <c r="D74" s="120" t="s">
+        <v>173</v>
+      </c>
+      <c r="E74" s="121"/>
+      <c r="F74" s="121"/>
+      <c r="G74" s="117"/>
+      <c r="H74" s="114">
+        <v>43749</v>
+      </c>
+      <c r="I74" s="87" t="s">
+        <v>39</v>
+      </c>
+      <c r="J74" s="85"/>
+    </row>
+    <row r="75" spans="1:10" s="4" customFormat="1" ht="39" customHeight="1" outlineLevel="1">
+      <c r="A75" s="88" t="s">
+        <v>199</v>
+      </c>
+      <c r="B75" s="98" t="s">
+        <v>139</v>
+      </c>
+      <c r="C75" s="99" t="s">
+        <v>175</v>
+      </c>
+      <c r="D75" s="120" t="s">
+        <v>147</v>
+      </c>
+      <c r="E75" s="121"/>
+      <c r="F75" s="121"/>
+      <c r="G75" s="117"/>
+      <c r="H75" s="114">
+        <v>43749</v>
+      </c>
+      <c r="I75" s="87" t="s">
+        <v>39</v>
+      </c>
+      <c r="J75" s="85"/>
+    </row>
+    <row r="76" spans="1:10" s="4" customFormat="1" ht="42.75" customHeight="1" outlineLevel="1">
+      <c r="A76" s="88" t="s">
+        <v>200</v>
+      </c>
+      <c r="B76" s="98" t="s">
+        <v>139</v>
+      </c>
+      <c r="C76" s="99" t="s">
+        <v>176</v>
+      </c>
+      <c r="D76" s="120" t="s">
+        <v>147</v>
+      </c>
+      <c r="E76" s="121"/>
+      <c r="F76" s="121"/>
+      <c r="G76" s="117"/>
+      <c r="H76" s="114">
+        <v>43749</v>
+      </c>
+      <c r="I76" s="87" t="s">
+        <v>39</v>
+      </c>
+      <c r="J76" s="85"/>
+    </row>
+    <row r="77" spans="1:10" s="4" customFormat="1" ht="42.75" customHeight="1" outlineLevel="1">
+      <c r="A77" s="88" t="s">
+        <v>201</v>
+      </c>
+      <c r="B77" s="98" t="s">
+        <v>139</v>
+      </c>
+      <c r="C77" s="99" t="s">
+        <v>177</v>
+      </c>
+      <c r="D77" s="120" t="s">
+        <v>147</v>
+      </c>
+      <c r="E77" s="121"/>
+      <c r="F77" s="121"/>
+      <c r="G77" s="117"/>
+      <c r="H77" s="114">
+        <v>43749</v>
+      </c>
+      <c r="I77" s="87" t="s">
+        <v>39</v>
+      </c>
+      <c r="J77" s="85"/>
+    </row>
+    <row r="78" spans="1:10" s="4" customFormat="1" ht="42.75" customHeight="1" outlineLevel="1">
+      <c r="A78" s="88" t="s">
+        <v>202</v>
+      </c>
+      <c r="B78" s="98" t="s">
+        <v>139</v>
+      </c>
+      <c r="C78" s="99" t="s">
+        <v>178</v>
+      </c>
+      <c r="D78" s="120" t="s">
+        <v>147</v>
+      </c>
+      <c r="E78" s="121"/>
+      <c r="F78" s="121"/>
+      <c r="G78" s="117"/>
+      <c r="H78" s="114">
+        <v>43749</v>
+      </c>
+      <c r="I78" s="87" t="s">
+        <v>39</v>
+      </c>
+      <c r="J78" s="85"/>
+    </row>
+    <row r="79" spans="1:10" s="4" customFormat="1" ht="42.75" customHeight="1" outlineLevel="1">
+      <c r="A79" s="88" t="s">
+        <v>203</v>
+      </c>
+      <c r="B79" s="98" t="s">
+        <v>139</v>
+      </c>
+      <c r="C79" s="99" t="s">
+        <v>179</v>
+      </c>
+      <c r="D79" s="120" t="s">
+        <v>147</v>
+      </c>
+      <c r="E79" s="121"/>
+      <c r="F79" s="121"/>
+      <c r="G79" s="117"/>
+      <c r="H79" s="114">
+        <v>43749</v>
+      </c>
+      <c r="I79" s="87" t="s">
+        <v>39</v>
+      </c>
+      <c r="J79" s="85"/>
+    </row>
+    <row r="80" spans="1:10" s="4" customFormat="1" ht="30.75" customHeight="1" outlineLevel="1">
+      <c r="A80" s="88" t="s">
+        <v>204</v>
+      </c>
+      <c r="B80" s="98" t="s">
+        <v>148</v>
+      </c>
+      <c r="C80" s="99" t="s">
+        <v>180</v>
+      </c>
+      <c r="D80" s="120" t="s">
         <v>124</v>
       </c>
-      <c r="B66" s="140"/>
-      <c r="C66" s="140"/>
-      <c r="D66" s="140"/>
-      <c r="E66" s="140"/>
-      <c r="F66" s="140"/>
-      <c r="G66" s="140"/>
-      <c r="H66" s="140"/>
-      <c r="I66" s="140"/>
-      <c r="J66" s="141"/>
-    </row>
-    <row r="67" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
-      <c r="A67" s="88" t="s">
-        <v>114</v>
-      </c>
-      <c r="B67" s="98" t="s">
-        <v>96</v>
-      </c>
-      <c r="C67" s="92" t="s">
-        <v>163</v>
-      </c>
-      <c r="D67" s="142" t="s">
-        <v>104</v>
-      </c>
-      <c r="E67" s="143"/>
-      <c r="F67" s="143"/>
-      <c r="H67" s="101"/>
-      <c r="I67" s="103"/>
-      <c r="J67" s="94"/>
-    </row>
-    <row r="68" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
-      <c r="A68" s="88" t="s">
-        <v>115</v>
-      </c>
-      <c r="B68" s="98" t="s">
-        <v>98</v>
-      </c>
-      <c r="C68" s="92" t="s">
-        <v>164</v>
-      </c>
-      <c r="D68" s="142" t="s">
-        <v>105</v>
-      </c>
-      <c r="E68" s="143"/>
-      <c r="F68" s="143"/>
-      <c r="H68" s="101"/>
-      <c r="I68" s="103"/>
-      <c r="J68" s="94"/>
-    </row>
-    <row r="69" spans="1:10" s="4" customFormat="1" ht="12.75" outlineLevel="1">
-      <c r="A69" s="139" t="s">
-        <v>125</v>
-      </c>
-      <c r="B69" s="140"/>
-      <c r="C69" s="140"/>
-      <c r="D69" s="140"/>
-      <c r="E69" s="140"/>
-      <c r="F69" s="140"/>
-      <c r="G69" s="140"/>
-      <c r="H69" s="140"/>
-      <c r="I69" s="140"/>
-      <c r="J69" s="141"/>
-    </row>
-    <row r="70" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
-      <c r="A70" s="88" t="s">
-        <v>116</v>
-      </c>
-      <c r="B70" s="98" t="s">
-        <v>96</v>
-      </c>
-      <c r="C70" s="92" t="s">
-        <v>165</v>
-      </c>
-      <c r="D70" s="142" t="s">
-        <v>130</v>
-      </c>
-      <c r="E70" s="143"/>
-      <c r="F70" s="143"/>
-      <c r="H70" s="101"/>
-      <c r="I70" s="103" t="s">
-        <v>49</v>
-      </c>
-      <c r="J70" s="94"/>
-    </row>
-    <row r="71" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
-      <c r="A71" s="88" t="s">
-        <v>117</v>
-      </c>
-      <c r="B71" s="98" t="s">
-        <v>98</v>
-      </c>
-      <c r="C71" s="92" t="s">
-        <v>166</v>
-      </c>
-      <c r="D71" s="142" t="s">
-        <v>103</v>
-      </c>
-      <c r="E71" s="143"/>
-      <c r="F71" s="143"/>
-      <c r="H71" s="101"/>
-      <c r="I71" s="103" t="s">
-        <v>49</v>
-      </c>
-      <c r="J71" s="94"/>
-    </row>
-    <row r="72" spans="1:10" s="4" customFormat="1" ht="12.75" outlineLevel="1">
-      <c r="A72" s="139" t="s">
-        <v>126</v>
-      </c>
-      <c r="B72" s="140"/>
-      <c r="C72" s="140"/>
-      <c r="D72" s="140"/>
-      <c r="E72" s="140"/>
-      <c r="F72" s="140"/>
-      <c r="G72" s="140"/>
-      <c r="H72" s="140"/>
-      <c r="I72" s="140"/>
-      <c r="J72" s="141"/>
-    </row>
-    <row r="73" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
-      <c r="A73" s="88" t="s">
-        <v>118</v>
-      </c>
-      <c r="B73" s="98" t="s">
-        <v>96</v>
-      </c>
-      <c r="C73" s="92" t="s">
-        <v>167</v>
-      </c>
-      <c r="D73" s="142" t="s">
-        <v>106</v>
-      </c>
-      <c r="E73" s="143"/>
-      <c r="F73" s="143"/>
-      <c r="H73" s="101"/>
-      <c r="I73" s="103" t="s">
-        <v>49</v>
-      </c>
-      <c r="J73" s="94"/>
-    </row>
-    <row r="74" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
-      <c r="A74" s="88" t="s">
-        <v>137</v>
-      </c>
-      <c r="B74" s="98" t="s">
-        <v>98</v>
-      </c>
-      <c r="C74" s="92" t="s">
-        <v>168</v>
-      </c>
-      <c r="D74" s="142" t="s">
-        <v>107</v>
-      </c>
-      <c r="E74" s="143"/>
-      <c r="F74" s="143"/>
-      <c r="H74" s="101"/>
-      <c r="I74" s="103" t="s">
-        <v>49</v>
-      </c>
-      <c r="J74" s="94"/>
-    </row>
-    <row r="75" spans="1:10" s="4" customFormat="1" ht="12.75">
-      <c r="A75" s="139" t="s">
-        <v>143</v>
-      </c>
-      <c r="B75" s="140"/>
-      <c r="C75" s="140"/>
-      <c r="D75" s="140"/>
-      <c r="E75" s="140"/>
-      <c r="F75" s="140"/>
-      <c r="G75" s="140"/>
-      <c r="H75" s="140"/>
-      <c r="I75" s="140"/>
-      <c r="J75" s="141"/>
-    </row>
-    <row r="76" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
-      <c r="A76" s="88" t="s">
-        <v>138</v>
-      </c>
-      <c r="B76" s="98" t="s">
-        <v>133</v>
-      </c>
-      <c r="C76" s="92" t="s">
-        <v>169</v>
-      </c>
-      <c r="D76" s="142" t="s">
-        <v>135</v>
-      </c>
-      <c r="E76" s="143"/>
-      <c r="F76" s="143"/>
-      <c r="H76" s="101"/>
-      <c r="I76" s="103" t="s">
-        <v>49</v>
-      </c>
-      <c r="J76" s="94"/>
-    </row>
-    <row r="77" spans="1:10" s="93" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
-      <c r="A77" s="88" t="s">
-        <v>141</v>
-      </c>
-      <c r="B77" s="98" t="s">
-        <v>134</v>
-      </c>
-      <c r="C77" s="92" t="s">
-        <v>170</v>
-      </c>
-      <c r="D77" s="142" t="s">
-        <v>136</v>
-      </c>
-      <c r="E77" s="143"/>
-      <c r="F77" s="143"/>
-      <c r="H77" s="101"/>
-      <c r="I77" s="103" t="s">
-        <v>49</v>
-      </c>
-      <c r="J77" s="94"/>
-    </row>
-    <row r="78" spans="1:10" ht="12" customHeight="1"/>
-    <row r="79" spans="1:10" ht="12" customHeight="1"/>
-    <row r="80" spans="1:10" ht="12" customHeight="1"/>
-    <row r="81" ht="12" customHeight="1"/>
-    <row r="82" ht="12" customHeight="1"/>
-    <row r="83" ht="12" customHeight="1"/>
-    <row r="84" ht="12" customHeight="1"/>
-    <row r="85" ht="12" customHeight="1"/>
-    <row r="86" ht="12" customHeight="1"/>
-    <row r="87" ht="12" customHeight="1"/>
-    <row r="88" ht="12" customHeight="1"/>
-    <row r="89" ht="12" customHeight="1"/>
-    <row r="90" ht="12" customHeight="1"/>
-    <row r="91" ht="12" customHeight="1"/>
-    <row r="92" ht="12" customHeight="1"/>
-    <row r="93" ht="12" customHeight="1"/>
-    <row r="94" ht="12" customHeight="1"/>
-    <row r="95" ht="12" customHeight="1"/>
-    <row r="96" ht="12" customHeight="1"/>
+      <c r="E80" s="121"/>
+      <c r="F80" s="121"/>
+      <c r="G80" s="117"/>
+      <c r="H80" s="114">
+        <v>43749</v>
+      </c>
+      <c r="I80" s="87" t="s">
+        <v>39</v>
+      </c>
+      <c r="J80" s="85"/>
+    </row>
+    <row r="81" spans="1:10" s="4" customFormat="1" ht="12.75" outlineLevel="1">
+      <c r="A81" s="123" t="s">
+        <v>220</v>
+      </c>
+      <c r="B81" s="124"/>
+      <c r="C81" s="124"/>
+      <c r="D81" s="108"/>
+      <c r="E81" s="108"/>
+      <c r="F81" s="108"/>
+      <c r="G81" s="115"/>
+      <c r="H81" s="115"/>
+      <c r="I81" s="115"/>
+      <c r="J81" s="116"/>
+    </row>
+    <row r="82" spans="1:10" s="171" customFormat="1" ht="27" customHeight="1" outlineLevel="1">
+      <c r="A82" s="163" t="s">
+        <v>205</v>
+      </c>
+      <c r="B82" s="172" t="s">
+        <v>206</v>
+      </c>
+      <c r="C82" s="169" t="s">
+        <v>211</v>
+      </c>
+      <c r="D82" s="166" t="s">
+        <v>209</v>
+      </c>
+      <c r="E82" s="167"/>
+      <c r="F82" s="167"/>
+      <c r="G82" s="168"/>
+      <c r="H82" s="159">
+        <v>43749</v>
+      </c>
+      <c r="I82" s="169" t="s">
+        <v>10</v>
+      </c>
+      <c r="J82" s="170"/>
+    </row>
+    <row r="83" spans="1:10" s="171" customFormat="1" ht="27" customHeight="1" outlineLevel="1">
+      <c r="A83" s="163" t="s">
+        <v>221</v>
+      </c>
+      <c r="B83" s="172" t="s">
+        <v>206</v>
+      </c>
+      <c r="C83" s="169" t="s">
+        <v>212</v>
+      </c>
+      <c r="D83" s="166" t="s">
+        <v>209</v>
+      </c>
+      <c r="E83" s="167"/>
+      <c r="F83" s="167"/>
+      <c r="G83" s="168"/>
+      <c r="H83" s="159">
+        <v>43749</v>
+      </c>
+      <c r="I83" s="169" t="s">
+        <v>10</v>
+      </c>
+      <c r="J83" s="170"/>
+    </row>
+    <row r="84" spans="1:10" s="181" customFormat="1" ht="27" customHeight="1" outlineLevel="1">
+      <c r="A84" s="173" t="s">
+        <v>222</v>
+      </c>
+      <c r="B84" s="174" t="s">
+        <v>206</v>
+      </c>
+      <c r="C84" s="175" t="s">
+        <v>213</v>
+      </c>
+      <c r="D84" s="176" t="s">
+        <v>210</v>
+      </c>
+      <c r="E84" s="177"/>
+      <c r="F84" s="177"/>
+      <c r="G84" s="178"/>
+      <c r="H84" s="179">
+        <v>43749</v>
+      </c>
+      <c r="I84" s="87" t="s">
+        <v>39</v>
+      </c>
+      <c r="J84" s="180"/>
+    </row>
+    <row r="85" spans="1:10" s="181" customFormat="1" ht="27" customHeight="1" outlineLevel="1">
+      <c r="A85" s="173" t="s">
+        <v>223</v>
+      </c>
+      <c r="B85" s="174" t="s">
+        <v>206</v>
+      </c>
+      <c r="C85" s="175" t="s">
+        <v>214</v>
+      </c>
+      <c r="D85" s="176" t="s">
+        <v>215</v>
+      </c>
+      <c r="E85" s="177"/>
+      <c r="F85" s="177"/>
+      <c r="G85" s="178"/>
+      <c r="H85" s="179">
+        <v>43749</v>
+      </c>
+      <c r="I85" s="87" t="s">
+        <v>39</v>
+      </c>
+      <c r="J85" s="180"/>
+    </row>
+    <row r="86" spans="1:10" ht="12" customHeight="1"/>
+    <row r="87" spans="1:10" ht="12" customHeight="1"/>
+    <row r="88" spans="1:10" ht="12" customHeight="1"/>
+    <row r="89" spans="1:10" ht="12" customHeight="1"/>
+    <row r="90" spans="1:10" ht="12" customHeight="1"/>
+    <row r="91" spans="1:10" ht="12" customHeight="1"/>
+    <row r="92" spans="1:10" ht="12" customHeight="1"/>
+    <row r="93" spans="1:10" ht="12" customHeight="1"/>
+    <row r="94" spans="1:10" ht="12" customHeight="1"/>
+    <row r="95" spans="1:10" ht="12" customHeight="1"/>
+    <row r="96" spans="1:10" ht="12" customHeight="1"/>
     <row r="97" ht="12" customHeight="1"/>
     <row r="98" ht="12" customHeight="1"/>
     <row r="99" ht="12" customHeight="1"/>
@@ -7026,31 +7538,67 @@
     <row r="113" ht="12" customHeight="1"/>
     <row r="114" ht="12" customHeight="1"/>
     <row r="115" ht="12" customHeight="1"/>
+    <row r="116" ht="12" customHeight="1"/>
+    <row r="117" ht="12" customHeight="1"/>
+    <row r="118" ht="12" customHeight="1"/>
+    <row r="119" ht="12" customHeight="1"/>
+    <row r="120" ht="12" customHeight="1"/>
   </sheetData>
-  <mergeCells count="80">
-    <mergeCell ref="D22:F22"/>
+  <mergeCells count="92">
+    <mergeCell ref="A81:C81"/>
+    <mergeCell ref="D82:F82"/>
+    <mergeCell ref="D83:F83"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="D66:F66"/>
+    <mergeCell ref="D70:F70"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="D64:F64"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="D44:F44"/>
     <mergeCell ref="D45:F45"/>
     <mergeCell ref="D46:F46"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="A44:J44"/>
-    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="D33:F33"/>
     <mergeCell ref="D34:F34"/>
     <mergeCell ref="D35:F35"/>
     <mergeCell ref="D36:F36"/>
-    <mergeCell ref="A38:J38"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="A43:J43"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D85:F85"/>
+    <mergeCell ref="D84:F84"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:G10"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D15:F15"/>
     <mergeCell ref="B1:D2"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="B5:D5"/>
@@ -7066,48 +7614,29 @@
     <mergeCell ref="H9:H10"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="I9:I10"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:G10"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="A58:J58"/>
-    <mergeCell ref="D53:F53"/>
-    <mergeCell ref="A69:J69"/>
-    <mergeCell ref="A62:J62"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="A52:J52"/>
-    <mergeCell ref="A54:J54"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="A75:J75"/>
+    <mergeCell ref="D80:F80"/>
+    <mergeCell ref="D65:F65"/>
+    <mergeCell ref="D69:F69"/>
+    <mergeCell ref="D68:F68"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="D71:F71"/>
+    <mergeCell ref="D72:F72"/>
+    <mergeCell ref="D73:F73"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="D78:F78"/>
+    <mergeCell ref="D79:F79"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D75:F75"/>
     <mergeCell ref="D76:F76"/>
     <mergeCell ref="D77:F77"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="D71:F71"/>
-    <mergeCell ref="A72:J72"/>
-    <mergeCell ref="D73:F73"/>
-    <mergeCell ref="D74:F74"/>
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="D68:F68"/>
-    <mergeCell ref="D70:F70"/>
-    <mergeCell ref="D64:F64"/>
-    <mergeCell ref="D65:F65"/>
-    <mergeCell ref="A63:J63"/>
-    <mergeCell ref="A66:J66"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D27:F27"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7120,8 +7649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7132,7 +7661,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="22.5">
       <c r="A1" s="15" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="17"/>
@@ -7152,7 +7681,7 @@
     </row>
     <row r="3" spans="1:7" ht="14.25">
       <c r="B3" s="19" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
@@ -7162,9 +7691,11 @@
     </row>
     <row r="4" spans="1:7" ht="14.25">
       <c r="B4" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="117"/>
+        <v>11</v>
+      </c>
+      <c r="C4" s="104">
+        <v>43779</v>
+      </c>
       <c r="D4" s="19"/>
       <c r="E4" s="19"/>
       <c r="F4" s="19"/>
@@ -7191,22 +7722,22 @@
     <row r="7" spans="1:7" ht="14.25">
       <c r="A7" s="20"/>
       <c r="B7" s="55" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C7" s="56" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D7" s="57" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="E7" s="56" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F7" s="56" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G7" s="58" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="67" customFormat="1" ht="14.25">
@@ -7220,11 +7751,11 @@
       </c>
       <c r="D8" s="76">
         <f>'Export all carrier choices'!B6</f>
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="E8" s="75">
         <f>'Export all carrier choices'!B7</f>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F8" s="75">
         <f>'Export all carrier choices'!D6</f>
@@ -7232,7 +7763,7 @@
       </c>
       <c r="G8" s="76">
         <f>'Export all carrier choices'!D7</f>
-        <v>46</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25">
@@ -7248,15 +7779,15 @@
       <c r="A10" s="19"/>
       <c r="B10" s="59"/>
       <c r="C10" s="60" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D10" s="61">
         <f>SUM(D6:D9)</f>
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="E10" s="61">
         <f>SUM(E6:E9)</f>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F10" s="61">
         <f>SUM(F6:F9)</f>
@@ -7264,7 +7795,7 @@
       </c>
       <c r="G10" s="62">
         <f>SUM(G6:G9)</f>
-        <v>46</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25">
@@ -7280,15 +7811,15 @@
       <c r="A12" s="19"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D12" s="19"/>
       <c r="E12" s="24">
         <f>(D10+E10)*100/G10</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="G12" s="25"/>
     </row>
@@ -7296,15 +7827,15 @@
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D13" s="19"/>
       <c r="E13" s="24">
         <f>D10*100/G10</f>
-        <v>0</v>
+        <v>67.647058823529406</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="G13" s="25"/>
     </row>

--- a/test-case-example.xlsx
+++ b/test-case-example.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QuanLyHoTroDatVeXe\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1635" yWindow="-210" windowWidth="12120" windowHeight="9120" tabRatio="821" activeTab="2"/>
+    <workbookView xWindow="1635" yWindow="-210" windowWidth="12120" windowHeight="9120" tabRatio="821" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="97" r:id="rId1"/>
@@ -24,12 +29,12 @@
     <definedName name="Port">[1]Validation!$F$2:$F$40</definedName>
     <definedName name="VancoProducts">[1]Validation!$B$2:$B$4</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="230">
   <si>
     <t>TC16</t>
   </si>
@@ -1405,34 +1410,6 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>thông báo "Sửa không thành côngl".</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Thấy </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>thông báo "Chưa nhập SĐT".</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Thấy </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
@@ -1500,16 +1477,99 @@
   <si>
     <t>Hoang Minh</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kiểm tra chức năng </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tìm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Thấy </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>thông báo "Chưa nhập SĐT".</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Thấy </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>thông báo "Lỗi định dạng nhập".</t>
+    </r>
+  </si>
+  <si>
+    <t>Paas</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Thấy </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>thông báo "Lỗi định dạng nhập".</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Thấy </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>thông báo "Lỗi định dạng nhậpl".</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1677,6 +1737,19 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -1717,13 +1790,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2204,7 +2277,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="182">
+  <cellXfs count="190">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -2501,57 +2574,120 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="4" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2564,133 +2700,94 @@
     <xf numFmtId="0" fontId="15" fillId="5" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="25" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="24" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="24" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="24" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -5050,7 +5147,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5085,7 +5182,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5334,7 +5431,7 @@
         <v>34</v>
       </c>
       <c r="C3" s="63" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D3" s="29"/>
       <c r="E3" s="26"/>
@@ -5368,11 +5465,11 @@
       <c r="B6" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="118" t="s">
+      <c r="C6" s="125" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="118"/>
-      <c r="E6" s="119"/>
+      <c r="D6" s="125"/>
+      <c r="E6" s="126"/>
       <c r="F6" s="26"/>
       <c r="G6" s="26"/>
     </row>
@@ -5381,11 +5478,11 @@
       <c r="B7" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="118">
+      <c r="C7" s="125">
         <v>0</v>
       </c>
-      <c r="D7" s="118"/>
-      <c r="E7" s="119"/>
+      <c r="D7" s="125"/>
+      <c r="E7" s="126"/>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
     </row>
@@ -5447,7 +5544,7 @@
         <v>18</v>
       </c>
       <c r="F12" s="77" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G12" s="89"/>
       <c r="H12" s="91"/>
@@ -5464,7 +5561,7 @@
         <v>55</v>
       </c>
       <c r="F13" s="77" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G13" s="103"/>
       <c r="H13" s="91"/>
@@ -5481,7 +5578,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="77" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G14" s="103"/>
       <c r="H14" s="91"/>
@@ -5588,8 +5685,8 @@
   </sheetPr>
   <dimension ref="A1:K120"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:D4"/>
+    <sheetView tabSelected="1" topLeftCell="B49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52:F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" outlineLevelRow="1"/>
@@ -5608,9 +5705,9 @@
       <c r="A1" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
@@ -5621,9 +5718,9 @@
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
       <c r="A2" s="7"/>
-      <c r="B2" s="127"/>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
+      <c r="B2" s="148"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
@@ -5636,49 +5733,49 @@
       <c r="A3" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="118" t="s">
+      <c r="B3" s="125" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="118"/>
-      <c r="D3" s="119"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="126"/>
       <c r="E3" s="68"/>
       <c r="F3" s="68"/>
       <c r="G3" s="68"/>
-      <c r="H3" s="133"/>
-      <c r="I3" s="133"/>
-      <c r="J3" s="133"/>
+      <c r="H3" s="155"/>
+      <c r="I3" s="155"/>
+      <c r="J3" s="155"/>
       <c r="K3" s="9"/>
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1" ht="12.75">
       <c r="A4" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="135" t="s">
+      <c r="B4" s="156" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="136"/>
-      <c r="D4" s="137"/>
+      <c r="C4" s="157"/>
+      <c r="D4" s="158"/>
       <c r="E4" s="68"/>
       <c r="F4" s="68"/>
       <c r="G4" s="68"/>
-      <c r="H4" s="133"/>
-      <c r="I4" s="133"/>
-      <c r="J4" s="133"/>
+      <c r="H4" s="155"/>
+      <c r="I4" s="155"/>
+      <c r="J4" s="155"/>
       <c r="K4" s="9"/>
     </row>
-    <row r="5" spans="1:11" s="81" customFormat="1" ht="12.75">
+    <row r="5" spans="1:11" s="81" customFormat="1" ht="25.5">
       <c r="A5" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="129"/>
-      <c r="C5" s="130"/>
-      <c r="D5" s="131"/>
+      <c r="B5" s="150"/>
+      <c r="C5" s="151"/>
+      <c r="D5" s="152"/>
       <c r="E5" s="79"/>
       <c r="F5" s="79"/>
       <c r="G5" s="79"/>
-      <c r="H5" s="132"/>
-      <c r="I5" s="132"/>
-      <c r="J5" s="132"/>
+      <c r="H5" s="154"/>
+      <c r="I5" s="154"/>
+      <c r="J5" s="154"/>
       <c r="K5" s="80"/>
     </row>
     <row r="6" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1">
@@ -5687,7 +5784,7 @@
       </c>
       <c r="B6" s="92">
         <f>COUNTIF(I12:I85,"Pass")</f>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>40</v>
@@ -5699,9 +5796,9 @@
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="133"/>
-      <c r="I6" s="133"/>
-      <c r="J6" s="133"/>
+      <c r="H6" s="155"/>
+      <c r="I6" s="155"/>
+      <c r="J6" s="155"/>
       <c r="K6" s="9"/>
     </row>
     <row r="7" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1" thickBot="1">
@@ -5710,7 +5807,7 @@
       </c>
       <c r="B7" s="93">
         <f>COUNTIF(I12:I85,"Fail")</f>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C7" s="30" t="s">
         <v>79</v>
@@ -5722,16 +5819,16 @@
       <c r="E7" s="69"/>
       <c r="F7" s="69"/>
       <c r="G7" s="69"/>
-      <c r="H7" s="133"/>
-      <c r="I7" s="133"/>
-      <c r="J7" s="133"/>
+      <c r="H7" s="155"/>
+      <c r="I7" s="155"/>
+      <c r="J7" s="155"/>
       <c r="K7" s="9"/>
     </row>
     <row r="8" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="128"/>
-      <c r="B8" s="128"/>
-      <c r="C8" s="128"/>
-      <c r="D8" s="128"/>
+      <c r="A8" s="149"/>
+      <c r="B8" s="149"/>
+      <c r="C8" s="149"/>
+      <c r="D8" s="149"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
@@ -5741,22 +5838,22 @@
       <c r="K8" s="9"/>
     </row>
     <row r="9" spans="1:11" s="83" customFormat="1" ht="12" customHeight="1">
-      <c r="A9" s="142" t="s">
+      <c r="A9" s="133" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="143" t="s">
+      <c r="B9" s="135" t="s">
         <v>73</v>
       </c>
-      <c r="C9" s="142" t="s">
+      <c r="C9" s="133" t="s">
         <v>74</v>
       </c>
-      <c r="D9" s="145" t="s">
+      <c r="D9" s="137" t="s">
         <v>75</v>
       </c>
-      <c r="E9" s="146"/>
-      <c r="F9" s="146"/>
-      <c r="G9" s="147"/>
-      <c r="H9" s="138" t="s">
+      <c r="E9" s="138"/>
+      <c r="F9" s="138"/>
+      <c r="G9" s="139"/>
+      <c r="H9" s="159" t="s">
         <v>76</v>
       </c>
       <c r="I9" s="134" t="s">
@@ -5769,42 +5866,42 @@
     </row>
     <row r="10" spans="1:11" s="71" customFormat="1" ht="12" customHeight="1">
       <c r="A10" s="134"/>
-      <c r="B10" s="144"/>
+      <c r="B10" s="136"/>
       <c r="C10" s="134"/>
-      <c r="D10" s="139"/>
-      <c r="E10" s="148"/>
-      <c r="F10" s="148"/>
-      <c r="G10" s="149"/>
-      <c r="H10" s="139"/>
+      <c r="D10" s="140"/>
+      <c r="E10" s="141"/>
+      <c r="F10" s="141"/>
+      <c r="G10" s="142"/>
+      <c r="H10" s="140"/>
       <c r="I10" s="134"/>
       <c r="J10" s="134"/>
       <c r="K10" s="70"/>
     </row>
     <row r="11" spans="1:11" s="84" customFormat="1" ht="15">
-      <c r="A11" s="140"/>
-      <c r="B11" s="140"/>
-      <c r="C11" s="140"/>
-      <c r="D11" s="140"/>
-      <c r="E11" s="140"/>
-      <c r="F11" s="140"/>
-      <c r="G11" s="140"/>
-      <c r="H11" s="140"/>
-      <c r="I11" s="140"/>
-      <c r="J11" s="141"/>
+      <c r="A11" s="160"/>
+      <c r="B11" s="160"/>
+      <c r="C11" s="160"/>
+      <c r="D11" s="160"/>
+      <c r="E11" s="160"/>
+      <c r="F11" s="160"/>
+      <c r="G11" s="160"/>
+      <c r="H11" s="160"/>
+      <c r="I11" s="160"/>
+      <c r="J11" s="161"/>
     </row>
     <row r="12" spans="1:11" s="4" customFormat="1" ht="12.75">
-      <c r="A12" s="123" t="s">
+      <c r="A12" s="127" t="s">
         <v>80</v>
       </c>
-      <c r="B12" s="124"/>
-      <c r="C12" s="124"/>
-      <c r="D12" s="124"/>
-      <c r="E12" s="124"/>
-      <c r="F12" s="124"/>
-      <c r="G12" s="124"/>
-      <c r="H12" s="124"/>
-      <c r="I12" s="124"/>
-      <c r="J12" s="125"/>
+      <c r="B12" s="128"/>
+      <c r="C12" s="128"/>
+      <c r="D12" s="128"/>
+      <c r="E12" s="128"/>
+      <c r="F12" s="128"/>
+      <c r="G12" s="128"/>
+      <c r="H12" s="128"/>
+      <c r="I12" s="128"/>
+      <c r="J12" s="153"/>
     </row>
     <row r="13" spans="1:11" s="4" customFormat="1" ht="51" outlineLevel="1">
       <c r="A13" s="88" t="s">
@@ -5816,11 +5913,11 @@
       <c r="C13" s="87" t="s">
         <v>105</v>
       </c>
-      <c r="D13" s="150" t="s">
+      <c r="D13" s="143" t="s">
         <v>81</v>
       </c>
-      <c r="E13" s="151"/>
-      <c r="F13" s="151"/>
+      <c r="E13" s="144"/>
+      <c r="F13" s="144"/>
       <c r="G13" s="86"/>
       <c r="H13" s="102" t="s">
         <v>84</v>
@@ -5840,11 +5937,11 @@
       <c r="C14" s="87" t="s">
         <v>104</v>
       </c>
-      <c r="D14" s="122" t="s">
+      <c r="D14" s="145" t="s">
         <v>81</v>
       </c>
-      <c r="E14" s="121"/>
-      <c r="F14" s="152"/>
+      <c r="E14" s="130"/>
+      <c r="F14" s="146"/>
       <c r="G14" s="112"/>
       <c r="H14" s="102" t="s">
         <v>84</v>
@@ -5864,11 +5961,11 @@
       <c r="C15" s="87" t="s">
         <v>88</v>
       </c>
-      <c r="D15" s="122" t="s">
+      <c r="D15" s="145" t="s">
         <v>89</v>
       </c>
-      <c r="E15" s="121"/>
-      <c r="F15" s="152"/>
+      <c r="E15" s="130"/>
+      <c r="F15" s="146"/>
       <c r="G15" s="112"/>
       <c r="H15" s="102" t="s">
         <v>84</v>
@@ -5888,11 +5985,11 @@
       <c r="C16" s="87" t="s">
         <v>90</v>
       </c>
-      <c r="D16" s="122" t="s">
+      <c r="D16" s="145" t="s">
         <v>89</v>
       </c>
-      <c r="E16" s="121"/>
-      <c r="F16" s="152"/>
+      <c r="E16" s="130"/>
+      <c r="F16" s="146"/>
       <c r="G16" s="86"/>
       <c r="H16" s="102" t="s">
         <v>84</v>
@@ -5903,11 +6000,11 @@
       <c r="J16" s="85"/>
     </row>
     <row r="17" spans="1:10" s="4" customFormat="1" ht="12.75" outlineLevel="1">
-      <c r="A17" s="123" t="s">
-        <v>216</v>
-      </c>
-      <c r="B17" s="124"/>
-      <c r="C17" s="124"/>
+      <c r="A17" s="127" t="s">
+        <v>214</v>
+      </c>
+      <c r="B17" s="128"/>
+      <c r="C17" s="128"/>
       <c r="D17" s="108"/>
       <c r="E17" s="108"/>
       <c r="F17" s="108"/>
@@ -5926,11 +6023,11 @@
       <c r="C18" s="99" t="s">
         <v>99</v>
       </c>
-      <c r="D18" s="120" t="s">
+      <c r="D18" s="129" t="s">
         <v>83</v>
       </c>
-      <c r="E18" s="121"/>
-      <c r="F18" s="121"/>
+      <c r="E18" s="130"/>
+      <c r="F18" s="130"/>
       <c r="G18" s="86"/>
       <c r="H18" s="113" t="s">
         <v>84</v>
@@ -5950,11 +6047,11 @@
       <c r="C19" s="99" t="s">
         <v>98</v>
       </c>
-      <c r="D19" s="120" t="s">
+      <c r="D19" s="129" t="s">
         <v>83</v>
       </c>
-      <c r="E19" s="121"/>
-      <c r="F19" s="121"/>
+      <c r="E19" s="130"/>
+      <c r="F19" s="130"/>
       <c r="G19" s="109"/>
       <c r="H19" s="113" t="s">
         <v>84</v>
@@ -5974,11 +6071,11 @@
       <c r="C20" s="99" t="s">
         <v>97</v>
       </c>
-      <c r="D20" s="120" t="s">
+      <c r="D20" s="129" t="s">
         <v>83</v>
       </c>
-      <c r="E20" s="121"/>
-      <c r="F20" s="121"/>
+      <c r="E20" s="130"/>
+      <c r="F20" s="130"/>
       <c r="G20" s="109"/>
       <c r="H20" s="113" t="s">
         <v>84</v>
@@ -5998,11 +6095,11 @@
       <c r="C21" s="99" t="s">
         <v>96</v>
       </c>
-      <c r="D21" s="120" t="s">
+      <c r="D21" s="129" t="s">
         <v>85</v>
       </c>
-      <c r="E21" s="121"/>
-      <c r="F21" s="121"/>
+      <c r="E21" s="130"/>
+      <c r="F21" s="130"/>
       <c r="G21" s="109"/>
       <c r="H21" s="113" t="s">
         <v>84</v>
@@ -6022,11 +6119,11 @@
       <c r="C22" s="99" t="s">
         <v>106</v>
       </c>
-      <c r="D22" s="120" t="s">
+      <c r="D22" s="129" t="s">
         <v>87</v>
       </c>
-      <c r="E22" s="121"/>
-      <c r="F22" s="121"/>
+      <c r="E22" s="130"/>
+      <c r="F22" s="130"/>
       <c r="G22" s="109"/>
       <c r="H22" s="113" t="s">
         <v>84</v>
@@ -6046,11 +6143,11 @@
       <c r="C23" s="99" t="s">
         <v>107</v>
       </c>
-      <c r="D23" s="120" t="s">
+      <c r="D23" s="129" t="s">
         <v>94</v>
       </c>
-      <c r="E23" s="121"/>
-      <c r="F23" s="121"/>
+      <c r="E23" s="130"/>
+      <c r="F23" s="130"/>
       <c r="G23" s="112"/>
       <c r="H23" s="113" t="s">
         <v>84</v>
@@ -6070,11 +6167,11 @@
       <c r="C24" s="99" t="s">
         <v>108</v>
       </c>
-      <c r="D24" s="120" t="s">
+      <c r="D24" s="129" t="s">
         <v>100</v>
       </c>
-      <c r="E24" s="121"/>
-      <c r="F24" s="121"/>
+      <c r="E24" s="130"/>
+      <c r="F24" s="130"/>
       <c r="G24" s="112"/>
       <c r="H24" s="113" t="s">
         <v>84</v>
@@ -6085,11 +6182,11 @@
       <c r="J24" s="85"/>
     </row>
     <row r="25" spans="1:10" s="4" customFormat="1" ht="12.75" outlineLevel="1">
-      <c r="A25" s="123" t="s">
-        <v>217</v>
-      </c>
-      <c r="B25" s="124"/>
-      <c r="C25" s="124"/>
+      <c r="A25" s="127" t="s">
+        <v>215</v>
+      </c>
+      <c r="B25" s="128"/>
+      <c r="C25" s="128"/>
       <c r="D25" s="108"/>
       <c r="E25" s="108"/>
       <c r="F25" s="108"/>
@@ -6108,11 +6205,11 @@
       <c r="C26" s="99" t="s">
         <v>102</v>
       </c>
-      <c r="D26" s="120" t="s">
+      <c r="D26" s="129" t="s">
         <v>103</v>
       </c>
-      <c r="E26" s="121"/>
-      <c r="F26" s="121"/>
+      <c r="E26" s="130"/>
+      <c r="F26" s="130"/>
       <c r="G26" s="112"/>
       <c r="H26" s="114">
         <v>43596</v>
@@ -6132,11 +6229,11 @@
       <c r="C27" s="99" t="s">
         <v>111</v>
       </c>
-      <c r="D27" s="120" t="s">
+      <c r="D27" s="129" t="s">
         <v>109</v>
       </c>
-      <c r="E27" s="121"/>
-      <c r="F27" s="121"/>
+      <c r="E27" s="130"/>
+      <c r="F27" s="130"/>
       <c r="G27" s="112"/>
       <c r="H27" s="114">
         <v>43749</v>
@@ -6156,11 +6253,11 @@
       <c r="C28" s="99" t="s">
         <v>112</v>
       </c>
-      <c r="D28" s="120" t="s">
+      <c r="D28" s="129" t="s">
         <v>103</v>
       </c>
-      <c r="E28" s="121"/>
-      <c r="F28" s="121"/>
+      <c r="E28" s="130"/>
+      <c r="F28" s="130"/>
       <c r="G28" s="117"/>
       <c r="H28" s="114">
         <v>43749</v>
@@ -6180,11 +6277,11 @@
       <c r="C29" s="99" t="s">
         <v>113</v>
       </c>
-      <c r="D29" s="120" t="s">
+      <c r="D29" s="129" t="s">
         <v>109</v>
       </c>
-      <c r="E29" s="121"/>
-      <c r="F29" s="121"/>
+      <c r="E29" s="130"/>
+      <c r="F29" s="130"/>
       <c r="G29" s="117"/>
       <c r="H29" s="114">
         <v>43749</v>
@@ -6204,11 +6301,11 @@
       <c r="C30" s="99" t="s">
         <v>111</v>
       </c>
-      <c r="D30" s="120" t="s">
+      <c r="D30" s="129" t="s">
         <v>103</v>
       </c>
-      <c r="E30" s="121"/>
-      <c r="F30" s="121"/>
+      <c r="E30" s="130"/>
+      <c r="F30" s="130"/>
       <c r="G30" s="117"/>
       <c r="H30" s="114">
         <v>43749</v>
@@ -6228,11 +6325,11 @@
       <c r="C31" s="99" t="s">
         <v>114</v>
       </c>
-      <c r="D31" s="120" t="s">
+      <c r="D31" s="129" t="s">
         <v>103</v>
       </c>
-      <c r="E31" s="121"/>
-      <c r="F31" s="121"/>
+      <c r="E31" s="130"/>
+      <c r="F31" s="130"/>
       <c r="G31" s="117"/>
       <c r="H31" s="114">
         <v>43749</v>
@@ -6252,11 +6349,11 @@
       <c r="C32" s="99" t="s">
         <v>115</v>
       </c>
-      <c r="D32" s="120" t="s">
+      <c r="D32" s="129" t="s">
         <v>103</v>
       </c>
-      <c r="E32" s="121"/>
-      <c r="F32" s="121"/>
+      <c r="E32" s="130"/>
+      <c r="F32" s="130"/>
       <c r="G32" s="117"/>
       <c r="H32" s="114">
         <v>43749</v>
@@ -6276,11 +6373,11 @@
       <c r="C33" s="99" t="s">
         <v>116</v>
       </c>
-      <c r="D33" s="120" t="s">
+      <c r="D33" s="129" t="s">
         <v>103</v>
       </c>
-      <c r="E33" s="121"/>
-      <c r="F33" s="121"/>
+      <c r="E33" s="130"/>
+      <c r="F33" s="130"/>
       <c r="G33" s="117"/>
       <c r="H33" s="114">
         <v>43749</v>
@@ -6300,11 +6397,11 @@
       <c r="C34" s="99" t="s">
         <v>117</v>
       </c>
-      <c r="D34" s="120" t="s">
+      <c r="D34" s="129" t="s">
         <v>103</v>
       </c>
-      <c r="E34" s="121"/>
-      <c r="F34" s="121"/>
+      <c r="E34" s="130"/>
+      <c r="F34" s="130"/>
       <c r="G34" s="117"/>
       <c r="H34" s="114">
         <v>43749</v>
@@ -6324,11 +6421,11 @@
       <c r="C35" s="99" t="s">
         <v>118</v>
       </c>
-      <c r="D35" s="120" t="s">
+      <c r="D35" s="129" t="s">
         <v>103</v>
       </c>
-      <c r="E35" s="121"/>
-      <c r="F35" s="121"/>
+      <c r="E35" s="130"/>
+      <c r="F35" s="130"/>
       <c r="G35" s="117"/>
       <c r="H35" s="114">
         <v>43749</v>
@@ -6348,11 +6445,11 @@
       <c r="C36" s="99" t="s">
         <v>119</v>
       </c>
-      <c r="D36" s="120" t="s">
+      <c r="D36" s="129" t="s">
         <v>103</v>
       </c>
-      <c r="E36" s="121"/>
-      <c r="F36" s="121"/>
+      <c r="E36" s="130"/>
+      <c r="F36" s="130"/>
       <c r="G36" s="117"/>
       <c r="H36" s="114">
         <v>43749</v>
@@ -6372,11 +6469,11 @@
       <c r="C37" s="99" t="s">
         <v>121</v>
       </c>
-      <c r="D37" s="120" t="s">
+      <c r="D37" s="129" t="s">
         <v>120</v>
       </c>
-      <c r="E37" s="121"/>
-      <c r="F37" s="121"/>
+      <c r="E37" s="130"/>
+      <c r="F37" s="130"/>
       <c r="G37" s="117"/>
       <c r="H37" s="114">
         <v>43749</v>
@@ -6396,11 +6493,11 @@
       <c r="C38" s="99" t="s">
         <v>123</v>
       </c>
-      <c r="D38" s="120" t="s">
+      <c r="D38" s="129" t="s">
         <v>124</v>
       </c>
-      <c r="E38" s="121"/>
-      <c r="F38" s="121"/>
+      <c r="E38" s="130"/>
+      <c r="F38" s="130"/>
       <c r="G38" s="117"/>
       <c r="H38" s="114">
         <v>43749</v>
@@ -6420,11 +6517,11 @@
       <c r="C39" s="99" t="s">
         <v>125</v>
       </c>
-      <c r="D39" s="120" t="s">
+      <c r="D39" s="129" t="s">
         <v>126</v>
       </c>
-      <c r="E39" s="121"/>
-      <c r="F39" s="121"/>
+      <c r="E39" s="130"/>
+      <c r="F39" s="130"/>
       <c r="G39" s="117"/>
       <c r="H39" s="114">
         <v>43749</v>
@@ -6435,11 +6532,11 @@
       <c r="J39" s="85"/>
     </row>
     <row r="40" spans="1:10" s="4" customFormat="1" ht="12.75" outlineLevel="1">
-      <c r="A40" s="123" t="s">
-        <v>218</v>
-      </c>
-      <c r="B40" s="124"/>
-      <c r="C40" s="124"/>
+      <c r="A40" s="127" t="s">
+        <v>216</v>
+      </c>
+      <c r="B40" s="128"/>
+      <c r="C40" s="128"/>
       <c r="D40" s="108"/>
       <c r="E40" s="108"/>
       <c r="F40" s="108"/>
@@ -6458,11 +6555,11 @@
       <c r="C41" s="99" t="s">
         <v>154</v>
       </c>
-      <c r="D41" s="120" t="s">
+      <c r="D41" s="129" t="s">
         <v>131</v>
       </c>
-      <c r="E41" s="121"/>
-      <c r="F41" s="121"/>
+      <c r="E41" s="130"/>
+      <c r="F41" s="130"/>
       <c r="G41" s="117"/>
       <c r="H41" s="114">
         <v>43749</v>
@@ -6482,11 +6579,11 @@
       <c r="C42" s="99" t="s">
         <v>129</v>
       </c>
-      <c r="D42" s="120" t="s">
+      <c r="D42" s="129" t="s">
         <v>128</v>
       </c>
-      <c r="E42" s="121"/>
-      <c r="F42" s="121"/>
+      <c r="E42" s="130"/>
+      <c r="F42" s="130"/>
       <c r="G42" s="117"/>
       <c r="H42" s="114">
         <v>43749</v>
@@ -6506,11 +6603,11 @@
       <c r="C43" s="99" t="s">
         <v>130</v>
       </c>
-      <c r="D43" s="120" t="s">
+      <c r="D43" s="129" t="s">
         <v>131</v>
       </c>
-      <c r="E43" s="121"/>
-      <c r="F43" s="121"/>
+      <c r="E43" s="130"/>
+      <c r="F43" s="130"/>
       <c r="G43" s="117"/>
       <c r="H43" s="114">
         <v>43749</v>
@@ -6530,11 +6627,11 @@
       <c r="C44" s="99" t="s">
         <v>136</v>
       </c>
-      <c r="D44" s="120" t="s">
+      <c r="D44" s="129" t="s">
         <v>131</v>
       </c>
-      <c r="E44" s="121"/>
-      <c r="F44" s="121"/>
+      <c r="E44" s="130"/>
+      <c r="F44" s="130"/>
       <c r="G44" s="117"/>
       <c r="H44" s="114">
         <v>43749</v>
@@ -6554,11 +6651,11 @@
       <c r="C45" s="99" t="s">
         <v>137</v>
       </c>
-      <c r="D45" s="120" t="s">
+      <c r="D45" s="129" t="s">
         <v>131</v>
       </c>
-      <c r="E45" s="121"/>
-      <c r="F45" s="121"/>
+      <c r="E45" s="130"/>
+      <c r="F45" s="130"/>
       <c r="G45" s="117"/>
       <c r="H45" s="114">
         <v>43749</v>
@@ -6578,11 +6675,11 @@
       <c r="C46" s="99" t="s">
         <v>138</v>
       </c>
-      <c r="D46" s="120" t="s">
+      <c r="D46" s="129" t="s">
         <v>131</v>
       </c>
-      <c r="E46" s="121"/>
-      <c r="F46" s="121"/>
+      <c r="E46" s="130"/>
+      <c r="F46" s="130"/>
       <c r="G46" s="117"/>
       <c r="H46" s="114">
         <v>43749</v>
@@ -6602,11 +6699,11 @@
       <c r="C47" s="99" t="s">
         <v>132</v>
       </c>
-      <c r="D47" s="120" t="s">
+      <c r="D47" s="129" t="s">
         <v>133</v>
       </c>
-      <c r="E47" s="121"/>
-      <c r="F47" s="121"/>
+      <c r="E47" s="130"/>
+      <c r="F47" s="130"/>
       <c r="G47" s="117"/>
       <c r="H47" s="114">
         <v>43749</v>
@@ -6626,11 +6723,11 @@
       <c r="C48" s="99" t="s">
         <v>134</v>
       </c>
-      <c r="D48" s="120" t="s">
+      <c r="D48" s="129" t="s">
         <v>135</v>
       </c>
-      <c r="E48" s="121"/>
-      <c r="F48" s="121"/>
+      <c r="E48" s="130"/>
+      <c r="F48" s="130"/>
       <c r="G48" s="117"/>
       <c r="H48" s="114">
         <v>43749</v>
@@ -6650,11 +6747,11 @@
       <c r="C49" s="99" t="s">
         <v>140</v>
       </c>
-      <c r="D49" s="120" t="s">
+      <c r="D49" s="129" t="s">
         <v>141</v>
       </c>
-      <c r="E49" s="121"/>
-      <c r="F49" s="121"/>
+      <c r="E49" s="130"/>
+      <c r="F49" s="130"/>
       <c r="G49" s="117"/>
       <c r="H49" s="114">
         <v>43749</v>
@@ -6674,11 +6771,11 @@
       <c r="C50" s="99" t="s">
         <v>142</v>
       </c>
-      <c r="D50" s="120" t="s">
+      <c r="D50" s="129" t="s">
         <v>141</v>
       </c>
-      <c r="E50" s="121"/>
-      <c r="F50" s="121"/>
+      <c r="E50" s="130"/>
+      <c r="F50" s="130"/>
       <c r="G50" s="117"/>
       <c r="H50" s="114">
         <v>43749</v>
@@ -6698,11 +6795,11 @@
       <c r="C51" s="99" t="s">
         <v>143</v>
       </c>
-      <c r="D51" s="120" t="s">
+      <c r="D51" s="129" t="s">
         <v>141</v>
       </c>
-      <c r="E51" s="121"/>
-      <c r="F51" s="121"/>
+      <c r="E51" s="130"/>
+      <c r="F51" s="130"/>
       <c r="G51" s="117"/>
       <c r="H51" s="114">
         <v>43749</v>
@@ -6713,22 +6810,22 @@
       <c r="J51" s="85"/>
     </row>
     <row r="52" spans="1:10" s="171" customFormat="1" ht="42.75" customHeight="1" outlineLevel="1">
-      <c r="A52" s="163" t="s">
+      <c r="A52" s="162" t="s">
         <v>150</v>
       </c>
-      <c r="B52" s="164" t="s">
+      <c r="B52" s="163" t="s">
         <v>139</v>
       </c>
-      <c r="C52" s="165" t="s">
+      <c r="C52" s="164" t="s">
         <v>144</v>
       </c>
-      <c r="D52" s="166" t="s">
-        <v>141</v>
-      </c>
-      <c r="E52" s="167"/>
-      <c r="F52" s="167"/>
-      <c r="G52" s="168"/>
-      <c r="H52" s="159">
+      <c r="D52" s="165" t="s">
+        <v>229</v>
+      </c>
+      <c r="E52" s="166"/>
+      <c r="F52" s="166"/>
+      <c r="G52" s="167"/>
+      <c r="H52" s="168">
         <v>43749</v>
       </c>
       <c r="I52" s="169" t="s">
@@ -6746,11 +6843,11 @@
       <c r="C53" s="99" t="s">
         <v>145</v>
       </c>
-      <c r="D53" s="120" t="s">
+      <c r="D53" s="129" t="s">
         <v>173</v>
       </c>
-      <c r="E53" s="121"/>
-      <c r="F53" s="121"/>
+      <c r="E53" s="130"/>
+      <c r="F53" s="130"/>
       <c r="G53" s="117"/>
       <c r="H53" s="114">
         <v>43749</v>
@@ -6770,11 +6867,11 @@
       <c r="C54" s="99" t="s">
         <v>146</v>
       </c>
-      <c r="D54" s="120" t="s">
+      <c r="D54" s="129" t="s">
         <v>147</v>
       </c>
-      <c r="E54" s="121"/>
-      <c r="F54" s="121"/>
+      <c r="E54" s="130"/>
+      <c r="F54" s="130"/>
       <c r="G54" s="117"/>
       <c r="H54" s="114">
         <v>43749</v>
@@ -6794,11 +6891,11 @@
       <c r="C55" s="99" t="s">
         <v>149</v>
       </c>
-      <c r="D55" s="120" t="s">
+      <c r="D55" s="129" t="s">
         <v>124</v>
       </c>
-      <c r="E55" s="121"/>
-      <c r="F55" s="121"/>
+      <c r="E55" s="130"/>
+      <c r="F55" s="130"/>
       <c r="G55" s="117"/>
       <c r="H55" s="114">
         <v>43749</v>
@@ -6809,11 +6906,11 @@
       <c r="J55" s="85"/>
     </row>
     <row r="56" spans="1:10" s="4" customFormat="1" ht="12.75" outlineLevel="1">
-      <c r="A56" s="123" t="s">
-        <v>219</v>
-      </c>
-      <c r="B56" s="124"/>
-      <c r="C56" s="124"/>
+      <c r="A56" s="127" t="s">
+        <v>217</v>
+      </c>
+      <c r="B56" s="128"/>
+      <c r="C56" s="128"/>
       <c r="D56" s="108"/>
       <c r="E56" s="108"/>
       <c r="F56" s="108"/>
@@ -6832,11 +6929,11 @@
       <c r="C57" s="99" t="s">
         <v>155</v>
       </c>
-      <c r="D57" s="120" t="s">
+      <c r="D57" s="129" t="s">
         <v>156</v>
       </c>
-      <c r="E57" s="121"/>
-      <c r="F57" s="121"/>
+      <c r="E57" s="130"/>
+      <c r="F57" s="130"/>
       <c r="G57" s="117"/>
       <c r="H57" s="114">
         <v>43749</v>
@@ -6856,11 +6953,11 @@
       <c r="C58" s="99" t="s">
         <v>157</v>
       </c>
-      <c r="D58" s="120" t="s">
+      <c r="D58" s="129" t="s">
         <v>128</v>
       </c>
-      <c r="E58" s="121"/>
-      <c r="F58" s="121"/>
+      <c r="E58" s="130"/>
+      <c r="F58" s="130"/>
       <c r="G58" s="117"/>
       <c r="H58" s="114">
         <v>43749</v>
@@ -6880,11 +6977,11 @@
       <c r="C59" s="99" t="s">
         <v>158</v>
       </c>
-      <c r="D59" s="120" t="s">
+      <c r="D59" s="129" t="s">
         <v>156</v>
       </c>
-      <c r="E59" s="121"/>
-      <c r="F59" s="121"/>
+      <c r="E59" s="130"/>
+      <c r="F59" s="130"/>
       <c r="G59" s="117"/>
       <c r="H59" s="114">
         <v>43749</v>
@@ -6904,11 +7001,11 @@
       <c r="C60" s="99" t="s">
         <v>159</v>
       </c>
-      <c r="D60" s="120" t="s">
+      <c r="D60" s="129" t="s">
         <v>156</v>
       </c>
-      <c r="E60" s="121"/>
-      <c r="F60" s="121"/>
+      <c r="E60" s="130"/>
+      <c r="F60" s="130"/>
       <c r="G60" s="117"/>
       <c r="H60" s="114">
         <v>43749</v>
@@ -6928,11 +7025,11 @@
       <c r="C61" s="99" t="s">
         <v>160</v>
       </c>
-      <c r="D61" s="120" t="s">
+      <c r="D61" s="129" t="s">
         <v>156</v>
       </c>
-      <c r="E61" s="121"/>
-      <c r="F61" s="121"/>
+      <c r="E61" s="130"/>
+      <c r="F61" s="130"/>
       <c r="G61" s="117"/>
       <c r="H61" s="114">
         <v>43749</v>
@@ -6952,11 +7049,11 @@
       <c r="C62" s="99" t="s">
         <v>161</v>
       </c>
-      <c r="D62" s="120" t="s">
+      <c r="D62" s="129" t="s">
         <v>156</v>
       </c>
-      <c r="E62" s="121"/>
-      <c r="F62" s="121"/>
+      <c r="E62" s="130"/>
+      <c r="F62" s="130"/>
       <c r="G62" s="117"/>
       <c r="H62" s="114">
         <v>43749</v>
@@ -6976,11 +7073,11 @@
       <c r="C63" s="99" t="s">
         <v>162</v>
       </c>
-      <c r="D63" s="120" t="s">
+      <c r="D63" s="129" t="s">
         <v>156</v>
       </c>
-      <c r="E63" s="121"/>
-      <c r="F63" s="121"/>
+      <c r="E63" s="130"/>
+      <c r="F63" s="130"/>
       <c r="G63" s="117"/>
       <c r="H63" s="114">
         <v>43749</v>
@@ -7000,11 +7097,11 @@
       <c r="C64" s="99" t="s">
         <v>163</v>
       </c>
-      <c r="D64" s="120" t="s">
+      <c r="D64" s="129" t="s">
         <v>156</v>
       </c>
-      <c r="E64" s="121"/>
-      <c r="F64" s="121"/>
+      <c r="E64" s="130"/>
+      <c r="F64" s="130"/>
       <c r="G64" s="117"/>
       <c r="H64" s="114">
         <v>43749</v>
@@ -7024,11 +7121,11 @@
       <c r="C65" s="99" t="s">
         <v>164</v>
       </c>
-      <c r="D65" s="120" t="s">
+      <c r="D65" s="129" t="s">
         <v>156</v>
       </c>
-      <c r="E65" s="121"/>
-      <c r="F65" s="121"/>
+      <c r="E65" s="130"/>
+      <c r="F65" s="130"/>
       <c r="G65" s="117"/>
       <c r="H65" s="114">
         <v>43749</v>
@@ -7048,11 +7145,11 @@
       <c r="C66" s="99" t="s">
         <v>165</v>
       </c>
-      <c r="D66" s="120" t="s">
+      <c r="D66" s="129" t="s">
         <v>156</v>
       </c>
-      <c r="E66" s="121"/>
-      <c r="F66" s="121"/>
+      <c r="E66" s="130"/>
+      <c r="F66" s="130"/>
       <c r="G66" s="117"/>
       <c r="H66" s="114">
         <v>43749</v>
@@ -7072,11 +7169,11 @@
       <c r="C67" s="99" t="s">
         <v>166</v>
       </c>
-      <c r="D67" s="120" t="s">
+      <c r="D67" s="129" t="s">
         <v>135</v>
       </c>
-      <c r="E67" s="121"/>
-      <c r="F67" s="121"/>
+      <c r="E67" s="130"/>
+      <c r="F67" s="130"/>
       <c r="G67" s="117"/>
       <c r="H67" s="114">
         <v>43749</v>
@@ -7086,29 +7183,29 @@
       </c>
       <c r="J67" s="85"/>
     </row>
-    <row r="68" spans="1:10" s="162" customFormat="1" ht="39" customHeight="1" outlineLevel="1">
-      <c r="A68" s="153" t="s">
+    <row r="68" spans="1:10" s="180" customFormat="1" ht="39" customHeight="1" outlineLevel="1">
+      <c r="A68" s="172" t="s">
         <v>192</v>
       </c>
-      <c r="B68" s="154" t="s">
+      <c r="B68" s="173" t="s">
         <v>207</v>
       </c>
-      <c r="C68" s="155" t="s">
+      <c r="C68" s="174" t="s">
         <v>167</v>
       </c>
-      <c r="D68" s="156" t="s">
-        <v>208</v>
-      </c>
-      <c r="E68" s="157"/>
-      <c r="F68" s="157"/>
-      <c r="G68" s="158"/>
-      <c r="H68" s="159">
+      <c r="D68" s="175" t="s">
+        <v>228</v>
+      </c>
+      <c r="E68" s="176"/>
+      <c r="F68" s="176"/>
+      <c r="G68" s="177"/>
+      <c r="H68" s="168">
         <v>43749</v>
       </c>
-      <c r="I68" s="160" t="s">
-        <v>10</v>
-      </c>
-      <c r="J68" s="161"/>
+      <c r="I68" s="178" t="s">
+        <v>39</v>
+      </c>
+      <c r="J68" s="179"/>
     </row>
     <row r="69" spans="1:10" s="4" customFormat="1" ht="39" customHeight="1" outlineLevel="1">
       <c r="A69" s="88" t="s">
@@ -7120,11 +7217,11 @@
       <c r="C69" s="99" t="s">
         <v>168</v>
       </c>
-      <c r="D69" s="120" t="s">
+      <c r="D69" s="129" t="s">
         <v>141</v>
       </c>
-      <c r="E69" s="121"/>
-      <c r="F69" s="121"/>
+      <c r="E69" s="130"/>
+      <c r="F69" s="130"/>
       <c r="G69" s="117"/>
       <c r="H69" s="114">
         <v>43749</v>
@@ -7144,11 +7241,11 @@
       <c r="C70" s="99" t="s">
         <v>169</v>
       </c>
-      <c r="D70" s="120" t="s">
+      <c r="D70" s="129" t="s">
         <v>141</v>
       </c>
-      <c r="E70" s="121"/>
-      <c r="F70" s="121"/>
+      <c r="E70" s="130"/>
+      <c r="F70" s="130"/>
       <c r="G70" s="117"/>
       <c r="H70" s="114">
         <v>43749</v>
@@ -7168,11 +7265,11 @@
       <c r="C71" s="99" t="s">
         <v>170</v>
       </c>
-      <c r="D71" s="120" t="s">
+      <c r="D71" s="129" t="s">
         <v>141</v>
       </c>
-      <c r="E71" s="121"/>
-      <c r="F71" s="121"/>
+      <c r="E71" s="130"/>
+      <c r="F71" s="130"/>
       <c r="G71" s="117"/>
       <c r="H71" s="114">
         <v>43749</v>
@@ -7192,11 +7289,11 @@
       <c r="C72" s="99" t="s">
         <v>171</v>
       </c>
-      <c r="D72" s="120" t="s">
+      <c r="D72" s="129" t="s">
         <v>141</v>
       </c>
-      <c r="E72" s="121"/>
-      <c r="F72" s="121"/>
+      <c r="E72" s="130"/>
+      <c r="F72" s="130"/>
       <c r="G72" s="117"/>
       <c r="H72" s="114">
         <v>43749</v>
@@ -7216,11 +7313,11 @@
       <c r="C73" s="99" t="s">
         <v>172</v>
       </c>
-      <c r="D73" s="120" t="s">
+      <c r="D73" s="129" t="s">
         <v>141</v>
       </c>
-      <c r="E73" s="121"/>
-      <c r="F73" s="121"/>
+      <c r="E73" s="130"/>
+      <c r="F73" s="130"/>
       <c r="G73" s="117"/>
       <c r="H73" s="114">
         <v>43749</v>
@@ -7240,11 +7337,11 @@
       <c r="C74" s="99" t="s">
         <v>174</v>
       </c>
-      <c r="D74" s="120" t="s">
+      <c r="D74" s="129" t="s">
         <v>173</v>
       </c>
-      <c r="E74" s="121"/>
-      <c r="F74" s="121"/>
+      <c r="E74" s="130"/>
+      <c r="F74" s="130"/>
       <c r="G74" s="117"/>
       <c r="H74" s="114">
         <v>43749</v>
@@ -7264,11 +7361,11 @@
       <c r="C75" s="99" t="s">
         <v>175</v>
       </c>
-      <c r="D75" s="120" t="s">
+      <c r="D75" s="129" t="s">
         <v>147</v>
       </c>
-      <c r="E75" s="121"/>
-      <c r="F75" s="121"/>
+      <c r="E75" s="130"/>
+      <c r="F75" s="130"/>
       <c r="G75" s="117"/>
       <c r="H75" s="114">
         <v>43749</v>
@@ -7288,11 +7385,11 @@
       <c r="C76" s="99" t="s">
         <v>176</v>
       </c>
-      <c r="D76" s="120" t="s">
+      <c r="D76" s="129" t="s">
         <v>147</v>
       </c>
-      <c r="E76" s="121"/>
-      <c r="F76" s="121"/>
+      <c r="E76" s="130"/>
+      <c r="F76" s="130"/>
       <c r="G76" s="117"/>
       <c r="H76" s="114">
         <v>43749</v>
@@ -7312,11 +7409,11 @@
       <c r="C77" s="99" t="s">
         <v>177</v>
       </c>
-      <c r="D77" s="120" t="s">
+      <c r="D77" s="129" t="s">
         <v>147</v>
       </c>
-      <c r="E77" s="121"/>
-      <c r="F77" s="121"/>
+      <c r="E77" s="130"/>
+      <c r="F77" s="130"/>
       <c r="G77" s="117"/>
       <c r="H77" s="114">
         <v>43749</v>
@@ -7336,11 +7433,11 @@
       <c r="C78" s="99" t="s">
         <v>178</v>
       </c>
-      <c r="D78" s="120" t="s">
+      <c r="D78" s="129" t="s">
         <v>147</v>
       </c>
-      <c r="E78" s="121"/>
-      <c r="F78" s="121"/>
+      <c r="E78" s="130"/>
+      <c r="F78" s="130"/>
       <c r="G78" s="117"/>
       <c r="H78" s="114">
         <v>43749</v>
@@ -7360,11 +7457,11 @@
       <c r="C79" s="99" t="s">
         <v>179</v>
       </c>
-      <c r="D79" s="120" t="s">
+      <c r="D79" s="129" t="s">
         <v>147</v>
       </c>
-      <c r="E79" s="121"/>
-      <c r="F79" s="121"/>
+      <c r="E79" s="130"/>
+      <c r="F79" s="130"/>
       <c r="G79" s="117"/>
       <c r="H79" s="114">
         <v>43749</v>
@@ -7384,11 +7481,11 @@
       <c r="C80" s="99" t="s">
         <v>180</v>
       </c>
-      <c r="D80" s="120" t="s">
+      <c r="D80" s="129" t="s">
         <v>124</v>
       </c>
-      <c r="E80" s="121"/>
-      <c r="F80" s="121"/>
+      <c r="E80" s="130"/>
+      <c r="F80" s="130"/>
       <c r="G80" s="117"/>
       <c r="H80" s="114">
         <v>43749</v>
@@ -7399,11 +7496,11 @@
       <c r="J80" s="85"/>
     </row>
     <row r="81" spans="1:10" s="4" customFormat="1" ht="12.75" outlineLevel="1">
-      <c r="A81" s="123" t="s">
-        <v>220</v>
-      </c>
-      <c r="B81" s="124"/>
-      <c r="C81" s="124"/>
+      <c r="A81" s="127" t="s">
+        <v>218</v>
+      </c>
+      <c r="B81" s="128"/>
+      <c r="C81" s="128"/>
       <c r="D81" s="108"/>
       <c r="E81" s="108"/>
       <c r="F81" s="108"/>
@@ -7412,101 +7509,101 @@
       <c r="I81" s="115"/>
       <c r="J81" s="116"/>
     </row>
-    <row r="82" spans="1:10" s="171" customFormat="1" ht="27" customHeight="1" outlineLevel="1">
-      <c r="A82" s="163" t="s">
+    <row r="82" spans="1:10" s="189" customFormat="1" ht="27" customHeight="1" outlineLevel="1">
+      <c r="A82" s="182" t="s">
         <v>205</v>
       </c>
-      <c r="B82" s="172" t="s">
+      <c r="B82" s="183" t="s">
+        <v>224</v>
+      </c>
+      <c r="C82" s="184" t="s">
+        <v>209</v>
+      </c>
+      <c r="D82" s="185" t="s">
+        <v>225</v>
+      </c>
+      <c r="E82" s="186"/>
+      <c r="F82" s="186"/>
+      <c r="G82" s="187"/>
+      <c r="H82" s="168">
+        <v>43749</v>
+      </c>
+      <c r="I82" s="184" t="s">
+        <v>10</v>
+      </c>
+      <c r="J82" s="188"/>
+    </row>
+    <row r="83" spans="1:10" s="171" customFormat="1" ht="27" customHeight="1" outlineLevel="1">
+      <c r="A83" s="162" t="s">
+        <v>219</v>
+      </c>
+      <c r="B83" s="181" t="s">
         <v>206</v>
       </c>
-      <c r="C82" s="169" t="s">
+      <c r="C83" s="169" t="s">
+        <v>210</v>
+      </c>
+      <c r="D83" s="165" t="s">
+        <v>226</v>
+      </c>
+      <c r="E83" s="166"/>
+      <c r="F83" s="166"/>
+      <c r="G83" s="167"/>
+      <c r="H83" s="168">
+        <v>43749</v>
+      </c>
+      <c r="I83" s="169" t="s">
+        <v>227</v>
+      </c>
+      <c r="J83" s="170"/>
+    </row>
+    <row r="84" spans="1:10" s="124" customFormat="1" ht="27" customHeight="1" outlineLevel="1">
+      <c r="A84" s="118" t="s">
+        <v>220</v>
+      </c>
+      <c r="B84" s="119" t="s">
+        <v>206</v>
+      </c>
+      <c r="C84" s="120" t="s">
         <v>211</v>
       </c>
-      <c r="D82" s="166" t="s">
-        <v>209</v>
-      </c>
-      <c r="E82" s="167"/>
-      <c r="F82" s="167"/>
-      <c r="G82" s="168"/>
-      <c r="H82" s="159">
-        <v>43749</v>
-      </c>
-      <c r="I82" s="169" t="s">
-        <v>10</v>
-      </c>
-      <c r="J82" s="170"/>
-    </row>
-    <row r="83" spans="1:10" s="171" customFormat="1" ht="27" customHeight="1" outlineLevel="1">
-      <c r="A83" s="163" t="s">
-        <v>221</v>
-      </c>
-      <c r="B83" s="172" t="s">
-        <v>206</v>
-      </c>
-      <c r="C83" s="169" t="s">
-        <v>212</v>
-      </c>
-      <c r="D83" s="166" t="s">
-        <v>209</v>
-      </c>
-      <c r="E83" s="167"/>
-      <c r="F83" s="167"/>
-      <c r="G83" s="168"/>
-      <c r="H83" s="159">
-        <v>43749</v>
-      </c>
-      <c r="I83" s="169" t="s">
-        <v>10</v>
-      </c>
-      <c r="J83" s="170"/>
-    </row>
-    <row r="84" spans="1:10" s="181" customFormat="1" ht="27" customHeight="1" outlineLevel="1">
-      <c r="A84" s="173" t="s">
-        <v>222</v>
-      </c>
-      <c r="B84" s="174" t="s">
-        <v>206</v>
-      </c>
-      <c r="C84" s="175" t="s">
-        <v>213</v>
-      </c>
-      <c r="D84" s="176" t="s">
-        <v>210</v>
-      </c>
-      <c r="E84" s="177"/>
-      <c r="F84" s="177"/>
-      <c r="G84" s="178"/>
-      <c r="H84" s="179">
+      <c r="D84" s="131" t="s">
+        <v>208</v>
+      </c>
+      <c r="E84" s="132"/>
+      <c r="F84" s="132"/>
+      <c r="G84" s="121"/>
+      <c r="H84" s="122">
         <v>43749</v>
       </c>
       <c r="I84" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="J84" s="180"/>
-    </row>
-    <row r="85" spans="1:10" s="181" customFormat="1" ht="27" customHeight="1" outlineLevel="1">
-      <c r="A85" s="173" t="s">
-        <v>223</v>
-      </c>
-      <c r="B85" s="174" t="s">
+      <c r="J84" s="123"/>
+    </row>
+    <row r="85" spans="1:10" s="124" customFormat="1" ht="27" customHeight="1" outlineLevel="1">
+      <c r="A85" s="118" t="s">
+        <v>221</v>
+      </c>
+      <c r="B85" s="119" t="s">
         <v>206</v>
       </c>
-      <c r="C85" s="175" t="s">
-        <v>214</v>
-      </c>
-      <c r="D85" s="176" t="s">
-        <v>215</v>
-      </c>
-      <c r="E85" s="177"/>
-      <c r="F85" s="177"/>
-      <c r="G85" s="178"/>
-      <c r="H85" s="179">
+      <c r="C85" s="120" t="s">
+        <v>212</v>
+      </c>
+      <c r="D85" s="131" t="s">
+        <v>213</v>
+      </c>
+      <c r="E85" s="132"/>
+      <c r="F85" s="132"/>
+      <c r="G85" s="121"/>
+      <c r="H85" s="122">
         <v>43749</v>
       </c>
       <c r="I85" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="J85" s="180"/>
+      <c r="J85" s="123"/>
     </row>
     <row r="86" spans="1:10" ht="12" customHeight="1"/>
     <row r="87" spans="1:10" ht="12" customHeight="1"/>
@@ -7545,45 +7642,39 @@
     <row r="120" ht="12" customHeight="1"/>
   </sheetData>
   <mergeCells count="92">
-    <mergeCell ref="A81:C81"/>
-    <mergeCell ref="D82:F82"/>
-    <mergeCell ref="D83:F83"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="D66:F66"/>
-    <mergeCell ref="D70:F70"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="D62:F62"/>
-    <mergeCell ref="D63:F63"/>
-    <mergeCell ref="D64:F64"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="D54:F54"/>
-    <mergeCell ref="D53:F53"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D79:F79"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D75:F75"/>
+    <mergeCell ref="D76:F76"/>
+    <mergeCell ref="D77:F77"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D71:F71"/>
+    <mergeCell ref="D72:F72"/>
+    <mergeCell ref="D73:F73"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="D78:F78"/>
+    <mergeCell ref="B1:D2"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="I9:I10"/>
     <mergeCell ref="D85:F85"/>
     <mergeCell ref="D84:F84"/>
     <mergeCell ref="D21:F21"/>
@@ -7599,44 +7690,50 @@
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="D14:F14"/>
     <mergeCell ref="D15:F15"/>
-    <mergeCell ref="B1:D2"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="I9:I10"/>
     <mergeCell ref="D80:F80"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="A81:C81"/>
+    <mergeCell ref="D82:F82"/>
+    <mergeCell ref="D83:F83"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="D66:F66"/>
+    <mergeCell ref="D70:F70"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="D64:F64"/>
     <mergeCell ref="D65:F65"/>
     <mergeCell ref="D69:F69"/>
     <mergeCell ref="D68:F68"/>
     <mergeCell ref="D67:F67"/>
-    <mergeCell ref="D71:F71"/>
-    <mergeCell ref="D72:F72"/>
-    <mergeCell ref="D73:F73"/>
-    <mergeCell ref="D74:F74"/>
-    <mergeCell ref="D78:F78"/>
-    <mergeCell ref="D79:F79"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D75:F75"/>
-    <mergeCell ref="D76:F76"/>
-    <mergeCell ref="D77:F77"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D27:F27"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7649,7 +7746,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -7751,11 +7848,11 @@
       </c>
       <c r="D8" s="76">
         <f>'Export all carrier choices'!B6</f>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E8" s="75">
         <f>'Export all carrier choices'!B7</f>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F8" s="75">
         <f>'Export all carrier choices'!D6</f>
@@ -7783,11 +7880,11 @@
       </c>
       <c r="D10" s="61">
         <f>SUM(D6:D9)</f>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E10" s="61">
         <f>SUM(E6:E9)</f>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F10" s="61">
         <f>SUM(F6:F9)</f>
@@ -7816,7 +7913,7 @@
       <c r="D12" s="19"/>
       <c r="E12" s="24">
         <f>(D10+E10)*100/G10</f>
-        <v>100</v>
+        <v>98.529411764705884</v>
       </c>
       <c r="F12" s="19" t="s">
         <v>27</v>
@@ -7832,7 +7929,7 @@
       <c r="D13" s="19"/>
       <c r="E13" s="24">
         <f>D10*100/G10</f>
-        <v>67.647058823529406</v>
+        <v>69.117647058823536</v>
       </c>
       <c r="F13" s="19" t="s">
         <v>27</v>

--- a/test-case-example.xlsx
+++ b/test-case-example.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="237">
   <si>
     <t>TC16</t>
   </si>
@@ -1558,6 +1558,114 @@
         <family val="2"/>
       </rPr>
       <t>thông báo "Lỗi định dạng nhậpl".</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kiểm tra chức năng </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Thêm mới</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Thấy </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>cảnh báo "lỗi nhập".</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Thấy </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>cảnh báo "Giá vé không hợp lệ! Vui lòng kiểm tra lại".</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Thấy </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>cảnh báo "Điểm đi và điểm đến không được trùng nhau! Vui lòng kiểm tra lại".</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Thấy </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>cảnh báo "Ngày đi không hợp lệ! Vui lòng kiểm tra lại".</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Thấy </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>cảnh báo "Giờ khởi hành không hợp lệ! Vui lòng kiểm tra lại".</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Thấy </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>chuyến được chọn bị xóa khỏi danh sách.</t>
     </r>
   </si>
 </sst>
@@ -2277,7 +2385,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="190">
+  <cellXfs count="201">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -2595,6 +2703,75 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="24" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2613,6 +2790,57 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2622,9 +2850,6 @@
     <xf numFmtId="0" fontId="15" fillId="5" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2640,9 +2865,6 @@
     <xf numFmtId="0" fontId="15" fillId="5" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2661,88 +2883,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="24" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="25" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2751,44 +2901,35 @@
     <xf numFmtId="0" fontId="25" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="24" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -5465,11 +5606,11 @@
       <c r="B6" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="125" t="s">
+      <c r="C6" s="148" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="125"/>
-      <c r="E6" s="126"/>
+      <c r="D6" s="148"/>
+      <c r="E6" s="149"/>
       <c r="F6" s="26"/>
       <c r="G6" s="26"/>
     </row>
@@ -5478,11 +5619,11 @@
       <c r="B7" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="125">
+      <c r="C7" s="148">
         <v>0</v>
       </c>
-      <c r="D7" s="125"/>
-      <c r="E7" s="126"/>
+      <c r="D7" s="148"/>
+      <c r="E7" s="149"/>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
     </row>
@@ -5683,10 +5824,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K120"/>
+  <dimension ref="A1:K121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52:F52"/>
+    <sheetView tabSelected="1" topLeftCell="B37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40:F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" outlineLevelRow="1"/>
@@ -5705,9 +5846,9 @@
       <c r="A1" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
+      <c r="B1" s="154"/>
+      <c r="C1" s="154"/>
+      <c r="D1" s="154"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
@@ -5718,9 +5859,9 @@
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" ht="11.25" customHeight="1" thickBot="1">
       <c r="A2" s="7"/>
-      <c r="B2" s="148"/>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
+      <c r="B2" s="155"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
@@ -5733,49 +5874,49 @@
       <c r="A3" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="125" t="s">
+      <c r="B3" s="148" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="125"/>
-      <c r="D3" s="126"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="149"/>
       <c r="E3" s="68"/>
       <c r="F3" s="68"/>
       <c r="G3" s="68"/>
-      <c r="H3" s="155"/>
-      <c r="I3" s="155"/>
-      <c r="J3" s="155"/>
+      <c r="H3" s="162"/>
+      <c r="I3" s="162"/>
+      <c r="J3" s="162"/>
       <c r="K3" s="9"/>
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1" ht="12.75">
       <c r="A4" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="156" t="s">
+      <c r="B4" s="164" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="157"/>
-      <c r="D4" s="158"/>
+      <c r="C4" s="165"/>
+      <c r="D4" s="166"/>
       <c r="E4" s="68"/>
       <c r="F4" s="68"/>
       <c r="G4" s="68"/>
-      <c r="H4" s="155"/>
-      <c r="I4" s="155"/>
-      <c r="J4" s="155"/>
+      <c r="H4" s="162"/>
+      <c r="I4" s="162"/>
+      <c r="J4" s="162"/>
       <c r="K4" s="9"/>
     </row>
-    <row r="5" spans="1:11" s="81" customFormat="1" ht="25.5">
+    <row r="5" spans="1:11" s="81" customFormat="1" ht="12.75">
       <c r="A5" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="150"/>
-      <c r="C5" s="151"/>
-      <c r="D5" s="152"/>
+      <c r="B5" s="157"/>
+      <c r="C5" s="158"/>
+      <c r="D5" s="159"/>
       <c r="E5" s="79"/>
       <c r="F5" s="79"/>
       <c r="G5" s="79"/>
-      <c r="H5" s="154"/>
-      <c r="I5" s="154"/>
-      <c r="J5" s="154"/>
+      <c r="H5" s="161"/>
+      <c r="I5" s="161"/>
+      <c r="J5" s="161"/>
       <c r="K5" s="80"/>
     </row>
     <row r="6" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1">
@@ -5783,22 +5924,22 @@
         <v>39</v>
       </c>
       <c r="B6" s="92">
-        <f>COUNTIF(I12:I85,"Pass")</f>
-        <v>47</v>
+        <f>COUNTIF(I12:I86,"Pass")</f>
+        <v>56</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>40</v>
       </c>
       <c r="D6" s="13">
-        <f>COUNTIF(I10:I801,"Pending")</f>
+        <f>COUNTIF(I10:I802,"Pending")</f>
         <v>0</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="155"/>
-      <c r="I6" s="155"/>
-      <c r="J6" s="155"/>
+      <c r="H6" s="162"/>
+      <c r="I6" s="162"/>
+      <c r="J6" s="162"/>
       <c r="K6" s="9"/>
     </row>
     <row r="7" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1" thickBot="1">
@@ -5806,29 +5947,29 @@
         <v>10</v>
       </c>
       <c r="B7" s="93">
-        <f>COUNTIF(I12:I85,"Fail")</f>
-        <v>20</v>
+        <f>COUNTIF(I12:I86,"Fail")</f>
+        <v>12</v>
       </c>
       <c r="C7" s="30" t="s">
         <v>79</v>
       </c>
       <c r="D7" s="66">
-        <f>COUNTA(A12:A85) -6</f>
-        <v>68</v>
+        <f>COUNTA(A12:A86) -6</f>
+        <v>69</v>
       </c>
       <c r="E7" s="69"/>
       <c r="F7" s="69"/>
       <c r="G7" s="69"/>
-      <c r="H7" s="155"/>
-      <c r="I7" s="155"/>
-      <c r="J7" s="155"/>
+      <c r="H7" s="162"/>
+      <c r="I7" s="162"/>
+      <c r="J7" s="162"/>
       <c r="K7" s="9"/>
     </row>
     <row r="8" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="149"/>
-      <c r="B8" s="149"/>
-      <c r="C8" s="149"/>
-      <c r="D8" s="149"/>
+      <c r="A8" s="156"/>
+      <c r="B8" s="156"/>
+      <c r="C8" s="156"/>
+      <c r="D8" s="156"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
@@ -5838,70 +5979,70 @@
       <c r="K8" s="9"/>
     </row>
     <row r="9" spans="1:11" s="83" customFormat="1" ht="12" customHeight="1">
-      <c r="A9" s="133" t="s">
+      <c r="A9" s="173" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="135" t="s">
+      <c r="B9" s="174" t="s">
         <v>73</v>
       </c>
-      <c r="C9" s="133" t="s">
+      <c r="C9" s="173" t="s">
         <v>74</v>
       </c>
-      <c r="D9" s="137" t="s">
+      <c r="D9" s="176" t="s">
         <v>75</v>
       </c>
-      <c r="E9" s="138"/>
-      <c r="F9" s="138"/>
-      <c r="G9" s="139"/>
-      <c r="H9" s="159" t="s">
+      <c r="E9" s="177"/>
+      <c r="F9" s="177"/>
+      <c r="G9" s="178"/>
+      <c r="H9" s="167" t="s">
         <v>76</v>
       </c>
-      <c r="I9" s="134" t="s">
+      <c r="I9" s="163" t="s">
         <v>77</v>
       </c>
-      <c r="J9" s="134" t="s">
+      <c r="J9" s="163" t="s">
         <v>78</v>
       </c>
       <c r="K9" s="82"/>
     </row>
     <row r="10" spans="1:11" s="71" customFormat="1" ht="12" customHeight="1">
-      <c r="A10" s="134"/>
-      <c r="B10" s="136"/>
-      <c r="C10" s="134"/>
-      <c r="D10" s="140"/>
-      <c r="E10" s="141"/>
-      <c r="F10" s="141"/>
-      <c r="G10" s="142"/>
-      <c r="H10" s="140"/>
-      <c r="I10" s="134"/>
-      <c r="J10" s="134"/>
+      <c r="A10" s="163"/>
+      <c r="B10" s="175"/>
+      <c r="C10" s="163"/>
+      <c r="D10" s="168"/>
+      <c r="E10" s="179"/>
+      <c r="F10" s="179"/>
+      <c r="G10" s="180"/>
+      <c r="H10" s="168"/>
+      <c r="I10" s="163"/>
+      <c r="J10" s="163"/>
       <c r="K10" s="70"/>
     </row>
     <row r="11" spans="1:11" s="84" customFormat="1" ht="15">
-      <c r="A11" s="160"/>
-      <c r="B11" s="160"/>
-      <c r="C11" s="160"/>
-      <c r="D11" s="160"/>
-      <c r="E11" s="160"/>
-      <c r="F11" s="160"/>
-      <c r="G11" s="160"/>
-      <c r="H11" s="160"/>
-      <c r="I11" s="160"/>
-      <c r="J11" s="161"/>
+      <c r="A11" s="169"/>
+      <c r="B11" s="169"/>
+      <c r="C11" s="169"/>
+      <c r="D11" s="169"/>
+      <c r="E11" s="169"/>
+      <c r="F11" s="169"/>
+      <c r="G11" s="169"/>
+      <c r="H11" s="169"/>
+      <c r="I11" s="169"/>
+      <c r="J11" s="170"/>
     </row>
     <row r="12" spans="1:11" s="4" customFormat="1" ht="12.75">
-      <c r="A12" s="127" t="s">
+      <c r="A12" s="150" t="s">
         <v>80</v>
       </c>
-      <c r="B12" s="128"/>
-      <c r="C12" s="128"/>
-      <c r="D12" s="128"/>
-      <c r="E12" s="128"/>
-      <c r="F12" s="128"/>
-      <c r="G12" s="128"/>
-      <c r="H12" s="128"/>
-      <c r="I12" s="128"/>
-      <c r="J12" s="153"/>
+      <c r="B12" s="151"/>
+      <c r="C12" s="151"/>
+      <c r="D12" s="151"/>
+      <c r="E12" s="151"/>
+      <c r="F12" s="151"/>
+      <c r="G12" s="151"/>
+      <c r="H12" s="151"/>
+      <c r="I12" s="151"/>
+      <c r="J12" s="160"/>
     </row>
     <row r="13" spans="1:11" s="4" customFormat="1" ht="51" outlineLevel="1">
       <c r="A13" s="88" t="s">
@@ -5913,11 +6054,11 @@
       <c r="C13" s="87" t="s">
         <v>105</v>
       </c>
-      <c r="D13" s="143" t="s">
+      <c r="D13" s="181" t="s">
         <v>81</v>
       </c>
-      <c r="E13" s="144"/>
-      <c r="F13" s="144"/>
+      <c r="E13" s="182"/>
+      <c r="F13" s="182"/>
       <c r="G13" s="86"/>
       <c r="H13" s="102" t="s">
         <v>84</v>
@@ -5937,11 +6078,11 @@
       <c r="C14" s="87" t="s">
         <v>104</v>
       </c>
-      <c r="D14" s="145" t="s">
+      <c r="D14" s="183" t="s">
         <v>81</v>
       </c>
-      <c r="E14" s="130"/>
-      <c r="F14" s="146"/>
+      <c r="E14" s="153"/>
+      <c r="F14" s="184"/>
       <c r="G14" s="112"/>
       <c r="H14" s="102" t="s">
         <v>84</v>
@@ -5961,11 +6102,11 @@
       <c r="C15" s="87" t="s">
         <v>88</v>
       </c>
-      <c r="D15" s="145" t="s">
+      <c r="D15" s="183" t="s">
         <v>89</v>
       </c>
-      <c r="E15" s="130"/>
-      <c r="F15" s="146"/>
+      <c r="E15" s="153"/>
+      <c r="F15" s="184"/>
       <c r="G15" s="112"/>
       <c r="H15" s="102" t="s">
         <v>84</v>
@@ -5985,26 +6126,26 @@
       <c r="C16" s="87" t="s">
         <v>90</v>
       </c>
-      <c r="D16" s="145" t="s">
+      <c r="D16" s="183" t="s">
         <v>89</v>
       </c>
-      <c r="E16" s="130"/>
-      <c r="F16" s="146"/>
+      <c r="E16" s="153"/>
+      <c r="F16" s="184"/>
       <c r="G16" s="86"/>
       <c r="H16" s="102" t="s">
         <v>84</v>
       </c>
       <c r="I16" s="87" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="J16" s="85"/>
     </row>
     <row r="17" spans="1:10" s="4" customFormat="1" ht="12.75" outlineLevel="1">
-      <c r="A17" s="127" t="s">
+      <c r="A17" s="150" t="s">
         <v>214</v>
       </c>
-      <c r="B17" s="128"/>
-      <c r="C17" s="128"/>
+      <c r="B17" s="151"/>
+      <c r="C17" s="151"/>
       <c r="D17" s="108"/>
       <c r="E17" s="108"/>
       <c r="F17" s="108"/>
@@ -6023,11 +6164,11 @@
       <c r="C18" s="99" t="s">
         <v>99</v>
       </c>
-      <c r="D18" s="129" t="s">
+      <c r="D18" s="152" t="s">
         <v>83</v>
       </c>
-      <c r="E18" s="130"/>
-      <c r="F18" s="130"/>
+      <c r="E18" s="153"/>
+      <c r="F18" s="153"/>
       <c r="G18" s="86"/>
       <c r="H18" s="113" t="s">
         <v>84</v>
@@ -6047,11 +6188,11 @@
       <c r="C19" s="99" t="s">
         <v>98</v>
       </c>
-      <c r="D19" s="129" t="s">
+      <c r="D19" s="152" t="s">
         <v>83</v>
       </c>
-      <c r="E19" s="130"/>
-      <c r="F19" s="130"/>
+      <c r="E19" s="153"/>
+      <c r="F19" s="153"/>
       <c r="G19" s="109"/>
       <c r="H19" s="113" t="s">
         <v>84</v>
@@ -6071,11 +6212,11 @@
       <c r="C20" s="99" t="s">
         <v>97</v>
       </c>
-      <c r="D20" s="129" t="s">
+      <c r="D20" s="152" t="s">
         <v>83</v>
       </c>
-      <c r="E20" s="130"/>
-      <c r="F20" s="130"/>
+      <c r="E20" s="153"/>
+      <c r="F20" s="153"/>
       <c r="G20" s="109"/>
       <c r="H20" s="113" t="s">
         <v>84</v>
@@ -6095,11 +6236,11 @@
       <c r="C21" s="99" t="s">
         <v>96</v>
       </c>
-      <c r="D21" s="129" t="s">
+      <c r="D21" s="152" t="s">
         <v>85</v>
       </c>
-      <c r="E21" s="130"/>
-      <c r="F21" s="130"/>
+      <c r="E21" s="153"/>
+      <c r="F21" s="153"/>
       <c r="G21" s="109"/>
       <c r="H21" s="113" t="s">
         <v>84</v>
@@ -6119,11 +6260,11 @@
       <c r="C22" s="99" t="s">
         <v>106</v>
       </c>
-      <c r="D22" s="129" t="s">
+      <c r="D22" s="152" t="s">
         <v>87</v>
       </c>
-      <c r="E22" s="130"/>
-      <c r="F22" s="130"/>
+      <c r="E22" s="153"/>
+      <c r="F22" s="153"/>
       <c r="G22" s="109"/>
       <c r="H22" s="113" t="s">
         <v>84</v>
@@ -6143,11 +6284,11 @@
       <c r="C23" s="99" t="s">
         <v>107</v>
       </c>
-      <c r="D23" s="129" t="s">
+      <c r="D23" s="152" t="s">
         <v>94</v>
       </c>
-      <c r="E23" s="130"/>
-      <c r="F23" s="130"/>
+      <c r="E23" s="153"/>
+      <c r="F23" s="153"/>
       <c r="G23" s="112"/>
       <c r="H23" s="113" t="s">
         <v>84</v>
@@ -6167,11 +6308,11 @@
       <c r="C24" s="99" t="s">
         <v>108</v>
       </c>
-      <c r="D24" s="129" t="s">
+      <c r="D24" s="152" t="s">
         <v>100</v>
       </c>
-      <c r="E24" s="130"/>
-      <c r="F24" s="130"/>
+      <c r="E24" s="153"/>
+      <c r="F24" s="153"/>
       <c r="G24" s="112"/>
       <c r="H24" s="113" t="s">
         <v>84</v>
@@ -6182,11 +6323,11 @@
       <c r="J24" s="85"/>
     </row>
     <row r="25" spans="1:10" s="4" customFormat="1" ht="12.75" outlineLevel="1">
-      <c r="A25" s="127" t="s">
+      <c r="A25" s="150" t="s">
         <v>215</v>
       </c>
-      <c r="B25" s="128"/>
-      <c r="C25" s="128"/>
+      <c r="B25" s="151"/>
+      <c r="C25" s="151"/>
       <c r="D25" s="108"/>
       <c r="E25" s="108"/>
       <c r="F25" s="108"/>
@@ -6205,11 +6346,11 @@
       <c r="C26" s="99" t="s">
         <v>102</v>
       </c>
-      <c r="D26" s="129" t="s">
+      <c r="D26" s="152" t="s">
         <v>103</v>
       </c>
-      <c r="E26" s="130"/>
-      <c r="F26" s="130"/>
+      <c r="E26" s="153"/>
+      <c r="F26" s="153"/>
       <c r="G26" s="112"/>
       <c r="H26" s="114">
         <v>43596</v>
@@ -6229,11 +6370,11 @@
       <c r="C27" s="99" t="s">
         <v>111</v>
       </c>
-      <c r="D27" s="129" t="s">
+      <c r="D27" s="152" t="s">
         <v>109</v>
       </c>
-      <c r="E27" s="130"/>
-      <c r="F27" s="130"/>
+      <c r="E27" s="153"/>
+      <c r="F27" s="153"/>
       <c r="G27" s="112"/>
       <c r="H27" s="114">
         <v>43749</v>
@@ -6253,17 +6394,17 @@
       <c r="C28" s="99" t="s">
         <v>112</v>
       </c>
-      <c r="D28" s="129" t="s">
-        <v>103</v>
-      </c>
-      <c r="E28" s="130"/>
-      <c r="F28" s="130"/>
+      <c r="D28" s="152" t="s">
+        <v>235</v>
+      </c>
+      <c r="E28" s="153"/>
+      <c r="F28" s="153"/>
       <c r="G28" s="117"/>
       <c r="H28" s="114">
         <v>43749</v>
       </c>
       <c r="I28" s="87" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="J28" s="85"/>
     </row>
@@ -6277,11 +6418,11 @@
       <c r="C29" s="99" t="s">
         <v>113</v>
       </c>
-      <c r="D29" s="129" t="s">
+      <c r="D29" s="152" t="s">
         <v>109</v>
       </c>
-      <c r="E29" s="130"/>
-      <c r="F29" s="130"/>
+      <c r="E29" s="153"/>
+      <c r="F29" s="153"/>
       <c r="G29" s="117"/>
       <c r="H29" s="114">
         <v>43749</v>
@@ -6291,29 +6432,29 @@
       </c>
       <c r="J29" s="85"/>
     </row>
-    <row r="30" spans="1:10" s="4" customFormat="1" ht="88.5" customHeight="1" outlineLevel="1">
-      <c r="A30" s="88" t="s">
+    <row r="30" spans="1:10" s="199" customFormat="1" ht="88.5" customHeight="1" outlineLevel="1">
+      <c r="A30" s="191" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="98" t="s">
-        <v>101</v>
-      </c>
-      <c r="C30" s="99" t="s">
+      <c r="B30" s="192" t="s">
+        <v>230</v>
+      </c>
+      <c r="C30" s="193" t="s">
         <v>111</v>
       </c>
-      <c r="D30" s="129" t="s">
-        <v>103</v>
-      </c>
-      <c r="E30" s="130"/>
-      <c r="F30" s="130"/>
-      <c r="G30" s="117"/>
+      <c r="D30" s="194" t="s">
+        <v>231</v>
+      </c>
+      <c r="E30" s="195"/>
+      <c r="F30" s="195"/>
+      <c r="G30" s="196"/>
       <c r="H30" s="114">
         <v>43749</v>
       </c>
-      <c r="I30" s="87" t="s">
+      <c r="I30" s="197" t="s">
         <v>10</v>
       </c>
-      <c r="J30" s="85"/>
+      <c r="J30" s="198"/>
     </row>
     <row r="31" spans="1:10" s="4" customFormat="1" ht="92.25" customHeight="1" outlineLevel="1">
       <c r="A31" s="88" t="s">
@@ -6325,17 +6466,17 @@
       <c r="C31" s="99" t="s">
         <v>114</v>
       </c>
-      <c r="D31" s="129" t="s">
-        <v>103</v>
-      </c>
-      <c r="E31" s="130"/>
-      <c r="F31" s="130"/>
+      <c r="D31" s="152" t="s">
+        <v>234</v>
+      </c>
+      <c r="E31" s="153"/>
+      <c r="F31" s="153"/>
       <c r="G31" s="117"/>
       <c r="H31" s="114">
         <v>43749</v>
       </c>
       <c r="I31" s="87" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="J31" s="85"/>
     </row>
@@ -6349,17 +6490,17 @@
       <c r="C32" s="99" t="s">
         <v>115</v>
       </c>
-      <c r="D32" s="129" t="s">
-        <v>103</v>
-      </c>
-      <c r="E32" s="130"/>
-      <c r="F32" s="130"/>
+      <c r="D32" s="152" t="s">
+        <v>233</v>
+      </c>
+      <c r="E32" s="153"/>
+      <c r="F32" s="153"/>
       <c r="G32" s="117"/>
       <c r="H32" s="114">
         <v>43749</v>
       </c>
       <c r="I32" s="87" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="J32" s="85"/>
     </row>
@@ -6373,17 +6514,17 @@
       <c r="C33" s="99" t="s">
         <v>116</v>
       </c>
-      <c r="D33" s="129" t="s">
-        <v>103</v>
-      </c>
-      <c r="E33" s="130"/>
-      <c r="F33" s="130"/>
-      <c r="G33" s="117"/>
+      <c r="D33" s="152" t="s">
+        <v>232</v>
+      </c>
+      <c r="E33" s="200"/>
+      <c r="F33" s="200"/>
+      <c r="G33" s="125"/>
       <c r="H33" s="114">
         <v>43749</v>
       </c>
       <c r="I33" s="87" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="J33" s="85"/>
     </row>
@@ -6397,17 +6538,17 @@
       <c r="C34" s="99" t="s">
         <v>117</v>
       </c>
-      <c r="D34" s="129" t="s">
-        <v>103</v>
-      </c>
-      <c r="E34" s="130"/>
-      <c r="F34" s="130"/>
+      <c r="D34" s="152" t="s">
+        <v>235</v>
+      </c>
+      <c r="E34" s="153"/>
+      <c r="F34" s="153"/>
       <c r="G34" s="117"/>
       <c r="H34" s="114">
         <v>43749</v>
       </c>
       <c r="I34" s="87" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="J34" s="85"/>
     </row>
@@ -6421,60 +6562,60 @@
       <c r="C35" s="99" t="s">
         <v>118</v>
       </c>
-      <c r="D35" s="129" t="s">
-        <v>103</v>
-      </c>
-      <c r="E35" s="130"/>
-      <c r="F35" s="130"/>
+      <c r="D35" s="152" t="s">
+        <v>234</v>
+      </c>
+      <c r="E35" s="153"/>
+      <c r="F35" s="153"/>
       <c r="G35" s="117"/>
       <c r="H35" s="114">
         <v>43749</v>
       </c>
       <c r="I35" s="87" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="J35" s="85"/>
     </row>
-    <row r="36" spans="1:10" s="4" customFormat="1" ht="39.75" customHeight="1" outlineLevel="1">
+    <row r="36" spans="1:10" s="4" customFormat="1" ht="87.75" customHeight="1" outlineLevel="1">
       <c r="A36" s="88" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B36" s="98" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C36" s="99" t="s">
-        <v>119</v>
-      </c>
-      <c r="D36" s="129" t="s">
-        <v>103</v>
-      </c>
-      <c r="E36" s="130"/>
-      <c r="F36" s="130"/>
-      <c r="G36" s="117"/>
+        <v>115</v>
+      </c>
+      <c r="D36" s="152" t="s">
+        <v>233</v>
+      </c>
+      <c r="E36" s="200"/>
+      <c r="F36" s="200"/>
+      <c r="G36" s="125"/>
       <c r="H36" s="114">
         <v>43749</v>
       </c>
       <c r="I36" s="87" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="J36" s="85"/>
     </row>
-    <row r="37" spans="1:10" s="4" customFormat="1" ht="90.75" customHeight="1" outlineLevel="1">
+    <row r="37" spans="1:10" s="4" customFormat="1" ht="39.75" customHeight="1" outlineLevel="1">
       <c r="A37" s="88" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B37" s="98" t="s">
         <v>110</v>
       </c>
       <c r="C37" s="99" t="s">
-        <v>121</v>
-      </c>
-      <c r="D37" s="129" t="s">
-        <v>120</v>
-      </c>
-      <c r="E37" s="130"/>
-      <c r="F37" s="130"/>
-      <c r="G37" s="117"/>
+        <v>119</v>
+      </c>
+      <c r="D37" s="152" t="s">
+        <v>232</v>
+      </c>
+      <c r="E37" s="200"/>
+      <c r="F37" s="200"/>
+      <c r="G37" s="125"/>
       <c r="H37" s="114">
         <v>43749</v>
       </c>
@@ -6483,21 +6624,21 @@
       </c>
       <c r="J37" s="85"/>
     </row>
-    <row r="38" spans="1:10" s="4" customFormat="1" ht="39.75" customHeight="1" outlineLevel="1">
+    <row r="38" spans="1:10" s="4" customFormat="1" ht="90.75" customHeight="1" outlineLevel="1">
       <c r="A38" s="88" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B38" s="98" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="C38" s="99" t="s">
-        <v>123</v>
-      </c>
-      <c r="D38" s="129" t="s">
-        <v>124</v>
-      </c>
-      <c r="E38" s="130"/>
-      <c r="F38" s="130"/>
+        <v>121</v>
+      </c>
+      <c r="D38" s="152" t="s">
+        <v>120</v>
+      </c>
+      <c r="E38" s="153"/>
+      <c r="F38" s="153"/>
       <c r="G38" s="117"/>
       <c r="H38" s="114">
         <v>43749</v>
@@ -6509,81 +6650,81 @@
     </row>
     <row r="39" spans="1:10" s="4" customFormat="1" ht="39.75" customHeight="1" outlineLevel="1">
       <c r="A39" s="88" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B39" s="98" t="s">
         <v>122</v>
       </c>
       <c r="C39" s="99" t="s">
-        <v>125</v>
-      </c>
-      <c r="D39" s="129" t="s">
-        <v>126</v>
-      </c>
-      <c r="E39" s="130"/>
-      <c r="F39" s="130"/>
+        <v>123</v>
+      </c>
+      <c r="D39" s="152" t="s">
+        <v>236</v>
+      </c>
+      <c r="E39" s="153"/>
+      <c r="F39" s="153"/>
       <c r="G39" s="117"/>
       <c r="H39" s="114">
         <v>43749</v>
       </c>
       <c r="I39" s="87" t="s">
+        <v>39</v>
+      </c>
+      <c r="J39" s="85"/>
+    </row>
+    <row r="40" spans="1:10" s="4" customFormat="1" ht="39.75" customHeight="1" outlineLevel="1">
+      <c r="A40" s="88" t="s">
+        <v>58</v>
+      </c>
+      <c r="B40" s="98" t="s">
+        <v>122</v>
+      </c>
+      <c r="C40" s="99" t="s">
+        <v>125</v>
+      </c>
+      <c r="D40" s="152" t="s">
+        <v>126</v>
+      </c>
+      <c r="E40" s="153"/>
+      <c r="F40" s="153"/>
+      <c r="G40" s="117"/>
+      <c r="H40" s="114">
+        <v>43749</v>
+      </c>
+      <c r="I40" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="J39" s="85"/>
-    </row>
-    <row r="40" spans="1:10" s="4" customFormat="1" ht="12.75" outlineLevel="1">
-      <c r="A40" s="127" t="s">
+      <c r="J40" s="85"/>
+    </row>
+    <row r="41" spans="1:10" s="4" customFormat="1" ht="12.75" outlineLevel="1">
+      <c r="A41" s="150" t="s">
         <v>216</v>
       </c>
-      <c r="B40" s="128"/>
-      <c r="C40" s="128"/>
-      <c r="D40" s="108"/>
-      <c r="E40" s="108"/>
-      <c r="F40" s="108"/>
-      <c r="G40" s="115"/>
-      <c r="H40" s="115"/>
-      <c r="I40" s="115"/>
-      <c r="J40" s="116"/>
-    </row>
-    <row r="41" spans="1:10" s="4" customFormat="1" ht="90.75" customHeight="1" outlineLevel="1">
-      <c r="A41" s="88" t="s">
+      <c r="B41" s="151"/>
+      <c r="C41" s="151"/>
+      <c r="D41" s="108"/>
+      <c r="E41" s="108"/>
+      <c r="F41" s="108"/>
+      <c r="G41" s="115"/>
+      <c r="H41" s="115"/>
+      <c r="I41" s="115"/>
+      <c r="J41" s="116"/>
+    </row>
+    <row r="42" spans="1:10" s="4" customFormat="1" ht="90.75" customHeight="1" outlineLevel="1">
+      <c r="A42" s="88" t="s">
         <v>59</v>
-      </c>
-      <c r="B41" s="98" t="s">
-        <v>127</v>
-      </c>
-      <c r="C41" s="99" t="s">
-        <v>154</v>
-      </c>
-      <c r="D41" s="129" t="s">
-        <v>131</v>
-      </c>
-      <c r="E41" s="130"/>
-      <c r="F41" s="130"/>
-      <c r="G41" s="117"/>
-      <c r="H41" s="114">
-        <v>43749</v>
-      </c>
-      <c r="I41" s="87" t="s">
-        <v>39</v>
-      </c>
-      <c r="J41" s="85"/>
-    </row>
-    <row r="42" spans="1:10" s="4" customFormat="1" ht="63" customHeight="1" outlineLevel="1">
-      <c r="A42" s="88" t="s">
-        <v>60</v>
       </c>
       <c r="B42" s="98" t="s">
         <v>127</v>
       </c>
       <c r="C42" s="99" t="s">
-        <v>129</v>
-      </c>
-      <c r="D42" s="129" t="s">
-        <v>128</v>
-      </c>
-      <c r="E42" s="130"/>
-      <c r="F42" s="130"/>
+        <v>154</v>
+      </c>
+      <c r="D42" s="152" t="s">
+        <v>131</v>
+      </c>
+      <c r="E42" s="153"/>
+      <c r="F42" s="153"/>
       <c r="G42" s="117"/>
       <c r="H42" s="114">
         <v>43749</v>
@@ -6595,19 +6736,19 @@
     </row>
     <row r="43" spans="1:10" s="4" customFormat="1" ht="63" customHeight="1" outlineLevel="1">
       <c r="A43" s="88" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B43" s="98" t="s">
         <v>127</v>
       </c>
       <c r="C43" s="99" t="s">
-        <v>130</v>
-      </c>
-      <c r="D43" s="129" t="s">
-        <v>131</v>
-      </c>
-      <c r="E43" s="130"/>
-      <c r="F43" s="130"/>
+        <v>129</v>
+      </c>
+      <c r="D43" s="152" t="s">
+        <v>128</v>
+      </c>
+      <c r="E43" s="153"/>
+      <c r="F43" s="153"/>
       <c r="G43" s="117"/>
       <c r="H43" s="114">
         <v>43749</v>
@@ -6619,19 +6760,19 @@
     </row>
     <row r="44" spans="1:10" s="4" customFormat="1" ht="63" customHeight="1" outlineLevel="1">
       <c r="A44" s="88" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B44" s="98" t="s">
         <v>127</v>
       </c>
       <c r="C44" s="99" t="s">
-        <v>136</v>
-      </c>
-      <c r="D44" s="129" t="s">
+        <v>130</v>
+      </c>
+      <c r="D44" s="152" t="s">
         <v>131</v>
       </c>
-      <c r="E44" s="130"/>
-      <c r="F44" s="130"/>
+      <c r="E44" s="153"/>
+      <c r="F44" s="153"/>
       <c r="G44" s="117"/>
       <c r="H44" s="114">
         <v>43749</v>
@@ -6643,19 +6784,19 @@
     </row>
     <row r="45" spans="1:10" s="4" customFormat="1" ht="63" customHeight="1" outlineLevel="1">
       <c r="A45" s="88" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B45" s="98" t="s">
         <v>127</v>
       </c>
       <c r="C45" s="99" t="s">
-        <v>137</v>
-      </c>
-      <c r="D45" s="129" t="s">
+        <v>136</v>
+      </c>
+      <c r="D45" s="152" t="s">
         <v>131</v>
       </c>
-      <c r="E45" s="130"/>
-      <c r="F45" s="130"/>
+      <c r="E45" s="153"/>
+      <c r="F45" s="153"/>
       <c r="G45" s="117"/>
       <c r="H45" s="114">
         <v>43749</v>
@@ -6667,19 +6808,19 @@
     </row>
     <row r="46" spans="1:10" s="4" customFormat="1" ht="63" customHeight="1" outlineLevel="1">
       <c r="A46" s="88" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B46" s="98" t="s">
         <v>127</v>
       </c>
       <c r="C46" s="99" t="s">
-        <v>138</v>
-      </c>
-      <c r="D46" s="129" t="s">
+        <v>137</v>
+      </c>
+      <c r="D46" s="152" t="s">
         <v>131</v>
       </c>
-      <c r="E46" s="130"/>
-      <c r="F46" s="130"/>
+      <c r="E46" s="153"/>
+      <c r="F46" s="153"/>
       <c r="G46" s="117"/>
       <c r="H46" s="114">
         <v>43749</v>
@@ -6691,67 +6832,67 @@
     </row>
     <row r="47" spans="1:10" s="4" customFormat="1" ht="63" customHeight="1" outlineLevel="1">
       <c r="A47" s="88" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B47" s="98" t="s">
         <v>127</v>
       </c>
       <c r="C47" s="99" t="s">
-        <v>132</v>
-      </c>
-      <c r="D47" s="129" t="s">
-        <v>133</v>
-      </c>
-      <c r="E47" s="130"/>
-      <c r="F47" s="130"/>
+        <v>138</v>
+      </c>
+      <c r="D47" s="152" t="s">
+        <v>131</v>
+      </c>
+      <c r="E47" s="153"/>
+      <c r="F47" s="153"/>
       <c r="G47" s="117"/>
       <c r="H47" s="114">
         <v>43749</v>
       </c>
       <c r="I47" s="87" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="J47" s="85"/>
     </row>
-    <row r="48" spans="1:10" s="4" customFormat="1" ht="27" customHeight="1" outlineLevel="1">
+    <row r="48" spans="1:10" s="4" customFormat="1" ht="63" customHeight="1" outlineLevel="1">
       <c r="A48" s="88" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B48" s="98" t="s">
         <v>127</v>
       </c>
       <c r="C48" s="99" t="s">
-        <v>134</v>
-      </c>
-      <c r="D48" s="129" t="s">
-        <v>135</v>
-      </c>
-      <c r="E48" s="130"/>
-      <c r="F48" s="130"/>
+        <v>132</v>
+      </c>
+      <c r="D48" s="152" t="s">
+        <v>133</v>
+      </c>
+      <c r="E48" s="153"/>
+      <c r="F48" s="153"/>
       <c r="G48" s="117"/>
       <c r="H48" s="114">
         <v>43749</v>
       </c>
       <c r="I48" s="87" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="J48" s="85"/>
     </row>
-    <row r="49" spans="1:10" s="4" customFormat="1" ht="41.25" customHeight="1" outlineLevel="1">
+    <row r="49" spans="1:10" s="4" customFormat="1" ht="27" customHeight="1" outlineLevel="1">
       <c r="A49" s="88" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B49" s="98" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C49" s="99" t="s">
-        <v>140</v>
-      </c>
-      <c r="D49" s="129" t="s">
-        <v>141</v>
-      </c>
-      <c r="E49" s="130"/>
-      <c r="F49" s="130"/>
+        <v>134</v>
+      </c>
+      <c r="D49" s="152" t="s">
+        <v>135</v>
+      </c>
+      <c r="E49" s="153"/>
+      <c r="F49" s="153"/>
       <c r="G49" s="117"/>
       <c r="H49" s="114">
         <v>43749</v>
@@ -6761,45 +6902,45 @@
       </c>
       <c r="J49" s="85"/>
     </row>
-    <row r="50" spans="1:10" s="4" customFormat="1" ht="39" customHeight="1" outlineLevel="1">
+    <row r="50" spans="1:10" s="4" customFormat="1" ht="41.25" customHeight="1" outlineLevel="1">
       <c r="A50" s="88" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B50" s="98" t="s">
         <v>139</v>
       </c>
       <c r="C50" s="99" t="s">
-        <v>142</v>
-      </c>
-      <c r="D50" s="129" t="s">
+        <v>140</v>
+      </c>
+      <c r="D50" s="152" t="s">
         <v>141</v>
       </c>
-      <c r="E50" s="130"/>
-      <c r="F50" s="130"/>
+      <c r="E50" s="153"/>
+      <c r="F50" s="153"/>
       <c r="G50" s="117"/>
       <c r="H50" s="114">
         <v>43749</v>
       </c>
       <c r="I50" s="87" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="J50" s="85"/>
     </row>
-    <row r="51" spans="1:10" s="4" customFormat="1" ht="42.75" customHeight="1" outlineLevel="1">
+    <row r="51" spans="1:10" s="4" customFormat="1" ht="39" customHeight="1" outlineLevel="1">
       <c r="A51" s="88" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B51" s="98" t="s">
         <v>139</v>
       </c>
       <c r="C51" s="99" t="s">
-        <v>143</v>
-      </c>
-      <c r="D51" s="129" t="s">
+        <v>142</v>
+      </c>
+      <c r="D51" s="152" t="s">
         <v>141</v>
       </c>
-      <c r="E51" s="130"/>
-      <c r="F51" s="130"/>
+      <c r="E51" s="153"/>
+      <c r="F51" s="153"/>
       <c r="G51" s="117"/>
       <c r="H51" s="114">
         <v>43749</v>
@@ -6809,69 +6950,69 @@
       </c>
       <c r="J51" s="85"/>
     </row>
-    <row r="52" spans="1:10" s="171" customFormat="1" ht="42.75" customHeight="1" outlineLevel="1">
-      <c r="A52" s="162" t="s">
+    <row r="52" spans="1:10" s="4" customFormat="1" ht="42.75" customHeight="1" outlineLevel="1">
+      <c r="A52" s="88" t="s">
+        <v>69</v>
+      </c>
+      <c r="B52" s="98" t="s">
+        <v>139</v>
+      </c>
+      <c r="C52" s="99" t="s">
+        <v>143</v>
+      </c>
+      <c r="D52" s="152" t="s">
+        <v>141</v>
+      </c>
+      <c r="E52" s="153"/>
+      <c r="F52" s="153"/>
+      <c r="G52" s="117"/>
+      <c r="H52" s="114">
+        <v>43749</v>
+      </c>
+      <c r="I52" s="87" t="s">
+        <v>10</v>
+      </c>
+      <c r="J52" s="85"/>
+    </row>
+    <row r="53" spans="1:10" s="133" customFormat="1" ht="42.75" customHeight="1" outlineLevel="1">
+      <c r="A53" s="126" t="s">
         <v>150</v>
       </c>
-      <c r="B52" s="163" t="s">
+      <c r="B53" s="127" t="s">
         <v>139</v>
       </c>
-      <c r="C52" s="164" t="s">
+      <c r="C53" s="128" t="s">
         <v>144</v>
       </c>
-      <c r="D52" s="165" t="s">
+      <c r="D53" s="185" t="s">
         <v>229</v>
       </c>
-      <c r="E52" s="166"/>
-      <c r="F52" s="166"/>
-      <c r="G52" s="167"/>
-      <c r="H52" s="168">
+      <c r="E53" s="186"/>
+      <c r="F53" s="186"/>
+      <c r="G53" s="129"/>
+      <c r="H53" s="130">
         <v>43749</v>
       </c>
-      <c r="I52" s="169" t="s">
+      <c r="I53" s="131" t="s">
         <v>10</v>
       </c>
-      <c r="J52" s="170"/>
-    </row>
-    <row r="53" spans="1:10" s="4" customFormat="1" ht="40.5" customHeight="1" outlineLevel="1">
-      <c r="A53" s="88" t="s">
+      <c r="J53" s="132"/>
+    </row>
+    <row r="54" spans="1:10" s="4" customFormat="1" ht="40.5" customHeight="1" outlineLevel="1">
+      <c r="A54" s="88" t="s">
         <v>151</v>
-      </c>
-      <c r="B53" s="98" t="s">
-        <v>139</v>
-      </c>
-      <c r="C53" s="99" t="s">
-        <v>145</v>
-      </c>
-      <c r="D53" s="129" t="s">
-        <v>173</v>
-      </c>
-      <c r="E53" s="130"/>
-      <c r="F53" s="130"/>
-      <c r="G53" s="117"/>
-      <c r="H53" s="114">
-        <v>43749</v>
-      </c>
-      <c r="I53" s="87" t="s">
-        <v>39</v>
-      </c>
-      <c r="J53" s="85"/>
-    </row>
-    <row r="54" spans="1:10" s="4" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
-      <c r="A54" s="88" t="s">
-        <v>152</v>
       </c>
       <c r="B54" s="98" t="s">
         <v>139</v>
       </c>
       <c r="C54" s="99" t="s">
-        <v>146</v>
-      </c>
-      <c r="D54" s="129" t="s">
-        <v>147</v>
-      </c>
-      <c r="E54" s="130"/>
-      <c r="F54" s="130"/>
+        <v>145</v>
+      </c>
+      <c r="D54" s="152" t="s">
+        <v>173</v>
+      </c>
+      <c r="E54" s="153"/>
+      <c r="F54" s="153"/>
       <c r="G54" s="117"/>
       <c r="H54" s="114">
         <v>43749</v>
@@ -6881,21 +7022,21 @@
       </c>
       <c r="J54" s="85"/>
     </row>
-    <row r="55" spans="1:10" s="4" customFormat="1" ht="42.75" customHeight="1" outlineLevel="1">
+    <row r="55" spans="1:10" s="4" customFormat="1" ht="63.75" customHeight="1" outlineLevel="1">
       <c r="A55" s="88" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B55" s="98" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C55" s="99" t="s">
-        <v>149</v>
-      </c>
-      <c r="D55" s="129" t="s">
-        <v>124</v>
-      </c>
-      <c r="E55" s="130"/>
-      <c r="F55" s="130"/>
+        <v>146</v>
+      </c>
+      <c r="D55" s="152" t="s">
+        <v>147</v>
+      </c>
+      <c r="E55" s="153"/>
+      <c r="F55" s="153"/>
       <c r="G55" s="117"/>
       <c r="H55" s="114">
         <v>43749</v>
@@ -6905,59 +7046,59 @@
       </c>
       <c r="J55" s="85"/>
     </row>
-    <row r="56" spans="1:10" s="4" customFormat="1" ht="12.75" outlineLevel="1">
-      <c r="A56" s="127" t="s">
+    <row r="56" spans="1:10" s="4" customFormat="1" ht="42.75" customHeight="1" outlineLevel="1">
+      <c r="A56" s="88" t="s">
+        <v>153</v>
+      </c>
+      <c r="B56" s="98" t="s">
+        <v>148</v>
+      </c>
+      <c r="C56" s="99" t="s">
+        <v>149</v>
+      </c>
+      <c r="D56" s="152" t="s">
+        <v>124</v>
+      </c>
+      <c r="E56" s="153"/>
+      <c r="F56" s="153"/>
+      <c r="G56" s="117"/>
+      <c r="H56" s="114">
+        <v>43749</v>
+      </c>
+      <c r="I56" s="87" t="s">
+        <v>39</v>
+      </c>
+      <c r="J56" s="85"/>
+    </row>
+    <row r="57" spans="1:10" s="4" customFormat="1" ht="12.75" outlineLevel="1">
+      <c r="A57" s="150" t="s">
         <v>217</v>
       </c>
-      <c r="B56" s="128"/>
-      <c r="C56" s="128"/>
-      <c r="D56" s="108"/>
-      <c r="E56" s="108"/>
-      <c r="F56" s="108"/>
-      <c r="G56" s="115"/>
-      <c r="H56" s="115"/>
-      <c r="I56" s="115"/>
-      <c r="J56" s="116"/>
-    </row>
-    <row r="57" spans="1:10" s="4" customFormat="1" ht="93" customHeight="1" outlineLevel="1">
-      <c r="A57" s="88" t="s">
+      <c r="B57" s="151"/>
+      <c r="C57" s="151"/>
+      <c r="D57" s="108"/>
+      <c r="E57" s="108"/>
+      <c r="F57" s="108"/>
+      <c r="G57" s="115"/>
+      <c r="H57" s="115"/>
+      <c r="I57" s="115"/>
+      <c r="J57" s="116"/>
+    </row>
+    <row r="58" spans="1:10" s="4" customFormat="1" ht="93" customHeight="1" outlineLevel="1">
+      <c r="A58" s="88" t="s">
         <v>181</v>
-      </c>
-      <c r="B57" s="98" t="s">
-        <v>127</v>
-      </c>
-      <c r="C57" s="99" t="s">
-        <v>155</v>
-      </c>
-      <c r="D57" s="129" t="s">
-        <v>156</v>
-      </c>
-      <c r="E57" s="130"/>
-      <c r="F57" s="130"/>
-      <c r="G57" s="117"/>
-      <c r="H57" s="114">
-        <v>43749</v>
-      </c>
-      <c r="I57" s="87" t="s">
-        <v>39</v>
-      </c>
-      <c r="J57" s="85"/>
-    </row>
-    <row r="58" spans="1:10" s="4" customFormat="1" ht="93.75" customHeight="1" outlineLevel="1">
-      <c r="A58" s="88" t="s">
-        <v>182</v>
       </c>
       <c r="B58" s="98" t="s">
         <v>127</v>
       </c>
       <c r="C58" s="99" t="s">
-        <v>157</v>
-      </c>
-      <c r="D58" s="129" t="s">
-        <v>128</v>
-      </c>
-      <c r="E58" s="130"/>
-      <c r="F58" s="130"/>
+        <v>155</v>
+      </c>
+      <c r="D58" s="152" t="s">
+        <v>156</v>
+      </c>
+      <c r="E58" s="153"/>
+      <c r="F58" s="153"/>
       <c r="G58" s="117"/>
       <c r="H58" s="114">
         <v>43749</v>
@@ -6967,21 +7108,21 @@
       </c>
       <c r="J58" s="85"/>
     </row>
-    <row r="59" spans="1:10" s="4" customFormat="1" ht="93" customHeight="1" outlineLevel="1">
+    <row r="59" spans="1:10" s="4" customFormat="1" ht="93.75" customHeight="1" outlineLevel="1">
       <c r="A59" s="88" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B59" s="98" t="s">
         <v>127</v>
       </c>
       <c r="C59" s="99" t="s">
-        <v>158</v>
-      </c>
-      <c r="D59" s="129" t="s">
-        <v>156</v>
-      </c>
-      <c r="E59" s="130"/>
-      <c r="F59" s="130"/>
+        <v>157</v>
+      </c>
+      <c r="D59" s="152" t="s">
+        <v>128</v>
+      </c>
+      <c r="E59" s="153"/>
+      <c r="F59" s="153"/>
       <c r="G59" s="117"/>
       <c r="H59" s="114">
         <v>43749</v>
@@ -6991,21 +7132,21 @@
       </c>
       <c r="J59" s="85"/>
     </row>
-    <row r="60" spans="1:10" s="4" customFormat="1" ht="91.5" customHeight="1" outlineLevel="1">
+    <row r="60" spans="1:10" s="4" customFormat="1" ht="93" customHeight="1" outlineLevel="1">
       <c r="A60" s="88" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B60" s="98" t="s">
         <v>127</v>
       </c>
       <c r="C60" s="99" t="s">
-        <v>159</v>
-      </c>
-      <c r="D60" s="129" t="s">
+        <v>158</v>
+      </c>
+      <c r="D60" s="152" t="s">
         <v>156</v>
       </c>
-      <c r="E60" s="130"/>
-      <c r="F60" s="130"/>
+      <c r="E60" s="153"/>
+      <c r="F60" s="153"/>
       <c r="G60" s="117"/>
       <c r="H60" s="114">
         <v>43749</v>
@@ -7015,21 +7156,21 @@
       </c>
       <c r="J60" s="85"/>
     </row>
-    <row r="61" spans="1:10" s="4" customFormat="1" ht="93.75" customHeight="1" outlineLevel="1">
+    <row r="61" spans="1:10" s="4" customFormat="1" ht="91.5" customHeight="1" outlineLevel="1">
       <c r="A61" s="88" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B61" s="98" t="s">
         <v>127</v>
       </c>
       <c r="C61" s="99" t="s">
-        <v>160</v>
-      </c>
-      <c r="D61" s="129" t="s">
+        <v>159</v>
+      </c>
+      <c r="D61" s="152" t="s">
         <v>156</v>
       </c>
-      <c r="E61" s="130"/>
-      <c r="F61" s="130"/>
+      <c r="E61" s="153"/>
+      <c r="F61" s="153"/>
       <c r="G61" s="117"/>
       <c r="H61" s="114">
         <v>43749</v>
@@ -7041,19 +7182,19 @@
     </row>
     <row r="62" spans="1:10" s="4" customFormat="1" ht="93.75" customHeight="1" outlineLevel="1">
       <c r="A62" s="88" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B62" s="98" t="s">
         <v>127</v>
       </c>
       <c r="C62" s="99" t="s">
-        <v>161</v>
-      </c>
-      <c r="D62" s="129" t="s">
+        <v>160</v>
+      </c>
+      <c r="D62" s="152" t="s">
         <v>156</v>
       </c>
-      <c r="E62" s="130"/>
-      <c r="F62" s="130"/>
+      <c r="E62" s="153"/>
+      <c r="F62" s="153"/>
       <c r="G62" s="117"/>
       <c r="H62" s="114">
         <v>43749</v>
@@ -7065,19 +7206,19 @@
     </row>
     <row r="63" spans="1:10" s="4" customFormat="1" ht="93.75" customHeight="1" outlineLevel="1">
       <c r="A63" s="88" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B63" s="98" t="s">
         <v>127</v>
       </c>
       <c r="C63" s="99" t="s">
-        <v>162</v>
-      </c>
-      <c r="D63" s="129" t="s">
+        <v>161</v>
+      </c>
+      <c r="D63" s="152" t="s">
         <v>156</v>
       </c>
-      <c r="E63" s="130"/>
-      <c r="F63" s="130"/>
+      <c r="E63" s="153"/>
+      <c r="F63" s="153"/>
       <c r="G63" s="117"/>
       <c r="H63" s="114">
         <v>43749</v>
@@ -7089,19 +7230,19 @@
     </row>
     <row r="64" spans="1:10" s="4" customFormat="1" ht="93.75" customHeight="1" outlineLevel="1">
       <c r="A64" s="88" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B64" s="98" t="s">
         <v>127</v>
       </c>
       <c r="C64" s="99" t="s">
-        <v>163</v>
-      </c>
-      <c r="D64" s="129" t="s">
+        <v>162</v>
+      </c>
+      <c r="D64" s="152" t="s">
         <v>156</v>
       </c>
-      <c r="E64" s="130"/>
-      <c r="F64" s="130"/>
+      <c r="E64" s="153"/>
+      <c r="F64" s="153"/>
       <c r="G64" s="117"/>
       <c r="H64" s="114">
         <v>43749</v>
@@ -7113,19 +7254,19 @@
     </row>
     <row r="65" spans="1:10" s="4" customFormat="1" ht="93.75" customHeight="1" outlineLevel="1">
       <c r="A65" s="88" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B65" s="98" t="s">
         <v>127</v>
       </c>
       <c r="C65" s="99" t="s">
-        <v>164</v>
-      </c>
-      <c r="D65" s="129" t="s">
+        <v>163</v>
+      </c>
+      <c r="D65" s="152" t="s">
         <v>156</v>
       </c>
-      <c r="E65" s="130"/>
-      <c r="F65" s="130"/>
+      <c r="E65" s="153"/>
+      <c r="F65" s="153"/>
       <c r="G65" s="117"/>
       <c r="H65" s="114">
         <v>43749</v>
@@ -7137,19 +7278,19 @@
     </row>
     <row r="66" spans="1:10" s="4" customFormat="1" ht="93.75" customHeight="1" outlineLevel="1">
       <c r="A66" s="88" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B66" s="98" t="s">
         <v>127</v>
       </c>
       <c r="C66" s="99" t="s">
-        <v>165</v>
-      </c>
-      <c r="D66" s="129" t="s">
+        <v>164</v>
+      </c>
+      <c r="D66" s="152" t="s">
         <v>156</v>
       </c>
-      <c r="E66" s="130"/>
-      <c r="F66" s="130"/>
+      <c r="E66" s="153"/>
+      <c r="F66" s="153"/>
       <c r="G66" s="117"/>
       <c r="H66" s="114">
         <v>43749</v>
@@ -7159,21 +7300,21 @@
       </c>
       <c r="J66" s="85"/>
     </row>
-    <row r="67" spans="1:10" s="4" customFormat="1" ht="27" customHeight="1" outlineLevel="1">
+    <row r="67" spans="1:10" s="4" customFormat="1" ht="93.75" customHeight="1" outlineLevel="1">
       <c r="A67" s="88" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B67" s="98" t="s">
         <v>127</v>
       </c>
       <c r="C67" s="99" t="s">
-        <v>166</v>
-      </c>
-      <c r="D67" s="129" t="s">
-        <v>135</v>
-      </c>
-      <c r="E67" s="130"/>
-      <c r="F67" s="130"/>
+        <v>165</v>
+      </c>
+      <c r="D67" s="152" t="s">
+        <v>156</v>
+      </c>
+      <c r="E67" s="153"/>
+      <c r="F67" s="153"/>
       <c r="G67" s="117"/>
       <c r="H67" s="114">
         <v>43749</v>
@@ -7183,69 +7324,69 @@
       </c>
       <c r="J67" s="85"/>
     </row>
-    <row r="68" spans="1:10" s="180" customFormat="1" ht="39" customHeight="1" outlineLevel="1">
-      <c r="A68" s="172" t="s">
+    <row r="68" spans="1:10" s="4" customFormat="1" ht="27" customHeight="1" outlineLevel="1">
+      <c r="A68" s="88" t="s">
+        <v>191</v>
+      </c>
+      <c r="B68" s="98" t="s">
+        <v>127</v>
+      </c>
+      <c r="C68" s="99" t="s">
+        <v>166</v>
+      </c>
+      <c r="D68" s="152" t="s">
+        <v>135</v>
+      </c>
+      <c r="E68" s="153"/>
+      <c r="F68" s="153"/>
+      <c r="G68" s="117"/>
+      <c r="H68" s="114">
+        <v>43749</v>
+      </c>
+      <c r="I68" s="87" t="s">
+        <v>39</v>
+      </c>
+      <c r="J68" s="85"/>
+    </row>
+    <row r="69" spans="1:10" s="140" customFormat="1" ht="39" customHeight="1" outlineLevel="1">
+      <c r="A69" s="134" t="s">
         <v>192</v>
       </c>
-      <c r="B68" s="173" t="s">
+      <c r="B69" s="135" t="s">
         <v>207</v>
       </c>
-      <c r="C68" s="174" t="s">
+      <c r="C69" s="136" t="s">
         <v>167</v>
       </c>
-      <c r="D68" s="175" t="s">
+      <c r="D69" s="189" t="s">
         <v>228</v>
       </c>
-      <c r="E68" s="176"/>
-      <c r="F68" s="176"/>
-      <c r="G68" s="177"/>
-      <c r="H68" s="168">
+      <c r="E69" s="190"/>
+      <c r="F69" s="190"/>
+      <c r="G69" s="137"/>
+      <c r="H69" s="130">
         <v>43749</v>
       </c>
-      <c r="I68" s="178" t="s">
+      <c r="I69" s="138" t="s">
         <v>39</v>
       </c>
-      <c r="J68" s="179"/>
-    </row>
-    <row r="69" spans="1:10" s="4" customFormat="1" ht="39" customHeight="1" outlineLevel="1">
-      <c r="A69" s="88" t="s">
+      <c r="J69" s="139"/>
+    </row>
+    <row r="70" spans="1:10" s="4" customFormat="1" ht="39" customHeight="1" outlineLevel="1">
+      <c r="A70" s="88" t="s">
         <v>193</v>
-      </c>
-      <c r="B69" s="98" t="s">
-        <v>139</v>
-      </c>
-      <c r="C69" s="99" t="s">
-        <v>168</v>
-      </c>
-      <c r="D69" s="129" t="s">
-        <v>141</v>
-      </c>
-      <c r="E69" s="130"/>
-      <c r="F69" s="130"/>
-      <c r="G69" s="117"/>
-      <c r="H69" s="114">
-        <v>43749</v>
-      </c>
-      <c r="I69" s="87" t="s">
-        <v>10</v>
-      </c>
-      <c r="J69" s="85"/>
-    </row>
-    <row r="70" spans="1:10" s="4" customFormat="1" ht="42.75" customHeight="1" outlineLevel="1">
-      <c r="A70" s="88" t="s">
-        <v>194</v>
       </c>
       <c r="B70" s="98" t="s">
         <v>139</v>
       </c>
       <c r="C70" s="99" t="s">
-        <v>169</v>
-      </c>
-      <c r="D70" s="129" t="s">
+        <v>168</v>
+      </c>
+      <c r="D70" s="152" t="s">
         <v>141</v>
       </c>
-      <c r="E70" s="130"/>
-      <c r="F70" s="130"/>
+      <c r="E70" s="153"/>
+      <c r="F70" s="153"/>
       <c r="G70" s="117"/>
       <c r="H70" s="114">
         <v>43749</v>
@@ -7257,19 +7398,19 @@
     </row>
     <row r="71" spans="1:10" s="4" customFormat="1" ht="42.75" customHeight="1" outlineLevel="1">
       <c r="A71" s="88" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B71" s="98" t="s">
         <v>139</v>
       </c>
       <c r="C71" s="99" t="s">
-        <v>170</v>
-      </c>
-      <c r="D71" s="129" t="s">
+        <v>169</v>
+      </c>
+      <c r="D71" s="152" t="s">
         <v>141</v>
       </c>
-      <c r="E71" s="130"/>
-      <c r="F71" s="130"/>
+      <c r="E71" s="153"/>
+      <c r="F71" s="153"/>
       <c r="G71" s="117"/>
       <c r="H71" s="114">
         <v>43749</v>
@@ -7281,19 +7422,19 @@
     </row>
     <row r="72" spans="1:10" s="4" customFormat="1" ht="42.75" customHeight="1" outlineLevel="1">
       <c r="A72" s="88" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B72" s="98" t="s">
         <v>139</v>
       </c>
       <c r="C72" s="99" t="s">
-        <v>171</v>
-      </c>
-      <c r="D72" s="129" t="s">
+        <v>170</v>
+      </c>
+      <c r="D72" s="152" t="s">
         <v>141</v>
       </c>
-      <c r="E72" s="130"/>
-      <c r="F72" s="130"/>
+      <c r="E72" s="153"/>
+      <c r="F72" s="153"/>
       <c r="G72" s="117"/>
       <c r="H72" s="114">
         <v>43749</v>
@@ -7305,19 +7446,19 @@
     </row>
     <row r="73" spans="1:10" s="4" customFormat="1" ht="42.75" customHeight="1" outlineLevel="1">
       <c r="A73" s="88" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B73" s="98" t="s">
         <v>139</v>
       </c>
       <c r="C73" s="99" t="s">
-        <v>172</v>
-      </c>
-      <c r="D73" s="129" t="s">
+        <v>171</v>
+      </c>
+      <c r="D73" s="152" t="s">
         <v>141</v>
       </c>
-      <c r="E73" s="130"/>
-      <c r="F73" s="130"/>
+      <c r="E73" s="153"/>
+      <c r="F73" s="153"/>
       <c r="G73" s="117"/>
       <c r="H73" s="114">
         <v>43749</v>
@@ -7327,45 +7468,45 @@
       </c>
       <c r="J73" s="85"/>
     </row>
-    <row r="74" spans="1:10" s="4" customFormat="1" ht="39" customHeight="1" outlineLevel="1">
+    <row r="74" spans="1:10" s="4" customFormat="1" ht="42.75" customHeight="1" outlineLevel="1">
       <c r="A74" s="88" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B74" s="98" t="s">
         <v>139</v>
       </c>
       <c r="C74" s="99" t="s">
-        <v>174</v>
-      </c>
-      <c r="D74" s="129" t="s">
-        <v>173</v>
-      </c>
-      <c r="E74" s="130"/>
-      <c r="F74" s="130"/>
+        <v>172</v>
+      </c>
+      <c r="D74" s="152" t="s">
+        <v>141</v>
+      </c>
+      <c r="E74" s="153"/>
+      <c r="F74" s="153"/>
       <c r="G74" s="117"/>
       <c r="H74" s="114">
         <v>43749</v>
       </c>
       <c r="I74" s="87" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="J74" s="85"/>
     </row>
     <row r="75" spans="1:10" s="4" customFormat="1" ht="39" customHeight="1" outlineLevel="1">
       <c r="A75" s="88" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B75" s="98" t="s">
         <v>139</v>
       </c>
       <c r="C75" s="99" t="s">
-        <v>175</v>
-      </c>
-      <c r="D75" s="129" t="s">
-        <v>147</v>
-      </c>
-      <c r="E75" s="130"/>
-      <c r="F75" s="130"/>
+        <v>174</v>
+      </c>
+      <c r="D75" s="152" t="s">
+        <v>173</v>
+      </c>
+      <c r="E75" s="153"/>
+      <c r="F75" s="153"/>
       <c r="G75" s="117"/>
       <c r="H75" s="114">
         <v>43749</v>
@@ -7375,21 +7516,21 @@
       </c>
       <c r="J75" s="85"/>
     </row>
-    <row r="76" spans="1:10" s="4" customFormat="1" ht="42.75" customHeight="1" outlineLevel="1">
+    <row r="76" spans="1:10" s="4" customFormat="1" ht="39" customHeight="1" outlineLevel="1">
       <c r="A76" s="88" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B76" s="98" t="s">
         <v>139</v>
       </c>
       <c r="C76" s="99" t="s">
-        <v>176</v>
-      </c>
-      <c r="D76" s="129" t="s">
+        <v>175</v>
+      </c>
+      <c r="D76" s="152" t="s">
         <v>147</v>
       </c>
-      <c r="E76" s="130"/>
-      <c r="F76" s="130"/>
+      <c r="E76" s="153"/>
+      <c r="F76" s="153"/>
       <c r="G76" s="117"/>
       <c r="H76" s="114">
         <v>43749</v>
@@ -7401,19 +7542,19 @@
     </row>
     <row r="77" spans="1:10" s="4" customFormat="1" ht="42.75" customHeight="1" outlineLevel="1">
       <c r="A77" s="88" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B77" s="98" t="s">
         <v>139</v>
       </c>
       <c r="C77" s="99" t="s">
-        <v>177</v>
-      </c>
-      <c r="D77" s="129" t="s">
+        <v>176</v>
+      </c>
+      <c r="D77" s="152" t="s">
         <v>147</v>
       </c>
-      <c r="E77" s="130"/>
-      <c r="F77" s="130"/>
+      <c r="E77" s="153"/>
+      <c r="F77" s="153"/>
       <c r="G77" s="117"/>
       <c r="H77" s="114">
         <v>43749</v>
@@ -7425,19 +7566,19 @@
     </row>
     <row r="78" spans="1:10" s="4" customFormat="1" ht="42.75" customHeight="1" outlineLevel="1">
       <c r="A78" s="88" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B78" s="98" t="s">
         <v>139</v>
       </c>
       <c r="C78" s="99" t="s">
-        <v>178</v>
-      </c>
-      <c r="D78" s="129" t="s">
+        <v>177</v>
+      </c>
+      <c r="D78" s="152" t="s">
         <v>147</v>
       </c>
-      <c r="E78" s="130"/>
-      <c r="F78" s="130"/>
+      <c r="E78" s="153"/>
+      <c r="F78" s="153"/>
       <c r="G78" s="117"/>
       <c r="H78" s="114">
         <v>43749</v>
@@ -7449,19 +7590,19 @@
     </row>
     <row r="79" spans="1:10" s="4" customFormat="1" ht="42.75" customHeight="1" outlineLevel="1">
       <c r="A79" s="88" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B79" s="98" t="s">
         <v>139</v>
       </c>
       <c r="C79" s="99" t="s">
-        <v>179</v>
-      </c>
-      <c r="D79" s="129" t="s">
+        <v>178</v>
+      </c>
+      <c r="D79" s="152" t="s">
         <v>147</v>
       </c>
-      <c r="E79" s="130"/>
-      <c r="F79" s="130"/>
+      <c r="E79" s="153"/>
+      <c r="F79" s="153"/>
       <c r="G79" s="117"/>
       <c r="H79" s="114">
         <v>43749</v>
@@ -7471,21 +7612,21 @@
       </c>
       <c r="J79" s="85"/>
     </row>
-    <row r="80" spans="1:10" s="4" customFormat="1" ht="30.75" customHeight="1" outlineLevel="1">
+    <row r="80" spans="1:10" s="4" customFormat="1" ht="42.75" customHeight="1" outlineLevel="1">
       <c r="A80" s="88" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B80" s="98" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C80" s="99" t="s">
-        <v>180</v>
-      </c>
-      <c r="D80" s="129" t="s">
-        <v>124</v>
-      </c>
-      <c r="E80" s="130"/>
-      <c r="F80" s="130"/>
+        <v>179</v>
+      </c>
+      <c r="D80" s="152" t="s">
+        <v>147</v>
+      </c>
+      <c r="E80" s="153"/>
+      <c r="F80" s="153"/>
       <c r="G80" s="117"/>
       <c r="H80" s="114">
         <v>43749</v>
@@ -7495,107 +7636,107 @@
       </c>
       <c r="J80" s="85"/>
     </row>
-    <row r="81" spans="1:10" s="4" customFormat="1" ht="12.75" outlineLevel="1">
-      <c r="A81" s="127" t="s">
+    <row r="81" spans="1:10" s="4" customFormat="1" ht="30.75" customHeight="1" outlineLevel="1">
+      <c r="A81" s="88" t="s">
+        <v>204</v>
+      </c>
+      <c r="B81" s="98" t="s">
+        <v>148</v>
+      </c>
+      <c r="C81" s="99" t="s">
+        <v>180</v>
+      </c>
+      <c r="D81" s="152" t="s">
+        <v>124</v>
+      </c>
+      <c r="E81" s="153"/>
+      <c r="F81" s="153"/>
+      <c r="G81" s="117"/>
+      <c r="H81" s="114">
+        <v>43749</v>
+      </c>
+      <c r="I81" s="87" t="s">
+        <v>39</v>
+      </c>
+      <c r="J81" s="85"/>
+    </row>
+    <row r="82" spans="1:10" s="4" customFormat="1" ht="12.75" outlineLevel="1">
+      <c r="A82" s="150" t="s">
         <v>218</v>
       </c>
-      <c r="B81" s="128"/>
-      <c r="C81" s="128"/>
-      <c r="D81" s="108"/>
-      <c r="E81" s="108"/>
-      <c r="F81" s="108"/>
-      <c r="G81" s="115"/>
-      <c r="H81" s="115"/>
-      <c r="I81" s="115"/>
-      <c r="J81" s="116"/>
-    </row>
-    <row r="82" spans="1:10" s="189" customFormat="1" ht="27" customHeight="1" outlineLevel="1">
-      <c r="A82" s="182" t="s">
+      <c r="B82" s="151"/>
+      <c r="C82" s="151"/>
+      <c r="D82" s="108"/>
+      <c r="E82" s="108"/>
+      <c r="F82" s="108"/>
+      <c r="G82" s="115"/>
+      <c r="H82" s="115"/>
+      <c r="I82" s="115"/>
+      <c r="J82" s="116"/>
+    </row>
+    <row r="83" spans="1:10" s="147" customFormat="1" ht="27" customHeight="1" outlineLevel="1">
+      <c r="A83" s="142" t="s">
         <v>205</v>
       </c>
-      <c r="B82" s="183" t="s">
+      <c r="B83" s="143" t="s">
         <v>224</v>
       </c>
-      <c r="C82" s="184" t="s">
+      <c r="C83" s="144" t="s">
         <v>209</v>
       </c>
-      <c r="D82" s="185" t="s">
+      <c r="D83" s="187" t="s">
         <v>225</v>
       </c>
-      <c r="E82" s="186"/>
-      <c r="F82" s="186"/>
-      <c r="G82" s="187"/>
-      <c r="H82" s="168">
+      <c r="E83" s="188"/>
+      <c r="F83" s="188"/>
+      <c r="G83" s="145"/>
+      <c r="H83" s="130">
         <v>43749</v>
       </c>
-      <c r="I82" s="184" t="s">
+      <c r="I83" s="144" t="s">
         <v>10</v>
       </c>
-      <c r="J82" s="188"/>
-    </row>
-    <row r="83" spans="1:10" s="171" customFormat="1" ht="27" customHeight="1" outlineLevel="1">
-      <c r="A83" s="162" t="s">
+      <c r="J83" s="146"/>
+    </row>
+    <row r="84" spans="1:10" s="133" customFormat="1" ht="27" customHeight="1" outlineLevel="1">
+      <c r="A84" s="126" t="s">
         <v>219</v>
       </c>
-      <c r="B83" s="181" t="s">
+      <c r="B84" s="141" t="s">
         <v>206</v>
       </c>
-      <c r="C83" s="169" t="s">
+      <c r="C84" s="131" t="s">
         <v>210</v>
       </c>
-      <c r="D83" s="165" t="s">
+      <c r="D84" s="185" t="s">
         <v>226</v>
       </c>
-      <c r="E83" s="166"/>
-      <c r="F83" s="166"/>
-      <c r="G83" s="167"/>
-      <c r="H83" s="168">
+      <c r="E84" s="186"/>
+      <c r="F84" s="186"/>
+      <c r="G84" s="129"/>
+      <c r="H84" s="130">
         <v>43749</v>
       </c>
-      <c r="I83" s="169" t="s">
+      <c r="I84" s="131" t="s">
         <v>227</v>
       </c>
-      <c r="J83" s="170"/>
-    </row>
-    <row r="84" spans="1:10" s="124" customFormat="1" ht="27" customHeight="1" outlineLevel="1">
-      <c r="A84" s="118" t="s">
-        <v>220</v>
-      </c>
-      <c r="B84" s="119" t="s">
-        <v>206</v>
-      </c>
-      <c r="C84" s="120" t="s">
-        <v>211</v>
-      </c>
-      <c r="D84" s="131" t="s">
-        <v>208</v>
-      </c>
-      <c r="E84" s="132"/>
-      <c r="F84" s="132"/>
-      <c r="G84" s="121"/>
-      <c r="H84" s="122">
-        <v>43749</v>
-      </c>
-      <c r="I84" s="87" t="s">
-        <v>39</v>
-      </c>
-      <c r="J84" s="123"/>
+      <c r="J84" s="132"/>
     </row>
     <row r="85" spans="1:10" s="124" customFormat="1" ht="27" customHeight="1" outlineLevel="1">
       <c r="A85" s="118" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B85" s="119" t="s">
         <v>206</v>
       </c>
       <c r="C85" s="120" t="s">
-        <v>212</v>
-      </c>
-      <c r="D85" s="131" t="s">
-        <v>213</v>
-      </c>
-      <c r="E85" s="132"/>
-      <c r="F85" s="132"/>
+        <v>211</v>
+      </c>
+      <c r="D85" s="171" t="s">
+        <v>208</v>
+      </c>
+      <c r="E85" s="172"/>
+      <c r="F85" s="172"/>
       <c r="G85" s="121"/>
       <c r="H85" s="122">
         <v>43749</v>
@@ -7605,7 +7746,30 @@
       </c>
       <c r="J85" s="123"/>
     </row>
-    <row r="86" spans="1:10" ht="12" customHeight="1"/>
+    <row r="86" spans="1:10" s="124" customFormat="1" ht="27" customHeight="1" outlineLevel="1">
+      <c r="A86" s="118" t="s">
+        <v>221</v>
+      </c>
+      <c r="B86" s="119" t="s">
+        <v>206</v>
+      </c>
+      <c r="C86" s="120" t="s">
+        <v>212</v>
+      </c>
+      <c r="D86" s="171" t="s">
+        <v>213</v>
+      </c>
+      <c r="E86" s="172"/>
+      <c r="F86" s="172"/>
+      <c r="G86" s="121"/>
+      <c r="H86" s="122">
+        <v>43749</v>
+      </c>
+      <c r="I86" s="87" t="s">
+        <v>39</v>
+      </c>
+      <c r="J86" s="123"/>
+    </row>
     <row r="87" spans="1:10" ht="12" customHeight="1"/>
     <row r="88" spans="1:10" ht="12" customHeight="1"/>
     <row r="89" spans="1:10" ht="12" customHeight="1"/>
@@ -7640,26 +7804,72 @@
     <row r="118" ht="12" customHeight="1"/>
     <row r="119" ht="12" customHeight="1"/>
     <row r="120" ht="12" customHeight="1"/>
+    <row r="121" ht="12" customHeight="1"/>
   </sheetData>
-  <mergeCells count="92">
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D27:F27"/>
+  <mergeCells count="93">
+    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="D83:F83"/>
+    <mergeCell ref="D84:F84"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="D71:F71"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="D64:F64"/>
+    <mergeCell ref="D65:F65"/>
+    <mergeCell ref="D66:F66"/>
+    <mergeCell ref="D70:F70"/>
+    <mergeCell ref="D69:F69"/>
+    <mergeCell ref="D68:F68"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D81:F81"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="D86:F86"/>
+    <mergeCell ref="D85:F85"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:G10"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D75:F75"/>
     <mergeCell ref="D79:F79"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D75:F75"/>
-    <mergeCell ref="D76:F76"/>
-    <mergeCell ref="D77:F77"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D71:F71"/>
-    <mergeCell ref="D72:F72"/>
-    <mergeCell ref="D73:F73"/>
-    <mergeCell ref="D74:F74"/>
-    <mergeCell ref="D78:F78"/>
     <mergeCell ref="B1:D2"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="B5:D5"/>
@@ -7674,66 +7884,22 @@
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="H9:H10"/>
     <mergeCell ref="A11:J11"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="D85:F85"/>
-    <mergeCell ref="D84:F84"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:G10"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D27:F27"/>
     <mergeCell ref="D80:F80"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="D54:F54"/>
-    <mergeCell ref="D53:F53"/>
-    <mergeCell ref="A81:C81"/>
-    <mergeCell ref="D82:F82"/>
-    <mergeCell ref="D83:F83"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="D66:F66"/>
-    <mergeCell ref="D70:F70"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D76:F76"/>
+    <mergeCell ref="D77:F77"/>
+    <mergeCell ref="D78:F78"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="D60:F60"/>
     <mergeCell ref="D61:F61"/>
-    <mergeCell ref="D62:F62"/>
-    <mergeCell ref="D63:F63"/>
-    <mergeCell ref="D64:F64"/>
-    <mergeCell ref="D65:F65"/>
-    <mergeCell ref="D69:F69"/>
-    <mergeCell ref="D68:F68"/>
-    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D72:F72"/>
+    <mergeCell ref="D73:F73"/>
+    <mergeCell ref="D74:F74"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7848,11 +8014,11 @@
       </c>
       <c r="D8" s="76">
         <f>'Export all carrier choices'!B6</f>
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="E8" s="75">
         <f>'Export all carrier choices'!B7</f>
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F8" s="75">
         <f>'Export all carrier choices'!D6</f>
@@ -7860,7 +8026,7 @@
       </c>
       <c r="G8" s="76">
         <f>'Export all carrier choices'!D7</f>
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25">
@@ -7880,11 +8046,11 @@
       </c>
       <c r="D10" s="61">
         <f>SUM(D6:D9)</f>
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="E10" s="61">
         <f>SUM(E6:E9)</f>
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F10" s="61">
         <f>SUM(F6:F9)</f>
@@ -7892,7 +8058,7 @@
       </c>
       <c r="G10" s="62">
         <f>SUM(G6:G9)</f>
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25">
@@ -7913,7 +8079,7 @@
       <c r="D12" s="19"/>
       <c r="E12" s="24">
         <f>(D10+E10)*100/G10</f>
-        <v>98.529411764705884</v>
+        <v>98.550724637681157</v>
       </c>
       <c r="F12" s="19" t="s">
         <v>27</v>
@@ -7929,7 +8095,7 @@
       <c r="D13" s="19"/>
       <c r="E13" s="24">
         <f>D10*100/G10</f>
-        <v>69.117647058823536</v>
+        <v>81.159420289855078</v>
       </c>
       <c r="F13" s="19" t="s">
         <v>27</v>
